--- a/data/datacall_template/00template/Eel_Data_Call_Annex_Time_Series.xlsx
+++ b/data/datacall_template/00template/Eel_Data_Call_Annex_Time_Series.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="2310" windowWidth="16710" windowHeight="14370" tabRatio="851"/>
+    <workbookView xWindow="2520" yWindow="2310" windowWidth="16710" windowHeight="14370" tabRatio="851" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="1" r:id="rId1"/>
@@ -5590,7 +5590,7 @@
         <xdr:cNvPr id="5" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E6B91CB-A05C-4C70-9107-EEE8E56C6F40}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5E6B91CB-A05C-4C70-9107-EEE8E56C6F40}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6836,7 +6836,7 @@
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6983,7 +6983,7 @@
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7082,7 +7082,7 @@
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0B00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7217,7 +7217,7 @@
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A342F8CB-33D0-417A-A36E-AD4A47C8FA37}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A342F8CB-33D0-417A-A36E-AD4A47C8FA37}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7336,7 +7336,7 @@
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0C00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7459,7 +7459,7 @@
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99684019-E475-4F67-BAF6-B17F21048B77}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{99684019-E475-4F67-BAF6-B17F21048B77}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7570,7 +7570,7 @@
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4317529-802E-4994-BC01-27013D447207}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E4317529-802E-4994-BC01-27013D447207}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7705,7 +7705,7 @@
         <xdr:cNvPr id="3" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8959F17E-3F7A-4919-AFE3-FF3C193886E5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8959F17E-3F7A-4919-AFE3-FF3C193886E5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7807,7 +7807,7 @@
         <xdr:cNvPr id="2" name="Image 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF7D19C5-83A4-4758-82AA-9F9BD224E42B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EF7D19C5-83A4-4758-82AA-9F9BD224E42B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7849,7 +7849,7 @@
         <xdr:cNvPr id="2" name="Metin kutusu 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E21F326F-162D-480D-808B-0A287ADAC937}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E21F326F-162D-480D-808B-0A287ADAC937}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7904,7 +7904,7 @@
         <xdr:cNvPr id="3" name="Metin kutusu 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10B1B77D-A140-4CE5-AA2D-7105EDEB38AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{10B1B77D-A140-4CE5-AA2D-7105EDEB38AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7959,7 +7959,7 @@
         <xdr:cNvPr id="4" name="Metin kutusu 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9F3AE44-22D1-498D-AB9A-5686BF9EFA1E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E9F3AE44-22D1-498D-AB9A-5686BF9EFA1E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8014,7 +8014,7 @@
         <xdr:cNvPr id="5" name="Metin kutusu 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9B13A3C-9A80-44E0-A4A4-8766F6B6B5F6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F9B13A3C-9A80-44E0-A4A4-8766F6B6B5F6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8069,7 +8069,7 @@
         <xdr:cNvPr id="6" name="Metin kutusu 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D616AA12-B256-4470-86C4-F6C2C0652F50}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D616AA12-B256-4470-86C4-F6C2C0652F50}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8124,7 +8124,7 @@
         <xdr:cNvPr id="7" name="Metin kutusu 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99E8D820-DF10-4994-975A-C5CB1D4DFAA5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{99E8D820-DF10-4994-975A-C5CB1D4DFAA5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8179,7 +8179,7 @@
         <xdr:cNvPr id="8" name="Metin kutusu 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DD32F11-3437-4A9E-9D07-C160CE0311D3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DD32F11-3437-4A9E-9D07-C160CE0311D3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8234,7 +8234,7 @@
         <xdr:cNvPr id="9" name="Metin kutusu 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{840DBDDF-94F0-47B1-B461-99A7FEC8AA13}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{840DBDDF-94F0-47B1-B461-99A7FEC8AA13}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8289,7 +8289,7 @@
         <xdr:cNvPr id="10" name="Metin kutusu 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA3E0CA9-9F4B-4461-9A22-5B7C03B295BB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FA3E0CA9-9F4B-4461-9A22-5B7C03B295BB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8344,7 +8344,7 @@
         <xdr:cNvPr id="11" name="Metin kutusu 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1108D726-6069-41B5-BE24-4236650AFCB9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1108D726-6069-41B5-BE24-4236650AFCB9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8399,7 +8399,7 @@
         <xdr:cNvPr id="12" name="Metin kutusu 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{273D1CB8-99F4-477C-A9E9-A97BD879ABCB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{273D1CB8-99F4-477C-A9E9-A97BD879ABCB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8454,7 +8454,7 @@
         <xdr:cNvPr id="13" name="Metin kutusu 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E080288-FAE7-498D-92A0-0BA70C83D5F6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0E080288-FAE7-498D-92A0-0BA70C83D5F6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8509,7 +8509,7 @@
         <xdr:cNvPr id="14" name="Metin kutusu 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B78658D-5FD8-49FA-98E6-9FE2261809D1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4B78658D-5FD8-49FA-98E6-9FE2261809D1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8564,7 +8564,7 @@
         <xdr:cNvPr id="15" name="Metin kutusu 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96F123D3-0ABB-4BFD-BE70-BA9AF432FF65}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{96F123D3-0ABB-4BFD-BE70-BA9AF432FF65}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8619,7 +8619,7 @@
         <xdr:cNvPr id="16" name="Metin kutusu 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC71F6CC-0F9B-45F6-8D4D-ED2DF4D20635}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AC71F6CC-0F9B-45F6-8D4D-ED2DF4D20635}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8674,7 +8674,7 @@
         <xdr:cNvPr id="17" name="Metin kutusu 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6345556C-A525-43D4-A4FD-E02BD765CF48}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6345556C-A525-43D4-A4FD-E02BD765CF48}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8729,7 +8729,7 @@
         <xdr:cNvPr id="18" name="Metin kutusu 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A5EC68C-DA9C-4939-AB23-82B3A55D0519}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3A5EC68C-DA9C-4939-AB23-82B3A55D0519}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8784,7 +8784,7 @@
         <xdr:cNvPr id="19" name="Metin kutusu 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BAC3547-7327-445E-9D58-EAFE3C92E1F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6BAC3547-7327-445E-9D58-EAFE3C92E1F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8849,7 +8849,7 @@
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8950,7 +8950,7 @@
         <xdr:cNvPr id="2" name="Image 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10B44AC2-C419-43B9-86BC-FEAAC180167E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{10B44AC2-C419-43B9-86BC-FEAAC180167E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8997,7 +8997,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A17A3C2F-34EB-40E5-98D3-48A62FC2C039}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A17A3C2F-34EB-40E5-98D3-48A62FC2C039}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9040,7 +9040,7 @@
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1800-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1800-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9132,7 +9132,7 @@
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9305,7 +9305,7 @@
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9401,7 +9401,7 @@
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9493,7 +9493,7 @@
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E234901-1F6D-485A-BA9A-BBF1F3770C94}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9E234901-1F6D-485A-BA9A-BBF1F3770C94}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9591,7 +9591,7 @@
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9691,30 +9691,24 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>363070</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>91856</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>268941</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>145678</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>290456</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>55406</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>488576</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>155763</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{176ECACF-7428-4179-8C8C-0960002D1D24}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="Image 3"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -9725,82 +9719,58 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="9354670" y="4870044"/>
-          <a:ext cx="8399033" cy="4320397"/>
+          <a:off x="8157882" y="5546913"/>
+          <a:ext cx="10058400" cy="5657850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>355066</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>358588</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>15890</xdr:rowOff>
+      <xdr:rowOff>156882</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>113864</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>212911</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>125505</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Image 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48177383-FD8F-DF19-FE59-88D94BD2A06F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="Image 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9346666" y="1889514"/>
-          <a:ext cx="7008693" cy="2679808"/>
+          <a:off x="8247529" y="1636058"/>
+          <a:ext cx="6667500" cy="3733800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9832,7 +9802,7 @@
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9998,7 +9968,7 @@
         <xdr:cNvPr id="5" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92FEAA7F-4196-4D24-9292-0F040F4CEAF3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{92FEAA7F-4196-4D24-9292-0F040F4CEAF3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10072,7 +10042,7 @@
         <xdr:cNvPr id="6" name="Image 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55CBD131-7A71-495E-B9F3-AB5B4FA543DD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{55CBD131-7A71-495E-B9F3-AB5B4FA543DD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10121,7 +10091,7 @@
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10500,7 +10470,7 @@
   </sheetPr>
   <dimension ref="A1:AMK102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -56557,8 +56527,8 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:G1048576"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -56757,6 +56727,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <TaxCatchAllLabel xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <TaxKeywordTaxHTField xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010065CE7316361DFA48AC876C6112A59FE5" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fb125599c9f9a751b726b9a94d2e235b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4d5313c0-c1e6-4122-afa9-da1ccdba405d" xmlns:ns3="362c980f-4e38-4cca-bd06-5104ee5993c5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b91c66d6a628c7b1a21e6c64315cfea9" ns2:_="" ns3:_="">
     <xsd:import namespace="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
@@ -56933,42 +56924,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <TaxCatchAllLabel xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <TaxKeywordTaxHTField xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD77486B-9FB1-411A-ACCC-E50815D9A26B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50425A79-54B8-4D54-9EAF-8388D1CE4120}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <ds:schemaRef ds:uri="362c980f-4e38-4cca-bd06-5104ee5993c5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -56991,9 +56950,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50425A79-54B8-4D54-9EAF-8388D1CE4120}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD77486B-9FB1-411A-ACCC-E50815D9A26B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <ds:schemaRef ds:uri="362c980f-4e38-4cca-bd06-5104ee5993c5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/datacall_template/00template/Eel_Data_Call_Annex_Time_Series.xlsx
+++ b/data/datacall_template/00template/Eel_Data_Call_Annex_Time_Series.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="2310" windowWidth="16710" windowHeight="14370" tabRatio="851" activeTab="6"/>
+    <workbookView xWindow="2520" yWindow="2310" windowWidth="16710" windowHeight="14370" tabRatio="851"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="1" r:id="rId1"/>
@@ -4009,9 +4009,6 @@
     <t>Sex ratio expressed as a proportion of female; between 0 (all males) and 1 (all females)</t>
   </si>
   <si>
-    <t>Proportion of differentiated eels in the group</t>
-  </si>
-  <si>
     <t>Mean length in mm of the female fraction</t>
   </si>
   <si>
@@ -4094,9 +4091,6 @@
     <t>Sex (1=female, 0=male)</t>
   </si>
   <si>
-    <t xml:space="preserve">Is the eel differentiated (male or female), 1=yes, 0=no </t>
-  </si>
-  <si>
     <r>
       <rPr>
         <i/>
@@ -4833,6 +4827,12 @@
   </si>
   <si>
     <t>false</t>
+  </si>
+  <si>
+    <t>Proportion of differentiated eels in the group. Differentiation of gonads is checked by histological analysis</t>
+  </si>
+  <si>
+    <t>Is the eel differentiated (male or female), 1=yes, 0=no . Differentiation of gonads is checked by histological analysis</t>
   </si>
 </sst>
 </file>
@@ -5590,7 +5590,7 @@
         <xdr:cNvPr id="5" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5E6B91CB-A05C-4C70-9107-EEE8E56C6F40}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E6B91CB-A05C-4C70-9107-EEE8E56C6F40}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6836,7 +6836,7 @@
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6983,7 +6983,7 @@
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7082,7 +7082,7 @@
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0B00-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7217,7 +7217,7 @@
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A342F8CB-33D0-417A-A36E-AD4A47C8FA37}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A342F8CB-33D0-417A-A36E-AD4A47C8FA37}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7336,7 +7336,7 @@
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0C00-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7459,7 +7459,7 @@
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{99684019-E475-4F67-BAF6-B17F21048B77}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99684019-E475-4F67-BAF6-B17F21048B77}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7570,7 +7570,7 @@
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E4317529-802E-4994-BC01-27013D447207}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4317529-802E-4994-BC01-27013D447207}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7705,7 +7705,7 @@
         <xdr:cNvPr id="3" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8959F17E-3F7A-4919-AFE3-FF3C193886E5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8959F17E-3F7A-4919-AFE3-FF3C193886E5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7807,7 +7807,7 @@
         <xdr:cNvPr id="2" name="Image 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EF7D19C5-83A4-4758-82AA-9F9BD224E42B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF7D19C5-83A4-4758-82AA-9F9BD224E42B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7849,7 +7849,7 @@
         <xdr:cNvPr id="2" name="Metin kutusu 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E21F326F-162D-480D-808B-0A287ADAC937}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E21F326F-162D-480D-808B-0A287ADAC937}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7904,7 +7904,7 @@
         <xdr:cNvPr id="3" name="Metin kutusu 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{10B1B77D-A140-4CE5-AA2D-7105EDEB38AE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10B1B77D-A140-4CE5-AA2D-7105EDEB38AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7959,7 +7959,7 @@
         <xdr:cNvPr id="4" name="Metin kutusu 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E9F3AE44-22D1-498D-AB9A-5686BF9EFA1E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9F3AE44-22D1-498D-AB9A-5686BF9EFA1E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8014,7 +8014,7 @@
         <xdr:cNvPr id="5" name="Metin kutusu 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F9B13A3C-9A80-44E0-A4A4-8766F6B6B5F6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9B13A3C-9A80-44E0-A4A4-8766F6B6B5F6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8069,7 +8069,7 @@
         <xdr:cNvPr id="6" name="Metin kutusu 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D616AA12-B256-4470-86C4-F6C2C0652F50}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D616AA12-B256-4470-86C4-F6C2C0652F50}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8124,7 +8124,7 @@
         <xdr:cNvPr id="7" name="Metin kutusu 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{99E8D820-DF10-4994-975A-C5CB1D4DFAA5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99E8D820-DF10-4994-975A-C5CB1D4DFAA5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8179,7 +8179,7 @@
         <xdr:cNvPr id="8" name="Metin kutusu 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DD32F11-3437-4A9E-9D07-C160CE0311D3}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DD32F11-3437-4A9E-9D07-C160CE0311D3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8234,7 +8234,7 @@
         <xdr:cNvPr id="9" name="Metin kutusu 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{840DBDDF-94F0-47B1-B461-99A7FEC8AA13}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{840DBDDF-94F0-47B1-B461-99A7FEC8AA13}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8289,7 +8289,7 @@
         <xdr:cNvPr id="10" name="Metin kutusu 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FA3E0CA9-9F4B-4461-9A22-5B7C03B295BB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA3E0CA9-9F4B-4461-9A22-5B7C03B295BB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8344,7 +8344,7 @@
         <xdr:cNvPr id="11" name="Metin kutusu 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1108D726-6069-41B5-BE24-4236650AFCB9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1108D726-6069-41B5-BE24-4236650AFCB9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8399,7 +8399,7 @@
         <xdr:cNvPr id="12" name="Metin kutusu 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{273D1CB8-99F4-477C-A9E9-A97BD879ABCB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{273D1CB8-99F4-477C-A9E9-A97BD879ABCB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8454,7 +8454,7 @@
         <xdr:cNvPr id="13" name="Metin kutusu 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0E080288-FAE7-498D-92A0-0BA70C83D5F6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E080288-FAE7-498D-92A0-0BA70C83D5F6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8509,7 +8509,7 @@
         <xdr:cNvPr id="14" name="Metin kutusu 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4B78658D-5FD8-49FA-98E6-9FE2261809D1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B78658D-5FD8-49FA-98E6-9FE2261809D1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8564,7 +8564,7 @@
         <xdr:cNvPr id="15" name="Metin kutusu 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{96F123D3-0ABB-4BFD-BE70-BA9AF432FF65}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96F123D3-0ABB-4BFD-BE70-BA9AF432FF65}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8619,7 +8619,7 @@
         <xdr:cNvPr id="16" name="Metin kutusu 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AC71F6CC-0F9B-45F6-8D4D-ED2DF4D20635}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC71F6CC-0F9B-45F6-8D4D-ED2DF4D20635}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8674,7 +8674,7 @@
         <xdr:cNvPr id="17" name="Metin kutusu 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6345556C-A525-43D4-A4FD-E02BD765CF48}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6345556C-A525-43D4-A4FD-E02BD765CF48}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8729,7 +8729,7 @@
         <xdr:cNvPr id="18" name="Metin kutusu 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3A5EC68C-DA9C-4939-AB23-82B3A55D0519}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A5EC68C-DA9C-4939-AB23-82B3A55D0519}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8784,7 +8784,7 @@
         <xdr:cNvPr id="19" name="Metin kutusu 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6BAC3547-7327-445E-9D58-EAFE3C92E1F0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BAC3547-7327-445E-9D58-EAFE3C92E1F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8849,7 +8849,7 @@
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8950,7 +8950,7 @@
         <xdr:cNvPr id="2" name="Image 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{10B44AC2-C419-43B9-86BC-FEAAC180167E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10B44AC2-C419-43B9-86BC-FEAAC180167E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8997,7 +8997,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A17A3C2F-34EB-40E5-98D3-48A62FC2C039}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A17A3C2F-34EB-40E5-98D3-48A62FC2C039}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9040,7 +9040,7 @@
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1800-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1800-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9132,7 +9132,7 @@
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9305,7 +9305,7 @@
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9401,7 +9401,7 @@
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9493,7 +9493,7 @@
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9E234901-1F6D-485A-BA9A-BBF1F3770C94}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E234901-1F6D-485A-BA9A-BBF1F3770C94}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9591,7 +9591,7 @@
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9802,7 +9802,7 @@
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9950,30 +9950,24 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>16714</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>100170</xdr:rowOff>
+      <xdr:colOff>489857</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>241664</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>100027</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>119743</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{92FEAA7F-4196-4D24-9292-0F040F4CEAF3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="7" name="Image 6"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -9984,82 +9978,58 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="10814254" y="4474050"/>
-          <a:ext cx="8401210" cy="4320397"/>
+          <a:off x="12192000" y="4980214"/>
+          <a:ext cx="10058400" cy="5657850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>396240</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>136071</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:rowOff>149679</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>508833</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>108603</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>176893</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>127908</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Image 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{55CBD131-7A71-495E-B9F3-AB5B4FA543DD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="8" name="Image 7"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11193780" y="1478280"/>
-          <a:ext cx="7008693" cy="2684163"/>
+          <a:off x="12967607" y="1197429"/>
+          <a:ext cx="6667500" cy="3733800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10091,7 +10061,7 @@
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10470,9 +10440,7 @@
   </sheetPr>
   <dimension ref="A1:AMK102"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -10488,7 +10456,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="63" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
@@ -10632,7 +10600,7 @@
         <v>1171</v>
       </c>
       <c r="B20" s="94" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="120" customHeight="1" x14ac:dyDescent="0.2">
@@ -10659,7 +10627,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="58" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -10667,7 +10635,7 @@
         <v>1</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -10683,7 +10651,7 @@
         <v>28</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -10691,7 +10659,7 @@
         <v>29</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -10707,23 +10675,23 @@
         <v>413</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="80" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="B32" s="73" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -10735,7 +10703,7 @@
         <v>1266</v>
       </c>
       <c r="B34" s="58" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="E34" s="74"/>
     </row>
@@ -10763,7 +10731,7 @@
         <v>1255</v>
       </c>
       <c r="B37" s="73" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="C37" s="11"/>
       <c r="E37" s="74"/>
@@ -10773,7 +10741,7 @@
         <v>1235</v>
       </c>
       <c r="B38" s="89" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="E38" s="74"/>
     </row>
@@ -10842,7 +10810,7 @@
         <v>1208</v>
       </c>
       <c r="B45" s="73" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="C45" s="89"/>
       <c r="E45" s="74"/>
@@ -10862,7 +10830,7 @@
         <v>1275</v>
       </c>
       <c r="B47" s="89" t="s">
-        <v>1303</v>
+        <v>1553</v>
       </c>
       <c r="C47" s="73"/>
       <c r="E47" s="76"/>
@@ -10872,7 +10840,7 @@
         <v>1237</v>
       </c>
       <c r="B48" s="73" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="C48" s="73"/>
       <c r="E48" s="77"/>
@@ -10882,7 +10850,7 @@
         <v>1192</v>
       </c>
       <c r="B49" s="73" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="C49" s="73"/>
       <c r="E49" s="77"/>
@@ -10892,7 +10860,7 @@
         <v>1261</v>
       </c>
       <c r="B50" s="73" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="C50" s="73"/>
       <c r="E50" s="76"/>
@@ -10902,7 +10870,7 @@
         <v>1262</v>
       </c>
       <c r="B51" s="90" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="C51" s="73"/>
       <c r="E51" s="76"/>
@@ -10912,7 +10880,7 @@
         <v>1193</v>
       </c>
       <c r="B52" s="73" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="C52" s="73"/>
       <c r="E52" s="76"/>
@@ -10922,7 +10890,7 @@
         <v>1292</v>
       </c>
       <c r="B53" s="73" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="C53" s="73"/>
       <c r="E53" s="17"/>
@@ -10952,7 +10920,7 @@
         <v>1194</v>
       </c>
       <c r="B56" s="73" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="C56" s="73"/>
       <c r="E56" s="76"/>
@@ -10962,7 +10930,7 @@
         <v>1195</v>
       </c>
       <c r="B57" s="73" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="C57" s="73"/>
       <c r="E57" s="76"/>
@@ -10972,7 +10940,7 @@
         <v>1196</v>
       </c>
       <c r="B58" s="73" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="C58" s="73"/>
       <c r="E58" s="76"/>
@@ -10982,7 +10950,7 @@
         <v>1187</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="C59" s="73"/>
       <c r="E59" s="76"/>
@@ -10992,7 +10960,7 @@
         <v>1188</v>
       </c>
       <c r="B60" s="73" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="C60" s="73"/>
       <c r="E60" s="76"/>
@@ -11002,7 +10970,7 @@
         <v>1189</v>
       </c>
       <c r="B61" s="73" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="C61" s="73"/>
       <c r="E61" s="76"/>
@@ -11012,7 +10980,7 @@
         <v>1184</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="C62" s="73"/>
       <c r="E62" s="76"/>
@@ -11022,7 +10990,7 @@
         <v>1185</v>
       </c>
       <c r="B63" s="73" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="C63"/>
       <c r="E63" s="76"/>
@@ -11032,7 +11000,7 @@
         <v>1186</v>
       </c>
       <c r="B64" s="73" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="C64"/>
     </row>
@@ -11041,7 +11009,7 @@
         <v>1190</v>
       </c>
       <c r="B65" s="73" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -11049,7 +11017,7 @@
         <v>1191</v>
       </c>
       <c r="B66" s="73" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -11057,7 +11025,7 @@
         <v>1296</v>
       </c>
       <c r="B68" s="58" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
@@ -11065,15 +11033,15 @@
         <v>1254</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="51" x14ac:dyDescent="0.2">
@@ -11089,23 +11057,23 @@
         <v>1256</v>
       </c>
       <c r="B72" s="89" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A73" s="80" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="B73" s="89" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="102" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="B74" s="103" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -11137,7 +11105,7 @@
         <v>1202</v>
       </c>
       <c r="B78" s="89" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -11145,7 +11113,7 @@
         <v>1206</v>
       </c>
       <c r="B79" s="89" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -11153,7 +11121,7 @@
         <v>1208</v>
       </c>
       <c r="B80" s="73" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
@@ -11177,7 +11145,7 @@
         <v>1273</v>
       </c>
       <c r="B83" s="89" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
@@ -11185,7 +11153,7 @@
         <v>1276</v>
       </c>
       <c r="B84" s="89" t="s">
-        <v>1325</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
@@ -11193,7 +11161,7 @@
         <v>1237</v>
       </c>
       <c r="B85" s="73" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
@@ -11201,7 +11169,7 @@
         <v>1192</v>
       </c>
       <c r="B86" s="73" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
@@ -11209,7 +11177,7 @@
         <v>1261</v>
       </c>
       <c r="B87" s="73" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
@@ -11217,7 +11185,7 @@
         <v>1262</v>
       </c>
       <c r="B88" s="70" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
@@ -11225,7 +11193,7 @@
         <v>1193</v>
       </c>
       <c r="B89" s="73" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
@@ -11233,7 +11201,7 @@
         <v>1292</v>
       </c>
       <c r="B90" s="48" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
@@ -11241,7 +11209,7 @@
         <v>1238</v>
       </c>
       <c r="B91" s="73" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
@@ -11249,7 +11217,7 @@
         <v>1239</v>
       </c>
       <c r="B92" s="73" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
@@ -11257,7 +11225,7 @@
         <v>1194</v>
       </c>
       <c r="B93" s="73" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
@@ -11265,7 +11233,7 @@
         <v>1195</v>
       </c>
       <c r="B94" s="73" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
@@ -11273,7 +11241,7 @@
         <v>1196</v>
       </c>
       <c r="B95" s="73" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
@@ -11552,9 +11520,7 @@
   </sheetPr>
   <dimension ref="A1:AH1250"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:AB1048576"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -35517,9 +35483,7 @@
   </sheetPr>
   <dimension ref="A1:AI25"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:AE1048576"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -35802,9 +35766,7 @@
   </sheetPr>
   <dimension ref="A1:AE5"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:AE1048576"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -36004,9 +35966,7 @@
   </sheetPr>
   <dimension ref="A1:AB1"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X1" sqref="A1:X1048576"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -36015,7 +35975,7 @@
         <v>1254</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="C1" s="30" t="s">
         <v>1</v>
@@ -36024,10 +35984,10 @@
         <v>1256</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>1257</v>
@@ -36048,7 +36008,7 @@
         <v>1208</v>
       </c>
       <c r="M1" s="97" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="N1" s="97" t="s">
         <v>1211</v>
@@ -36081,7 +36041,7 @@
         <v>1285</v>
       </c>
       <c r="X1" s="98" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="Y1" s="98" t="s">
         <v>1194</v>
@@ -36108,9 +36068,7 @@
   </sheetPr>
   <dimension ref="A1:AD17"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="X1" sqref="A1:X1048576"/>
-    </sheetView>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -36119,7 +36077,7 @@
   <sheetData>
     <row r="1" spans="1:30" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A1" s="58" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="B1" s="30" t="s">
         <v>1</v>
@@ -36128,10 +36086,10 @@
         <v>1256</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="F1" s="40" t="s">
         <v>1257</v>
@@ -36146,7 +36104,7 @@
         <v>1208</v>
       </c>
       <c r="J1" s="97" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="K1" s="97" t="s">
         <v>1211</v>
@@ -36235,9 +36193,7 @@
   </sheetPr>
   <dimension ref="A1:AE18"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -36249,7 +36205,7 @@
         <v>1254</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="C1" s="30" t="s">
         <v>1</v>
@@ -36258,10 +36214,10 @@
         <v>1256</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>1257</v>
@@ -36282,7 +36238,7 @@
         <v>1208</v>
       </c>
       <c r="M1" s="97" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="N1" s="97" t="s">
         <v>1211</v>
@@ -36371,9 +36327,7 @@
   </sheetPr>
   <dimension ref="A1:AA1"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:AA1048576"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -36382,7 +36336,7 @@
         <v>1254</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="C1" s="30" t="s">
         <v>1</v>
@@ -36391,10 +36345,10 @@
         <v>1256</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>1257</v>
@@ -36415,7 +36369,7 @@
         <v>1208</v>
       </c>
       <c r="M1" s="97" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="N1" s="97" t="s">
         <v>1211</v>
@@ -36486,189 +36440,189 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="114" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B1" s="114" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C1" s="114" t="s">
         <v>1429</v>
       </c>
-      <c r="B1" s="114" t="s">
+      <c r="D1" s="114" t="s">
         <v>1430</v>
-      </c>
-      <c r="C1" s="114" t="s">
-        <v>1431</v>
-      </c>
-      <c r="D1" s="114" t="s">
-        <v>1432</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="116" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="B2" s="116"/>
       <c r="C2" s="116" t="s">
         <v>69</v>
       </c>
       <c r="D2" s="117" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="E2" s="118"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="116" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="B3" s="116"/>
       <c r="C3" s="116" t="s">
         <v>246</v>
       </c>
       <c r="D3" s="117" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="116" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="B4" s="116"/>
       <c r="C4" s="116" t="s">
         <v>247</v>
       </c>
       <c r="D4" s="117" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="E4" s="119"/>
       <c r="F4" s="120"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="116" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="B5" s="116"/>
       <c r="C5" s="116" t="s">
         <v>248</v>
       </c>
       <c r="D5" s="117" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="E5" s="119"/>
       <c r="F5" s="120"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="116" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="B6" s="116"/>
       <c r="C6" s="116" t="s">
         <v>248</v>
       </c>
       <c r="D6" s="117" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="116" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="B7" s="116"/>
       <c r="C7" s="116" t="s">
         <v>248</v>
       </c>
       <c r="D7" s="117" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="116" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="B8" s="116"/>
       <c r="C8" s="116" t="s">
         <v>248</v>
       </c>
       <c r="D8" s="117" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="116" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="B9" s="116"/>
       <c r="C9" s="116" t="s">
         <v>248</v>
       </c>
       <c r="D9" s="117" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="116" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="B10" s="116"/>
       <c r="C10" s="116" t="s">
         <v>249</v>
       </c>
       <c r="D10" s="117" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="116" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="B11" s="116"/>
       <c r="C11" s="116" t="s">
         <v>250</v>
       </c>
       <c r="D11" s="117" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="116" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="B12" s="116"/>
       <c r="C12" s="116" t="s">
         <v>250</v>
       </c>
       <c r="D12" s="117" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="116" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="B13" s="116"/>
       <c r="C13" s="116" t="s">
         <v>250</v>
       </c>
       <c r="D13" s="117" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="116" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="B14" s="116"/>
       <c r="C14" s="116" t="s">
         <v>251</v>
       </c>
       <c r="D14" s="117" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="116" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="B15" s="116"/>
       <c r="C15" s="116" t="s">
         <v>251</v>
       </c>
       <c r="D15" s="117" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -36680,55 +36634,55 @@
         <v>251</v>
       </c>
       <c r="D16" s="117" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="121" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="B17" s="121"/>
       <c r="C17" s="121" t="s">
         <v>251</v>
       </c>
       <c r="D17" s="117" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="116" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="B18" s="116"/>
       <c r="C18" s="116" t="s">
         <v>251</v>
       </c>
       <c r="D18" s="117" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="116" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="B19" s="116"/>
       <c r="C19" s="116" t="s">
         <v>251</v>
       </c>
       <c r="D19" s="117" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="116" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="B20" s="116"/>
       <c r="C20" s="116" t="s">
         <v>251</v>
       </c>
       <c r="D20" s="117" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -36740,31 +36694,31 @@
         <v>251</v>
       </c>
       <c r="D21" s="117" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="116" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="B22" s="116"/>
       <c r="C22" s="116" t="s">
         <v>251</v>
       </c>
       <c r="D22" s="117" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="116" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="B23" s="116"/>
       <c r="C23" s="116" t="s">
         <v>251</v>
       </c>
       <c r="D23" s="117" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -36776,129 +36730,129 @@
         <v>255</v>
       </c>
       <c r="D24" s="117" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="116" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="B25" s="116" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="C25" s="116" t="s">
         <v>255</v>
       </c>
       <c r="D25" s="117" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="116" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="B26" s="116"/>
       <c r="C26" s="116" t="s">
         <v>255</v>
       </c>
       <c r="D26" s="117" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="116" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="B27" s="116"/>
       <c r="C27" s="116" t="s">
         <v>256</v>
       </c>
       <c r="D27" s="117" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="116" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="B28" s="116"/>
       <c r="C28" s="116" t="s">
         <v>257</v>
       </c>
       <c r="D28" s="117" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="116" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="B29" s="116"/>
       <c r="C29" s="116" t="s">
         <v>257</v>
       </c>
       <c r="D29" s="117" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="116" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="B30" s="116"/>
       <c r="C30" s="116" t="s">
         <v>257</v>
       </c>
       <c r="D30" s="117" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="116" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="B31" s="116"/>
       <c r="C31" s="116" t="s">
         <v>258</v>
       </c>
       <c r="D31" s="117" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="116" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="B32" s="116"/>
       <c r="C32" s="116" t="s">
         <v>259</v>
       </c>
       <c r="D32" s="117" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="116" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="B33" s="116"/>
       <c r="C33" s="116" t="s">
         <v>259</v>
       </c>
       <c r="D33" s="117" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="116" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="B34" s="116"/>
       <c r="C34" s="116" t="s">
         <v>259</v>
       </c>
       <c r="D34" s="117" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -36910,141 +36864,141 @@
         <v>259</v>
       </c>
       <c r="D35" s="117" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="116" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="B36" s="116"/>
       <c r="C36" s="116" t="s">
         <v>259</v>
       </c>
       <c r="D36" s="117" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="116" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="B37" s="116"/>
       <c r="C37" s="116" t="s">
         <v>259</v>
       </c>
       <c r="D37" s="117" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="116" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="B38" s="116"/>
       <c r="C38" s="116" t="s">
         <v>259</v>
       </c>
       <c r="D38" s="117" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="116" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="B39" s="116"/>
       <c r="C39" s="116" t="s">
         <v>259</v>
       </c>
       <c r="D39" s="117" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="116" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="B40" s="116"/>
       <c r="C40" s="116" t="s">
         <v>259</v>
       </c>
       <c r="D40" s="117" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="116" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B41" s="116" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="C41" s="116" t="s">
         <v>305</v>
       </c>
       <c r="D41" s="117" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="116" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="B42" s="116"/>
       <c r="C42" s="116" t="s">
         <v>259</v>
       </c>
       <c r="D42" s="117" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="116" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="B43" s="116"/>
       <c r="C43" s="116" t="s">
         <v>259</v>
       </c>
       <c r="D43" s="117" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="116" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="B44" s="116"/>
       <c r="C44" s="116" t="s">
         <v>259</v>
       </c>
       <c r="D44" s="117" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="116" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="B45" s="116"/>
       <c r="C45" s="116" t="s">
         <v>259</v>
       </c>
       <c r="D45" s="117" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="116" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="B46" s="116"/>
       <c r="C46" s="116" t="s">
         <v>259</v>
       </c>
       <c r="D46" s="117" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -37056,19 +37010,19 @@
         <v>262</v>
       </c>
       <c r="D47" s="117" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="116" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="B48" s="116"/>
       <c r="C48" s="116" t="s">
         <v>262</v>
       </c>
       <c r="D48" s="117" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -37080,7 +37034,7 @@
         <v>39</v>
       </c>
       <c r="D49" s="117" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -37092,7 +37046,7 @@
         <v>39</v>
       </c>
       <c r="D50" s="117" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -37104,19 +37058,19 @@
         <v>39</v>
       </c>
       <c r="D51" s="117" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="116" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="B52" s="116"/>
       <c r="C52" s="116" t="s">
         <v>39</v>
       </c>
       <c r="D52" s="117" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -37128,7 +37082,7 @@
         <v>39</v>
       </c>
       <c r="D53" s="117" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -37140,19 +37094,19 @@
         <v>39</v>
       </c>
       <c r="D54" s="117" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="116" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="B55" s="116"/>
       <c r="C55" s="116" t="s">
         <v>39</v>
       </c>
       <c r="D55" s="117" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -37164,7 +37118,7 @@
         <v>39</v>
       </c>
       <c r="D56" s="117" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -37176,7 +37130,7 @@
         <v>39</v>
       </c>
       <c r="D57" s="117" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -37188,19 +37142,19 @@
         <v>39</v>
       </c>
       <c r="D58" s="117" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="116" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
       <c r="B59" s="116"/>
       <c r="C59" s="116" t="s">
         <v>39</v>
       </c>
       <c r="D59" s="117" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -37212,31 +37166,31 @@
         <v>271</v>
       </c>
       <c r="D60" s="117" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="116" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="B61" s="116"/>
       <c r="C61" s="116" t="s">
         <v>271</v>
       </c>
       <c r="D61" s="117" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="116" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="B62" s="116"/>
       <c r="C62" s="116" t="s">
         <v>271</v>
       </c>
       <c r="D62" s="117" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -37248,7 +37202,7 @@
         <v>271</v>
       </c>
       <c r="D63" s="117" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -37260,7 +37214,7 @@
         <v>271</v>
       </c>
       <c r="D64" s="117" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -37272,19 +37226,19 @@
         <v>271</v>
       </c>
       <c r="D65" s="117" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="116" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="B66" s="116"/>
       <c r="C66" s="116" t="s">
         <v>271</v>
       </c>
       <c r="D66" s="117" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -37296,43 +37250,43 @@
         <v>271</v>
       </c>
       <c r="D67" s="117" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="116" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="B68" s="116"/>
       <c r="C68" s="116" t="s">
         <v>271</v>
       </c>
       <c r="D68" s="117" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="116" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="B69" s="116"/>
       <c r="C69" s="116" t="s">
         <v>271</v>
       </c>
       <c r="D69" s="117" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="116" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="B70" s="116"/>
       <c r="C70" s="116" t="s">
         <v>271</v>
       </c>
       <c r="D70" s="117" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -37344,7 +37298,7 @@
         <v>271</v>
       </c>
       <c r="D71" s="117" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -37356,43 +37310,43 @@
         <v>271</v>
       </c>
       <c r="D72" s="117" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="116" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="B73" s="116"/>
       <c r="C73" s="116" t="s">
         <v>271</v>
       </c>
       <c r="D73" s="117" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="116" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="B74" s="116"/>
       <c r="C74" s="116" t="s">
         <v>271</v>
       </c>
       <c r="D74" s="117" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="116" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="B75" s="116"/>
       <c r="C75" s="116" t="s">
         <v>278</v>
       </c>
       <c r="D75" s="117" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -37404,7 +37358,7 @@
         <v>278</v>
       </c>
       <c r="D76" s="117" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -37416,43 +37370,43 @@
         <v>278</v>
       </c>
       <c r="D77" s="117" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="116" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="B78" s="116"/>
       <c r="C78" s="116" t="s">
         <v>278</v>
       </c>
       <c r="D78" s="117" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="116" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
       <c r="B79" s="116"/>
       <c r="C79" s="116" t="s">
         <v>278</v>
       </c>
       <c r="D79" s="117" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="116" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
       <c r="B80" s="116"/>
       <c r="C80" s="116" t="s">
         <v>281</v>
       </c>
       <c r="D80" s="117" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -37464,7 +37418,7 @@
         <v>283</v>
       </c>
       <c r="D81" s="117" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -37476,7 +37430,7 @@
         <v>283</v>
       </c>
       <c r="D82" s="117" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -37488,31 +37442,31 @@
         <v>283</v>
       </c>
       <c r="D83" s="117" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="116" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="B84" s="116"/>
       <c r="C84" s="116" t="s">
         <v>283</v>
       </c>
       <c r="D84" s="117" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="116" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="B85" s="116"/>
       <c r="C85" s="116" t="s">
         <v>283</v>
       </c>
       <c r="D85" s="117" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -37524,36 +37478,36 @@
         <v>283</v>
       </c>
       <c r="D86" s="117" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="116" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
       <c r="B87" s="116"/>
       <c r="C87" s="116" t="s">
         <v>283</v>
       </c>
       <c r="D87" s="117" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="116" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="B88" s="116"/>
       <c r="C88" s="116" t="s">
         <v>287</v>
       </c>
       <c r="D88" s="117" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="116" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="B89" s="116" t="s">
         <v>404</v>
@@ -37562,272 +37516,272 @@
         <v>403</v>
       </c>
       <c r="D89" s="117" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="116" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="B90" s="116"/>
       <c r="C90" s="116" t="s">
         <v>288</v>
       </c>
       <c r="D90" s="117" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="116" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="B91" s="116"/>
       <c r="C91" s="116" t="s">
         <v>288</v>
       </c>
       <c r="D91" s="117" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="116" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="B92" s="116"/>
       <c r="C92" s="116" t="s">
         <v>288</v>
       </c>
       <c r="D92" s="117" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="116" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="B93" s="116"/>
       <c r="C93" s="117" t="s">
         <v>288</v>
       </c>
       <c r="D93" s="117" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="116" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="B94" s="116"/>
       <c r="C94" s="116" t="s">
         <v>288</v>
       </c>
       <c r="D94" s="117" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="116" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="B95" s="116"/>
       <c r="C95" s="116" t="s">
         <v>288</v>
       </c>
       <c r="D95" s="117" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="116" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="B96" s="116"/>
       <c r="C96" s="116" t="s">
         <v>288</v>
       </c>
       <c r="D96" s="117" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="116" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="B97" s="116"/>
       <c r="C97" s="116" t="s">
         <v>288</v>
       </c>
       <c r="D97" s="117" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="116" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="B98" s="116"/>
       <c r="C98" s="116" t="s">
         <v>288</v>
       </c>
       <c r="D98" s="117" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="116" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="B99" s="116"/>
       <c r="C99" s="116" t="s">
         <v>288</v>
       </c>
       <c r="D99" s="117" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="116" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="B100" s="116"/>
       <c r="C100" s="116" t="s">
         <v>288</v>
       </c>
       <c r="D100" s="117" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="116" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="B101" s="116"/>
       <c r="C101" s="116" t="s">
         <v>288</v>
       </c>
       <c r="D101" s="117" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="116" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="B102" s="116"/>
       <c r="C102" s="116" t="s">
         <v>288</v>
       </c>
       <c r="D102" s="117" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="116" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="B103" s="116"/>
       <c r="C103" s="117" t="s">
         <v>288</v>
       </c>
       <c r="D103" s="117" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="122" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="B104" s="122"/>
       <c r="C104" s="122" t="s">
         <v>288</v>
       </c>
       <c r="D104" s="115" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="E104" s="123"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="122" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="B105" s="122"/>
       <c r="C105" s="122" t="s">
         <v>288</v>
       </c>
       <c r="D105" s="115" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="122" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="B106" s="122"/>
       <c r="C106" s="122" t="s">
         <v>288</v>
       </c>
       <c r="D106" s="115" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="122" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="B107" s="122"/>
       <c r="C107" s="122" t="s">
         <v>288</v>
       </c>
       <c r="D107" s="115" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="122" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="B108" s="122"/>
       <c r="C108" s="122" t="s">
         <v>288</v>
       </c>
       <c r="D108" s="115" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="122" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="B109" s="122"/>
       <c r="C109" s="122" t="s">
         <v>288</v>
       </c>
       <c r="D109" s="115" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="122" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="B110" s="122"/>
       <c r="C110" s="122" t="s">
         <v>288</v>
       </c>
       <c r="D110" s="115" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="122" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="B111" s="122"/>
       <c r="C111" s="122" t="s">
         <v>289</v>
       </c>
       <c r="D111" s="115" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -37839,43 +37793,43 @@
         <v>291</v>
       </c>
       <c r="D112" s="115" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="122" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="B113" s="122"/>
       <c r="C113" s="122" t="s">
         <v>291</v>
       </c>
       <c r="D113" s="115" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="122" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="B114" s="122"/>
       <c r="C114" s="122" t="s">
         <v>292</v>
       </c>
       <c r="D114" s="115" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="122" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="B115" s="122"/>
       <c r="C115" s="122" t="s">
         <v>292</v>
       </c>
       <c r="D115" s="115" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -37887,67 +37841,67 @@
         <v>294</v>
       </c>
       <c r="D116" s="115" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="122" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="B117" s="122"/>
       <c r="C117" s="122" t="s">
         <v>294</v>
       </c>
       <c r="D117" s="115" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="122" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="B118" s="122"/>
       <c r="C118" s="122" t="s">
         <v>295</v>
       </c>
       <c r="D118" s="115" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="122" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="B119" s="122"/>
       <c r="C119" s="122" t="s">
         <v>296</v>
       </c>
       <c r="D119" s="115" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="122" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="B120" s="122"/>
       <c r="C120" s="122" t="s">
         <v>297</v>
       </c>
       <c r="D120" s="115" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="122" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="B121" s="122"/>
       <c r="C121" s="122" t="s">
         <v>298</v>
       </c>
       <c r="D121" s="115" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -37959,7 +37913,7 @@
         <v>300</v>
       </c>
       <c r="D122" s="115" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -37971,19 +37925,19 @@
         <v>302</v>
       </c>
       <c r="D123" s="115" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="122" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="B124" s="122"/>
       <c r="C124" s="122" t="s">
         <v>303</v>
       </c>
       <c r="D124" s="115" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -37995,63 +37949,63 @@
         <v>303</v>
       </c>
       <c r="D125" s="115" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="122" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="B126" s="122"/>
       <c r="C126" s="122" t="s">
         <v>303</v>
       </c>
       <c r="D126" s="115" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="122" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="B127" s="122"/>
       <c r="C127" s="122" t="s">
         <v>305</v>
       </c>
       <c r="D127" s="115" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="122" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="B128" s="122"/>
       <c r="C128" s="122" t="s">
         <v>305</v>
       </c>
       <c r="D128" s="115" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="122" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="B129" s="122"/>
       <c r="C129" s="122" t="s">
         <v>306</v>
       </c>
       <c r="D129" s="115" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="122" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="B130" s="122" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="C130" s="122" t="s">
         <v>307</v>
@@ -38059,14 +38013,14 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="122" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="B131" s="122"/>
       <c r="C131" s="122" t="s">
         <v>307</v>
       </c>
       <c r="D131" s="115" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -38078,15 +38032,15 @@
         <v>307</v>
       </c>
       <c r="D132" s="115" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="122" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="B133" s="122" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="C133" s="122" t="s">
         <v>307</v>
@@ -38094,168 +38048,168 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="115" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="B134" s="115" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="C134" s="115" t="s">
         <v>307</v>
       </c>
       <c r="D134" s="115" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="122" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="B135" s="122"/>
       <c r="C135" s="122" t="s">
         <v>307</v>
       </c>
       <c r="D135" s="115" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="122" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="B136" s="122"/>
       <c r="C136" s="122" t="s">
         <v>307</v>
       </c>
       <c r="D136" s="115" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="122" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="B137" s="122"/>
       <c r="C137" s="122" t="s">
         <v>309</v>
       </c>
       <c r="D137" s="115" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="122" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="B138" s="122"/>
       <c r="C138" s="115" t="s">
         <v>310</v>
       </c>
       <c r="D138" s="115" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="122" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="B139" s="122" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="C139" s="122" t="s">
         <v>311</v>
       </c>
       <c r="D139" s="115" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="122" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="B140" s="122" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="C140" s="122" t="s">
         <v>311</v>
       </c>
       <c r="D140" s="115" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="122" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="B141" s="122" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="C141" s="122" t="s">
         <v>311</v>
       </c>
       <c r="D141" s="115" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="122" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="B142" s="122" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="C142" s="122" t="s">
         <v>311</v>
       </c>
       <c r="D142" s="115" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="122" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="B143" s="122"/>
       <c r="C143" s="122" t="s">
         <v>311</v>
       </c>
       <c r="D143" s="115" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="122" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="B144" s="122"/>
       <c r="C144" s="122" t="s">
         <v>312</v>
       </c>
       <c r="D144" s="115" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="122" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="B145" s="122"/>
       <c r="C145" s="122" t="s">
         <v>313</v>
       </c>
       <c r="D145" s="115" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="122" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="B146" s="122"/>
       <c r="C146" s="122" t="s">
         <v>313</v>
       </c>
       <c r="D146" s="115" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
     </row>
   </sheetData>
@@ -38367,7 +38321,7 @@
         <v>1245</v>
       </c>
       <c r="I3" s="64" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="J3" s="64">
         <v>3000</v>
@@ -38406,7 +38360,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="64" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="C5" s="64"/>
       <c r="D5" s="64" t="s">
@@ -38475,7 +38429,7 @@
       </c>
       <c r="F7" s="64"/>
       <c r="G7" s="64" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="H7" s="64" t="s">
         <v>1245</v>
@@ -38505,7 +38459,7 @@
       </c>
       <c r="F8" s="64"/>
       <c r="G8" s="64" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="H8" s="64" t="s">
         <v>1245</v>
@@ -38535,7 +38489,7 @@
       </c>
       <c r="F9" s="64"/>
       <c r="G9" s="64" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="H9" s="64" t="s">
         <v>1245</v>
@@ -38673,7 +38627,7 @@
       </c>
       <c r="F14" s="64"/>
       <c r="G14" s="64" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="H14" s="66" t="s">
         <v>1245</v>
@@ -38703,7 +38657,7 @@
       </c>
       <c r="F15" s="66"/>
       <c r="G15" s="64" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="H15" s="66" t="s">
         <v>1245</v>
@@ -38802,7 +38756,7 @@
       </c>
       <c r="C19" s="64"/>
       <c r="D19" s="64" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="E19" s="64" t="s">
         <v>32</v>
@@ -38977,7 +38931,7 @@
       </c>
       <c r="F25" s="64"/>
       <c r="G25" s="64" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="H25" s="64" t="s">
         <v>1205</v>
@@ -39005,7 +38959,7 @@
       </c>
       <c r="F26" s="68"/>
       <c r="G26" s="68" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="H26" s="68" t="s">
         <v>1205</v>
@@ -39146,7 +39100,7 @@
         <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -39194,7 +39148,7 @@
         <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -39202,7 +39156,7 @@
         <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -39226,7 +39180,7 @@
         <v>57</v>
       </c>
       <c r="B12" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -39250,7 +39204,7 @@
         <v>1224</v>
       </c>
       <c r="B15" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -39298,7 +39252,7 @@
         <v>1204</v>
       </c>
       <c r="B21" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -39322,7 +39276,7 @@
         <v>1260</v>
       </c>
       <c r="B24" s="48" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -39330,15 +39284,15 @@
         <v>1207</v>
       </c>
       <c r="B25" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="B26" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
     </row>
   </sheetData>
@@ -40729,13 +40683,13 @@
         <v>443</v>
       </c>
       <c r="B6" s="104" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C6" s="104" t="s">
+        <v>1368</v>
+      </c>
+      <c r="D6" s="105" t="s">
         <v>1369</v>
-      </c>
-      <c r="C6" s="104" t="s">
-        <v>1370</v>
-      </c>
-      <c r="D6" s="105" t="s">
-        <v>1371</v>
       </c>
     </row>
   </sheetData>
@@ -41429,7 +41383,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="108" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="B1" s="109" t="s">
         <v>80</v>
@@ -41459,13 +41413,13 @@
         <v>88</v>
       </c>
       <c r="K1" s="109" t="s">
+        <v>1371</v>
+      </c>
+      <c r="L1" s="109" t="s">
+        <v>1372</v>
+      </c>
+      <c r="M1" s="109" t="s">
         <v>1373</v>
-      </c>
-      <c r="L1" s="109" t="s">
-        <v>1374</v>
-      </c>
-      <c r="M1" s="109" t="s">
-        <v>1375</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -41491,10 +41445,10 @@
         <v>418</v>
       </c>
       <c r="H2" s="108" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="I2" s="108" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="J2" s="111" t="s">
         <v>186</v>
@@ -41523,10 +41477,10 @@
         <v>230</v>
       </c>
       <c r="G3" s="108" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="H3" s="108" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="I3" s="108" t="s">
         <v>231</v>
@@ -41564,10 +41518,10 @@
         <v>418</v>
       </c>
       <c r="H4" s="108" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="I4" s="108" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="J4" s="111" t="s">
         <v>178</v>
@@ -41605,10 +41559,10 @@
         <v>418</v>
       </c>
       <c r="H5" s="108" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="I5" s="108" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="J5" s="111" t="s">
         <v>185</v>
@@ -41646,10 +41600,10 @@
         <v>418</v>
       </c>
       <c r="H6" s="108" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="I6" s="108" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="J6" s="111" t="s">
         <v>169</v>
@@ -41681,10 +41635,10 @@
         <v>418</v>
       </c>
       <c r="H7" s="108" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="I7" s="108" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="J7" s="111" t="s">
         <v>168</v>
@@ -41719,10 +41673,10 @@
         <v>418</v>
       </c>
       <c r="H8" s="108" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="I8" s="108" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="J8" s="111" t="s">
         <v>180</v>
@@ -41757,10 +41711,10 @@
         <v>418</v>
       </c>
       <c r="H9" s="108" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="I9" s="108" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="J9" s="111" t="s">
         <v>181</v>
@@ -41792,10 +41746,10 @@
         <v>418</v>
       </c>
       <c r="H10" s="108" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="I10" s="108" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="J10" s="111" t="s">
         <v>170</v>
@@ -41824,10 +41778,10 @@
         <v>230</v>
       </c>
       <c r="G11" s="108" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="H11" s="108" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="I11" s="108" t="s">
         <v>231</v>
@@ -41862,10 +41816,10 @@
         <v>418</v>
       </c>
       <c r="H12" s="108" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="I12" s="108" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="J12" s="111" t="s">
         <v>187</v>
@@ -41894,13 +41848,13 @@
         <v>91</v>
       </c>
       <c r="G13" s="108" t="s">
+        <v>1383</v>
+      </c>
+      <c r="H13" s="108" t="s">
+        <v>1384</v>
+      </c>
+      <c r="I13" s="108" t="s">
         <v>1385</v>
-      </c>
-      <c r="H13" s="108" t="s">
-        <v>1386</v>
-      </c>
-      <c r="I13" s="108" t="s">
-        <v>1387</v>
       </c>
       <c r="J13" s="111" t="s">
         <v>192</v>
@@ -41932,10 +41886,10 @@
         <v>418</v>
       </c>
       <c r="H14" s="108" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="I14" s="108" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="J14" s="111" t="s">
         <v>177</v>
@@ -41967,10 +41921,10 @@
         <v>418</v>
       </c>
       <c r="H15" s="108" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="I15" s="108" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="J15" s="111" t="s">
         <v>171</v>
@@ -42002,10 +41956,10 @@
         <v>458</v>
       </c>
       <c r="H16" s="108" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="I16" s="108" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="J16" s="111" t="s">
         <v>135</v>
@@ -42037,10 +41991,10 @@
         <v>418</v>
       </c>
       <c r="H17" s="108" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="I17" s="108" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="J17" s="111" t="s">
         <v>172</v>
@@ -42069,13 +42023,13 @@
         <v>91</v>
       </c>
       <c r="G18" s="108" t="s">
+        <v>1383</v>
+      </c>
+      <c r="H18" s="108" t="s">
+        <v>1384</v>
+      </c>
+      <c r="I18" s="108" t="s">
         <v>1385</v>
-      </c>
-      <c r="H18" s="108" t="s">
-        <v>1386</v>
-      </c>
-      <c r="I18" s="108" t="s">
-        <v>1387</v>
       </c>
       <c r="J18" s="111" t="s">
         <v>190</v>
@@ -42104,13 +42058,13 @@
         <v>221</v>
       </c>
       <c r="G19" s="108" t="s">
+        <v>1389</v>
+      </c>
+      <c r="H19" s="108" t="s">
+        <v>1390</v>
+      </c>
+      <c r="I19" s="108" t="s">
         <v>1391</v>
-      </c>
-      <c r="H19" s="108" t="s">
-        <v>1392</v>
-      </c>
-      <c r="I19" s="108" t="s">
-        <v>1393</v>
       </c>
       <c r="J19" s="111" t="s">
         <v>228</v>
@@ -42142,10 +42096,10 @@
         <v>418</v>
       </c>
       <c r="H20" s="108" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="I20" s="108" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="J20" s="111" t="s">
         <v>188</v>
@@ -42174,10 +42128,10 @@
         <v>91</v>
       </c>
       <c r="G21" s="108" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H21" s="108" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="I21" s="108" t="s">
         <v>218</v>
@@ -42209,13 +42163,13 @@
         <v>230</v>
       </c>
       <c r="G22" s="108" t="s">
+        <v>1393</v>
+      </c>
+      <c r="H22" s="108" t="s">
+        <v>1394</v>
+      </c>
+      <c r="I22" s="108" t="s">
         <v>1395</v>
-      </c>
-      <c r="H22" s="108" t="s">
-        <v>1396</v>
-      </c>
-      <c r="I22" s="108" t="s">
-        <v>1397</v>
       </c>
       <c r="J22" s="111" t="s">
         <v>235</v>
@@ -42244,13 +42198,13 @@
         <v>230</v>
       </c>
       <c r="G23" s="108" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="H23" s="108" t="s">
+        <v>1394</v>
+      </c>
+      <c r="I23" s="108" t="s">
         <v>1396</v>
-      </c>
-      <c r="I23" s="108" t="s">
-        <v>1398</v>
       </c>
       <c r="J23" s="111" t="s">
         <v>241</v>
@@ -42282,10 +42236,10 @@
         <v>418</v>
       </c>
       <c r="H24" s="108" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="I24" s="108" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="J24" s="111" t="s">
         <v>182</v>
@@ -42317,10 +42271,10 @@
         <v>418</v>
       </c>
       <c r="H25" s="108" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="I25" s="108" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="J25" s="111" t="s">
         <v>183</v>
@@ -42352,10 +42306,10 @@
         <v>418</v>
       </c>
       <c r="H26" s="108" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="I26" s="108" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="J26" s="111" t="s">
         <v>184</v>
@@ -42384,13 +42338,13 @@
         <v>91</v>
       </c>
       <c r="G27" s="108" t="s">
+        <v>1383</v>
+      </c>
+      <c r="H27" s="108" t="s">
+        <v>1384</v>
+      </c>
+      <c r="I27" s="108" t="s">
         <v>1385</v>
-      </c>
-      <c r="H27" s="108" t="s">
-        <v>1386</v>
-      </c>
-      <c r="I27" s="108" t="s">
-        <v>1387</v>
       </c>
       <c r="J27" s="111" t="s">
         <v>189</v>
@@ -42419,13 +42373,13 @@
         <v>91</v>
       </c>
       <c r="G28" s="108" t="s">
+        <v>1383</v>
+      </c>
+      <c r="H28" s="108" t="s">
+        <v>1384</v>
+      </c>
+      <c r="I28" s="108" t="s">
         <v>1385</v>
-      </c>
-      <c r="H28" s="108" t="s">
-        <v>1386</v>
-      </c>
-      <c r="I28" s="108" t="s">
-        <v>1387</v>
       </c>
       <c r="J28" s="111" t="s">
         <v>191</v>
@@ -42454,13 +42408,13 @@
         <v>221</v>
       </c>
       <c r="G29" s="108" t="s">
+        <v>1398</v>
+      </c>
+      <c r="H29" s="108" t="s">
+        <v>1399</v>
+      </c>
+      <c r="I29" s="108" t="s">
         <v>1400</v>
-      </c>
-      <c r="H29" s="108" t="s">
-        <v>1401</v>
-      </c>
-      <c r="I29" s="108" t="s">
-        <v>1402</v>
       </c>
       <c r="J29" s="111" t="s">
         <v>220</v>
@@ -42489,13 +42443,13 @@
         <v>91</v>
       </c>
       <c r="G30" s="108" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H30" s="108" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="I30" s="108" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="J30" s="111" t="s">
         <v>196</v>
@@ -42524,13 +42478,13 @@
         <v>91</v>
       </c>
       <c r="G31" s="108" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H31" s="108" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="I31" s="108" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="J31" s="111" t="s">
         <v>199</v>
@@ -42562,10 +42516,10 @@
         <v>458</v>
       </c>
       <c r="H32" s="108" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="I32" s="108" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="J32" s="111" t="s">
         <v>132</v>
@@ -42597,10 +42551,10 @@
         <v>458</v>
       </c>
       <c r="H33" s="108" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="I33" s="108" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="J33" s="111" t="s">
         <v>167</v>
@@ -42629,13 +42583,13 @@
         <v>230</v>
       </c>
       <c r="G34" s="108" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="H34" s="108" t="s">
+        <v>1394</v>
+      </c>
+      <c r="I34" s="108" t="s">
         <v>1396</v>
-      </c>
-      <c r="I34" s="108" t="s">
-        <v>1398</v>
       </c>
       <c r="J34" s="111" t="s">
         <v>242</v>
@@ -42664,13 +42618,13 @@
         <v>230</v>
       </c>
       <c r="G35" s="108" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="H35" s="108" t="s">
+        <v>1394</v>
+      </c>
+      <c r="I35" s="108" t="s">
         <v>1396</v>
-      </c>
-      <c r="I35" s="108" t="s">
-        <v>1398</v>
       </c>
       <c r="J35" s="111" t="s">
         <v>238</v>
@@ -42699,13 +42653,13 @@
         <v>230</v>
       </c>
       <c r="G36" s="108" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="H36" s="108" t="s">
+        <v>1394</v>
+      </c>
+      <c r="I36" s="108" t="s">
         <v>1396</v>
-      </c>
-      <c r="I36" s="108" t="s">
-        <v>1398</v>
       </c>
       <c r="J36" s="111" t="s">
         <v>237</v>
@@ -42734,13 +42688,13 @@
         <v>91</v>
       </c>
       <c r="G37" s="108" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H37" s="108" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="I37" s="108" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="J37" s="111" t="s">
         <v>193</v>
@@ -42769,13 +42723,13 @@
         <v>221</v>
       </c>
       <c r="G38" s="108" t="s">
+        <v>1398</v>
+      </c>
+      <c r="H38" s="108" t="s">
+        <v>1399</v>
+      </c>
+      <c r="I38" s="108" t="s">
         <v>1400</v>
-      </c>
-      <c r="H38" s="108" t="s">
-        <v>1401</v>
-      </c>
-      <c r="I38" s="108" t="s">
-        <v>1402</v>
       </c>
       <c r="J38" s="111" t="s">
         <v>222</v>
@@ -42804,13 +42758,13 @@
         <v>230</v>
       </c>
       <c r="G39" s="108" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="H39" s="108" t="s">
+        <v>1394</v>
+      </c>
+      <c r="I39" s="108" t="s">
         <v>1396</v>
-      </c>
-      <c r="I39" s="108" t="s">
-        <v>1398</v>
       </c>
       <c r="J39" s="111" t="s">
         <v>239</v>
@@ -42839,13 +42793,13 @@
         <v>91</v>
       </c>
       <c r="G40" s="108" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H40" s="108" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="I40" s="108" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="J40" s="111" t="s">
         <v>194</v>
@@ -42874,13 +42828,13 @@
         <v>230</v>
       </c>
       <c r="G41" s="108" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="H41" s="108" t="s">
+        <v>1394</v>
+      </c>
+      <c r="I41" s="108" t="s">
         <v>1396</v>
-      </c>
-      <c r="I41" s="108" t="s">
-        <v>1398</v>
       </c>
       <c r="J41" s="111" t="s">
         <v>240</v>
@@ -42909,13 +42863,13 @@
         <v>230</v>
       </c>
       <c r="G42" s="108" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="H42" s="108" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="I42" s="108" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="J42" s="111" t="s">
         <v>245</v>
@@ -42944,13 +42898,13 @@
         <v>221</v>
       </c>
       <c r="G43" s="108" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="H43" s="108" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="I43" s="108" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="J43" s="111" t="s">
         <v>226</v>
@@ -42979,13 +42933,13 @@
         <v>91</v>
       </c>
       <c r="G44" s="108" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H44" s="108" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="I44" s="108" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="J44" s="111" t="s">
         <v>195</v>
@@ -43014,13 +42968,13 @@
         <v>230</v>
       </c>
       <c r="G45" s="108" t="s">
+        <v>1393</v>
+      </c>
+      <c r="H45" s="108" t="s">
+        <v>1394</v>
+      </c>
+      <c r="I45" s="108" t="s">
         <v>1395</v>
-      </c>
-      <c r="H45" s="108" t="s">
-        <v>1396</v>
-      </c>
-      <c r="I45" s="108" t="s">
-        <v>1397</v>
       </c>
       <c r="J45" s="111" t="s">
         <v>234</v>
@@ -43052,10 +43006,10 @@
         <v>418</v>
       </c>
       <c r="H46" s="108" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="I46" s="108" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="J46" s="111" t="s">
         <v>176</v>
@@ -43084,13 +43038,13 @@
         <v>91</v>
       </c>
       <c r="G47" s="108" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H47" s="108" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="I47" s="108" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="J47" s="111" t="s">
         <v>197</v>
@@ -43122,10 +43076,10 @@
         <v>418</v>
       </c>
       <c r="H48" s="108" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="I48" s="108" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="J48" s="111" t="s">
         <v>179</v>
@@ -43157,10 +43111,10 @@
         <v>458</v>
       </c>
       <c r="H49" s="108" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="I49" s="108" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="J49" s="111" t="s">
         <v>150</v>
@@ -43189,13 +43143,13 @@
         <v>230</v>
       </c>
       <c r="G50" s="108" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="H50" s="108" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="I50" s="108" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="J50" s="111" t="s">
         <v>244</v>
@@ -43224,13 +43178,13 @@
         <v>230</v>
       </c>
       <c r="G51" s="108" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="H51" s="108" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="I51" s="108" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="J51" s="111" t="s">
         <v>243</v>
@@ -43259,13 +43213,13 @@
         <v>221</v>
       </c>
       <c r="G52" s="108" t="s">
+        <v>1389</v>
+      </c>
+      <c r="H52" s="108" t="s">
+        <v>1390</v>
+      </c>
+      <c r="I52" s="108" t="s">
         <v>1391</v>
-      </c>
-      <c r="H52" s="108" t="s">
-        <v>1392</v>
-      </c>
-      <c r="I52" s="108" t="s">
-        <v>1393</v>
       </c>
       <c r="J52" s="111" t="s">
         <v>227</v>
@@ -43297,10 +43251,10 @@
         <v>418</v>
       </c>
       <c r="H53" s="108" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="I53" s="108" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="J53" s="111" t="s">
         <v>173</v>
@@ -43329,13 +43283,13 @@
         <v>230</v>
       </c>
       <c r="G54" s="108" t="s">
+        <v>1393</v>
+      </c>
+      <c r="H54" s="108" t="s">
+        <v>1394</v>
+      </c>
+      <c r="I54" s="108" t="s">
         <v>1395</v>
-      </c>
-      <c r="H54" s="108" t="s">
-        <v>1396</v>
-      </c>
-      <c r="I54" s="108" t="s">
-        <v>1397</v>
       </c>
       <c r="J54" s="111" t="s">
         <v>233</v>
@@ -43364,13 +43318,13 @@
         <v>91</v>
       </c>
       <c r="G55" s="108" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H55" s="108" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="I55" s="108" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="J55" s="111" t="s">
         <v>202</v>
@@ -43402,10 +43356,10 @@
         <v>418</v>
       </c>
       <c r="H56" s="108" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="I56" s="108" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="J56" s="111" t="s">
         <v>174</v>
@@ -43434,10 +43388,10 @@
         <v>91</v>
       </c>
       <c r="G57" s="108" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H57" s="108" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="I57" s="108" t="s">
         <v>209</v>
@@ -43472,10 +43426,10 @@
         <v>418</v>
       </c>
       <c r="H58" s="108" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="I58" s="108" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="J58" s="111" t="s">
         <v>175</v>
@@ -43504,10 +43458,10 @@
         <v>91</v>
       </c>
       <c r="G59" s="108" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H59" s="108" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="I59" s="108" t="s">
         <v>209</v>
@@ -43542,10 +43496,10 @@
         <v>458</v>
       </c>
       <c r="H60" s="108" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="I60" s="108" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="J60" s="111" t="s">
         <v>101</v>
@@ -43577,10 +43531,10 @@
         <v>458</v>
       </c>
       <c r="H61" s="108" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="I61" s="108" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="J61" s="111" t="s">
         <v>103</v>
@@ -43612,10 +43566,10 @@
         <v>458</v>
       </c>
       <c r="H62" s="108" t="s">
+        <v>1409</v>
+      </c>
+      <c r="I62" s="108" t="s">
         <v>1411</v>
-      </c>
-      <c r="I62" s="108" t="s">
-        <v>1413</v>
       </c>
       <c r="J62" s="111" t="s">
         <v>105</v>
@@ -43647,10 +43601,10 @@
         <v>458</v>
       </c>
       <c r="H63" s="108" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="I63" s="108" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="J63" s="111" t="s">
         <v>104</v>
@@ -43682,10 +43636,10 @@
         <v>458</v>
       </c>
       <c r="H64" s="108" t="s">
+        <v>1409</v>
+      </c>
+      <c r="I64" s="108" t="s">
         <v>1411</v>
-      </c>
-      <c r="I64" s="108" t="s">
-        <v>1413</v>
       </c>
       <c r="J64" s="111" t="s">
         <v>106</v>
@@ -43714,13 +43668,13 @@
         <v>230</v>
       </c>
       <c r="G65" s="108" t="s">
+        <v>1393</v>
+      </c>
+      <c r="H65" s="108" t="s">
+        <v>1394</v>
+      </c>
+      <c r="I65" s="108" t="s">
         <v>1395</v>
-      </c>
-      <c r="H65" s="108" t="s">
-        <v>1396</v>
-      </c>
-      <c r="I65" s="108" t="s">
-        <v>1397</v>
       </c>
       <c r="J65" s="111" t="s">
         <v>236</v>
@@ -43749,13 +43703,13 @@
         <v>91</v>
       </c>
       <c r="G66" s="108" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H66" s="108" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="I66" s="108" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="J66" s="111" t="s">
         <v>198</v>
@@ -43784,13 +43738,13 @@
         <v>221</v>
       </c>
       <c r="G67" s="108" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="H67" s="108" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="I67" s="108" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="J67" s="111" t="s">
         <v>224</v>
@@ -43819,13 +43773,13 @@
         <v>221</v>
       </c>
       <c r="G68" s="108" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="H68" s="108" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="I68" s="108" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="J68" s="111" t="s">
         <v>223</v>
@@ -43854,13 +43808,13 @@
         <v>221</v>
       </c>
       <c r="G69" s="108" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="H69" s="108" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="I69" s="108" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="J69" s="111" t="s">
         <v>225</v>
@@ -43889,13 +43843,13 @@
         <v>91</v>
       </c>
       <c r="G70" s="108" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H70" s="108" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="I70" s="108" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="J70" s="111" t="s">
         <v>206</v>
@@ -43927,10 +43881,10 @@
         <v>458</v>
       </c>
       <c r="H71" s="108" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="I71" s="108" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="J71" s="111" t="s">
         <v>110</v>
@@ -43962,10 +43916,10 @@
         <v>458</v>
       </c>
       <c r="H72" s="108" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="I72" s="108" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="J72" s="111" t="s">
         <v>112</v>
@@ -43994,13 +43948,13 @@
         <v>91</v>
       </c>
       <c r="G73" s="108" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H73" s="108" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="I73" s="108" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="J73" s="111" t="s">
         <v>200</v>
@@ -44029,13 +43983,13 @@
         <v>91</v>
       </c>
       <c r="G74" s="108" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H74" s="108" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="I74" s="108" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="J74" s="111" t="s">
         <v>203</v>
@@ -44064,13 +44018,13 @@
         <v>91</v>
       </c>
       <c r="G75" s="108" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H75" s="108" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="I75" s="108" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="J75" s="111" t="s">
         <v>204</v>
@@ -44099,13 +44053,13 @@
         <v>91</v>
       </c>
       <c r="G76" s="108" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H76" s="108" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="I76" s="108" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="J76" s="111" t="s">
         <v>207</v>
@@ -44134,13 +44088,13 @@
         <v>91</v>
       </c>
       <c r="G77" s="108" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H77" s="108" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="I77" s="108" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="J77" s="111" t="s">
         <v>205</v>
@@ -44172,10 +44126,10 @@
         <v>458</v>
       </c>
       <c r="H78" s="108" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="I78" s="108" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="J78" s="111" t="s">
         <v>162</v>
@@ -44207,10 +44161,10 @@
         <v>458</v>
       </c>
       <c r="H79" s="108" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="I79" s="108" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="J79" s="111" t="s">
         <v>133</v>
@@ -44239,10 +44193,10 @@
         <v>91</v>
       </c>
       <c r="G80" s="108" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H80" s="108" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="I80" s="108" t="s">
         <v>215</v>
@@ -44277,10 +44231,10 @@
         <v>458</v>
       </c>
       <c r="H81" s="108" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="I81" s="108" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="J81" s="111" t="s">
         <v>166</v>
@@ -44312,10 +44266,10 @@
         <v>458</v>
       </c>
       <c r="H82" s="108" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="I82" s="108" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="J82" s="111" t="s">
         <v>163</v>
@@ -44347,10 +44301,10 @@
         <v>458</v>
       </c>
       <c r="H83" s="108" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="I83" s="108" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="J83" s="111" t="s">
         <v>165</v>
@@ -44379,13 +44333,13 @@
         <v>91</v>
       </c>
       <c r="G84" s="108" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H84" s="108" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="I84" s="108" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="J84" s="111" t="s">
         <v>201</v>
@@ -44417,10 +44371,10 @@
         <v>458</v>
       </c>
       <c r="H85" s="108" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="I85" s="108" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="J85" s="111" t="s">
         <v>159</v>
@@ -44452,10 +44406,10 @@
         <v>458</v>
       </c>
       <c r="H86" s="108" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="I86" s="108" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="J86" s="111" t="s">
         <v>158</v>
@@ -44487,10 +44441,10 @@
         <v>458</v>
       </c>
       <c r="H87" s="108" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="I87" s="108" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="J87" s="111" t="s">
         <v>156</v>
@@ -44522,10 +44476,10 @@
         <v>458</v>
       </c>
       <c r="H88" s="108" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="I88" s="108" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="J88" s="111" t="s">
         <v>157</v>
@@ -44557,10 +44511,10 @@
         <v>458</v>
       </c>
       <c r="H89" s="108" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="I89" s="108" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="J89" s="111" t="s">
         <v>136</v>
@@ -44592,10 +44546,10 @@
         <v>458</v>
       </c>
       <c r="H90" s="108" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="I90" s="108" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="J90" s="111" t="s">
         <v>160</v>
@@ -44627,10 +44581,10 @@
         <v>458</v>
       </c>
       <c r="H91" s="108" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="I91" s="108" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="J91" s="111" t="s">
         <v>146</v>
@@ -44662,10 +44616,10 @@
         <v>458</v>
       </c>
       <c r="H92" s="108" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="I92" s="108" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="J92" s="111" t="s">
         <v>153</v>
@@ -44697,10 +44651,10 @@
         <v>458</v>
       </c>
       <c r="H93" s="108" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="I93" s="108" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="J93" s="111" t="s">
         <v>143</v>
@@ -44732,10 +44686,10 @@
         <v>458</v>
       </c>
       <c r="H94" s="108" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="I94" s="108" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="J94" s="111" t="s">
         <v>142</v>
@@ -44767,10 +44721,10 @@
         <v>458</v>
       </c>
       <c r="H95" s="108" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="I95" s="108" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="J95" s="111" t="s">
         <v>145</v>
@@ -44802,10 +44756,10 @@
         <v>458</v>
       </c>
       <c r="H96" s="108" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="I96" s="108" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="J96" s="111" t="s">
         <v>148</v>
@@ -44837,10 +44791,10 @@
         <v>458</v>
       </c>
       <c r="H97" s="108" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="I97" s="108" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="J97" s="111" t="s">
         <v>134</v>
@@ -44872,10 +44826,10 @@
         <v>458</v>
       </c>
       <c r="H98" s="108" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="I98" s="108" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="J98" s="111" t="s">
         <v>147</v>
@@ -44907,10 +44861,10 @@
         <v>458</v>
       </c>
       <c r="H99" s="108" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="I99" s="108" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="J99" s="111" t="s">
         <v>138</v>
@@ -44942,10 +44896,10 @@
         <v>458</v>
       </c>
       <c r="H100" s="108" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="I100" s="108" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="J100" s="111" t="s">
         <v>139</v>
@@ -44977,10 +44931,10 @@
         <v>458</v>
       </c>
       <c r="H101" s="108" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="I101" s="108" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="J101" s="111" t="s">
         <v>140</v>
@@ -45012,10 +44966,10 @@
         <v>458</v>
       </c>
       <c r="H102" s="108" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="I102" s="108" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="J102" s="111" t="s">
         <v>130</v>
@@ -45047,10 +45001,10 @@
         <v>458</v>
       </c>
       <c r="H103" s="108" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="I103" s="108" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="J103" s="111" t="s">
         <v>137</v>
@@ -45082,10 +45036,10 @@
         <v>458</v>
       </c>
       <c r="H104" s="108" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="I104" s="108" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="J104" s="111" t="s">
         <v>155</v>
@@ -45117,10 +45071,10 @@
         <v>458</v>
       </c>
       <c r="H105" s="108" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="I105" s="108" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="J105" s="111" t="s">
         <v>154</v>
@@ -45152,10 +45106,10 @@
         <v>458</v>
       </c>
       <c r="H106" s="108" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="I106" s="108" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="J106" s="111" t="s">
         <v>149</v>
@@ -45187,10 +45141,10 @@
         <v>458</v>
       </c>
       <c r="H107" s="108" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="I107" s="108" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="J107" s="111" t="s">
         <v>152</v>
@@ -45222,10 +45176,10 @@
         <v>458</v>
       </c>
       <c r="H108" s="108" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="I108" s="108" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="J108" s="111" t="s">
         <v>164</v>
@@ -45257,10 +45211,10 @@
         <v>458</v>
       </c>
       <c r="H109" s="108" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="I109" s="108" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="J109" s="111" t="s">
         <v>151</v>
@@ -45292,10 +45246,10 @@
         <v>458</v>
       </c>
       <c r="H110" s="108" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="I110" s="108" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="J110" s="111" t="s">
         <v>144</v>
@@ -45327,10 +45281,10 @@
         <v>458</v>
       </c>
       <c r="H111" s="108" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="I111" s="108" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="J111" s="111" t="s">
         <v>131</v>
@@ -45362,10 +45316,10 @@
         <v>458</v>
       </c>
       <c r="H112" s="108" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="I112" s="108" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="J112" s="111" t="s">
         <v>141</v>
@@ -45397,10 +45351,10 @@
         <v>458</v>
       </c>
       <c r="H113" s="108" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="I113" s="108" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="J113" s="111" t="s">
         <v>111</v>
@@ -45432,10 +45386,10 @@
         <v>458</v>
       </c>
       <c r="H114" s="108" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="I114" s="108" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="J114" s="111" t="s">
         <v>117</v>
@@ -45467,10 +45421,10 @@
         <v>458</v>
       </c>
       <c r="H115" s="108" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="I115" s="108" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="J115" s="111" t="s">
         <v>126</v>
@@ -45502,10 +45456,10 @@
         <v>458</v>
       </c>
       <c r="H116" s="108" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="I116" s="108" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="J116" s="111" t="s">
         <v>127</v>
@@ -45537,10 +45491,10 @@
         <v>458</v>
       </c>
       <c r="H117" s="108" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="I117" s="108" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="J117" s="111" t="s">
         <v>128</v>
@@ -45572,10 +45526,10 @@
         <v>458</v>
       </c>
       <c r="H118" s="108" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="I118" s="108" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="J118" s="111" t="s">
         <v>121</v>
@@ -45607,10 +45561,10 @@
         <v>458</v>
       </c>
       <c r="H119" s="108" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="I119" s="108" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="J119" s="111" t="s">
         <v>108</v>
@@ -45642,10 +45596,10 @@
         <v>458</v>
       </c>
       <c r="H120" s="108" t="s">
+        <v>1409</v>
+      </c>
+      <c r="I120" s="108" t="s">
         <v>1411</v>
-      </c>
-      <c r="I120" s="108" t="s">
-        <v>1413</v>
       </c>
       <c r="J120" s="111" t="s">
         <v>107</v>
@@ -45677,10 +45631,10 @@
         <v>458</v>
       </c>
       <c r="H121" s="108" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="I121" s="108" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="J121" s="111" t="s">
         <v>123</v>
@@ -45712,10 +45666,10 @@
         <v>458</v>
       </c>
       <c r="H122" s="108" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="I122" s="108" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="J122" s="111" t="s">
         <v>125</v>
@@ -45747,10 +45701,10 @@
         <v>458</v>
       </c>
       <c r="H123" s="108" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="I123" s="108" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="J123" s="111" t="s">
         <v>129</v>
@@ -45782,10 +45736,10 @@
         <v>458</v>
       </c>
       <c r="H124" s="108" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="I124" s="108" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="J124" s="111" t="s">
         <v>90</v>
@@ -45817,10 +45771,10 @@
         <v>458</v>
       </c>
       <c r="H125" s="108" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="I125" s="108" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="J125" s="111" t="s">
         <v>94</v>
@@ -45852,10 +45806,10 @@
         <v>458</v>
       </c>
       <c r="H126" s="108" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="I126" s="108" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="J126" s="111" t="s">
         <v>97</v>
@@ -45887,10 +45841,10 @@
         <v>458</v>
       </c>
       <c r="H127" s="108" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="I127" s="108" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="J127" s="111" t="s">
         <v>92</v>
@@ -45922,10 +45876,10 @@
         <v>458</v>
       </c>
       <c r="H128" s="108" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="I128" s="108" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="J128" s="111" t="s">
         <v>100</v>
@@ -45954,10 +45908,10 @@
         <v>91</v>
       </c>
       <c r="G129" s="108" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H129" s="108" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="I129" s="108" t="s">
         <v>215</v>
@@ -45989,10 +45943,10 @@
         <v>91</v>
       </c>
       <c r="G130" s="108" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H130" s="108" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="I130" s="108" t="s">
         <v>212</v>
@@ -46027,10 +45981,10 @@
         <v>458</v>
       </c>
       <c r="H131" s="108" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="I131" s="108" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="J131" s="111" t="s">
         <v>118</v>
@@ -46062,10 +46016,10 @@
         <v>458</v>
       </c>
       <c r="H132" s="108" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="I132" s="108" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="J132" s="111" t="s">
         <v>161</v>
@@ -46097,10 +46051,10 @@
         <v>458</v>
       </c>
       <c r="H133" s="108" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="I133" s="108" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="J133" s="111" t="s">
         <v>115</v>
@@ -46132,10 +46086,10 @@
         <v>458</v>
       </c>
       <c r="H134" s="108" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="I134" s="108" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="J134" s="111" t="s">
         <v>122</v>
@@ -46167,10 +46121,10 @@
         <v>458</v>
       </c>
       <c r="H135" s="108" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="I135" s="108" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="J135" s="111" t="s">
         <v>124</v>
@@ -46202,10 +46156,10 @@
         <v>458</v>
       </c>
       <c r="H136" s="108" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="I136" s="108" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="J136" s="111" t="s">
         <v>114</v>
@@ -46237,10 +46191,10 @@
         <v>458</v>
       </c>
       <c r="H137" s="108" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="I137" s="108" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="J137" s="111" t="s">
         <v>109</v>
@@ -46272,10 +46226,10 @@
         <v>458</v>
       </c>
       <c r="H138" s="108" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="I138" s="108" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="J138" s="111" t="s">
         <v>113</v>
@@ -46307,10 +46261,10 @@
         <v>458</v>
       </c>
       <c r="H139" s="108" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="I139" s="108" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="J139" s="111" t="s">
         <v>119</v>
@@ -46342,10 +46296,10 @@
         <v>458</v>
       </c>
       <c r="H140" s="108" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="I140" s="108" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="J140" s="111" t="s">
         <v>120</v>
@@ -46377,10 +46331,10 @@
         <v>458</v>
       </c>
       <c r="H141" s="108" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="I141" s="108" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="J141" s="111" t="s">
         <v>116</v>
@@ -46409,10 +46363,10 @@
         <v>91</v>
       </c>
       <c r="G142" s="108" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H142" s="108" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="I142" s="108" t="s">
         <v>218</v>
@@ -46444,10 +46398,10 @@
         <v>91</v>
       </c>
       <c r="G143" s="108" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="H143" s="108" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="I143" s="108" t="s">
         <v>212</v>
@@ -56207,10 +56161,10 @@
         <v>413</v>
       </c>
       <c r="I1" s="36" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="J1" s="36" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -56527,9 +56481,7 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -56566,7 +56518,7 @@
         <v>413</v>
       </c>
       <c r="G1" s="36" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -56588,9 +56540,7 @@
   </sheetPr>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J1" sqref="A1:J1048576"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -56637,10 +56587,10 @@
         <v>413</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="K1" s="101"/>
     </row>
@@ -56663,9 +56613,7 @@
   </sheetPr>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -56708,10 +56656,10 @@
         <v>413</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.2">
@@ -56727,27 +56675,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <TaxCatchAllLabel xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <TaxKeywordTaxHTField xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010065CE7316361DFA48AC876C6112A59FE5" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fb125599c9f9a751b726b9a94d2e235b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4d5313c0-c1e6-4122-afa9-da1ccdba405d" xmlns:ns3="362c980f-4e38-4cca-bd06-5104ee5993c5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b91c66d6a628c7b1a21e6c64315cfea9" ns2:_="" ns3:_="">
     <xsd:import namespace="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
@@ -56924,10 +56851,42 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <TaxCatchAllLabel xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <TaxKeywordTaxHTField xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50425A79-54B8-4D54-9EAF-8388D1CE4120}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD77486B-9FB1-411A-ACCC-E50815D9A26B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <ds:schemaRef ds:uri="362c980f-4e38-4cca-bd06-5104ee5993c5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -56950,20 +56909,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD77486B-9FB1-411A-ACCC-E50815D9A26B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50425A79-54B8-4D54-9EAF-8388D1CE4120}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <ds:schemaRef ds:uri="362c980f-4e38-4cca-bd06-5104ee5993c5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/datacall_template/00template/Eel_Data_Call_Annex_Time_Series.xlsx
+++ b/data/datacall_template/00template/Eel_Data_Call_Annex_Time_Series.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="-120" windowWidth="24390" windowHeight="14700" tabRatio="851"/>
+    <workbookView xWindow="-57720" yWindow="-120" windowWidth="18390" windowHeight="14310" tabRatio="851"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4679" uniqueCount="1556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4679" uniqueCount="1555">
   <si>
     <t>series_info</t>
   </si>
@@ -3665,9 +3665,6 @@
     <t>ageyear</t>
   </si>
   <si>
-    <t>eye_diam_mean_mm</t>
-  </si>
-  <si>
     <t>Eye diameter, or average of vertical and horizontal diameter (mm)</t>
   </si>
   <si>
@@ -3855,9 +3852,6 @@
   </si>
   <si>
     <t>Age (year) or mean age for group</t>
-  </si>
-  <si>
-    <t>is_female_(1=female,0=male)</t>
   </si>
   <si>
     <t>Female status (is_female) or percentage female in the population female/(male+female) for group</t>
@@ -4933,6 +4927,9 @@
   </si>
   <si>
     <t>fi_id_cou</t>
+  </si>
+  <si>
+    <t>is_female(1=female,0=male)</t>
   </si>
 </sst>
 </file>
@@ -5824,7 +5821,7 @@
         <xdr:cNvPr id="5" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6975,7 +6972,7 @@
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0C00-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7082,7 +7079,7 @@
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0D00-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7205,7 +7202,7 @@
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0E00-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7304,7 +7301,7 @@
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7439,7 +7436,7 @@
         <xdr:cNvPr id="3" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7541,7 +7538,7 @@
         <xdr:cNvPr id="2" name="Image 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7583,7 +7580,7 @@
         <xdr:cNvPr id="2" name="Metin kutusu 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7638,7 +7635,7 @@
         <xdr:cNvPr id="3" name="Metin kutusu 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7693,7 +7690,7 @@
         <xdr:cNvPr id="4" name="Metin kutusu 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1200-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7748,7 +7745,7 @@
         <xdr:cNvPr id="5" name="Metin kutusu 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1200-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7803,7 +7800,7 @@
         <xdr:cNvPr id="6" name="Metin kutusu 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1200-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7858,7 +7855,7 @@
         <xdr:cNvPr id="7" name="Metin kutusu 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1200-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7913,7 +7910,7 @@
         <xdr:cNvPr id="8" name="Metin kutusu 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1200-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7968,7 +7965,7 @@
         <xdr:cNvPr id="9" name="Metin kutusu 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1200-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8023,7 +8020,7 @@
         <xdr:cNvPr id="10" name="Metin kutusu 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1200-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8078,7 +8075,7 @@
         <xdr:cNvPr id="11" name="Metin kutusu 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1200-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8133,7 +8130,7 @@
         <xdr:cNvPr id="12" name="Metin kutusu 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1200-00000C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8188,7 +8185,7 @@
         <xdr:cNvPr id="13" name="Metin kutusu 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1200-00000D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8243,7 +8240,7 @@
         <xdr:cNvPr id="14" name="Metin kutusu 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1200-00000E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8298,7 +8295,7 @@
         <xdr:cNvPr id="15" name="Metin kutusu 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1200-00000F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8353,7 +8350,7 @@
         <xdr:cNvPr id="16" name="Metin kutusu 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1200-000010000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8408,7 +8405,7 @@
         <xdr:cNvPr id="17" name="Metin kutusu 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1200-000011000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8463,7 +8460,7 @@
         <xdr:cNvPr id="18" name="Metin kutusu 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1200-000012000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8518,7 +8515,7 @@
         <xdr:cNvPr id="19" name="Metin kutusu 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1200-000013000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8578,7 +8575,7 @@
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1A00-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1A00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8670,7 +8667,7 @@
         <xdr:cNvPr id="2" name="Image 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1800-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1800-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8717,7 +8714,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1900-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8765,7 +8762,7 @@
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8938,7 +8935,7 @@
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9036,7 +9033,7 @@
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9154,7 +9151,7 @@
         <xdr:cNvPr id="4" name="Image 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9204,7 +9201,7 @@
         <xdr:cNvPr id="5" name="Image 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9259,7 +9256,7 @@
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9425,7 +9422,7 @@
         <xdr:cNvPr id="7" name="Image 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9475,7 +9472,7 @@
         <xdr:cNvPr id="8" name="Image 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9530,7 +9527,7 @@
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9637,7 +9634,7 @@
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9760,7 +9757,7 @@
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9859,7 +9856,7 @@
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0B00-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10272,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="108" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="25.5">
@@ -10368,7 +10365,7 @@
         <v>18</v>
       </c>
       <c r="B14" s="62" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="25.5">
@@ -10384,7 +10381,7 @@
         <v>20</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="51">
@@ -10392,7 +10389,7 @@
         <v>21</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="25.5">
@@ -10416,7 +10413,7 @@
         <v>1163</v>
       </c>
       <c r="B20" s="66" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="120" customHeight="1">
@@ -10443,7 +10440,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="41" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -10451,7 +10448,7 @@
         <v>1</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -10467,7 +10464,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -10475,7 +10472,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -10491,23 +10488,23 @@
         <v>406</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="10" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="54" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="B32" s="47" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="33" spans="1:5 1025:1025">
@@ -10516,19 +10513,19 @@
     </row>
     <row r="34" spans="1:5 1025:1025">
       <c r="A34" s="53" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B34" s="41" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="E34" s="48"/>
     </row>
     <row r="35" spans="1:5 1025:1025" ht="25.5">
       <c r="A35" s="54" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="E35" s="49"/>
     </row>
@@ -10544,59 +10541,59 @@
     </row>
     <row r="37" spans="1:5 1025:1025">
       <c r="A37" s="54" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B37" s="47" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="C37" s="9"/>
       <c r="E37" s="48"/>
     </row>
     <row r="38" spans="1:5 1025:1025">
       <c r="A38" s="54" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="B38" s="62" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="E38" s="48"/>
     </row>
     <row r="39" spans="1:5 1025:1025">
       <c r="A39" s="54" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="C39" s="47"/>
       <c r="E39" s="48"/>
     </row>
     <row r="40" spans="1:5 1025:1025">
       <c r="A40" s="54" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="C40" s="47"/>
       <c r="E40" s="48"/>
     </row>
     <row r="41" spans="1:5 1025:1025">
       <c r="A41" s="54" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B41" s="47" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="C41" s="62"/>
       <c r="E41" s="48"/>
     </row>
     <row r="42" spans="1:5 1025:1025">
       <c r="A42" s="54" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="B42" s="47" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="C42" s="62"/>
       <c r="E42" s="48"/>
@@ -10606,7 +10603,7 @@
         <v>1189</v>
       </c>
       <c r="B43" s="62" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="C43" s="62"/>
       <c r="E43" s="48"/>
@@ -10616,7 +10613,7 @@
         <v>1193</v>
       </c>
       <c r="B44" s="62" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="C44" s="62"/>
       <c r="E44" s="48"/>
@@ -10626,46 +10623,46 @@
         <v>1195</v>
       </c>
       <c r="B45" s="47" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="C45" s="62"/>
       <c r="E45" s="48"/>
     </row>
     <row r="46" spans="1:5 1025:1025" ht="25.5">
       <c r="A46" s="56" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="B46" s="47" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="C46" s="9"/>
       <c r="E46" s="50"/>
     </row>
     <row r="47" spans="1:5 1025:1025" ht="25.5">
       <c r="A47" s="86" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="B47" s="90" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="AMK47"/>
     </row>
     <row r="48" spans="1:5 1025:1025" ht="19.5" customHeight="1">
       <c r="A48" s="57" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="B48" s="62" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="C48" s="47"/>
       <c r="E48" s="50"/>
     </row>
     <row r="49" spans="1:5 1025:1025">
       <c r="A49" s="58" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="B49" s="47" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="C49" s="47"/>
       <c r="E49" s="51"/>
@@ -10675,36 +10672,36 @@
         <v>1179</v>
       </c>
       <c r="B50" s="47" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="C50" s="47"/>
       <c r="E50" s="51"/>
     </row>
     <row r="51" spans="1:5 1025:1025" ht="25.5">
       <c r="A51" s="86" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="B51" s="91" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="AMK51"/>
     </row>
     <row r="52" spans="1:5 1025:1025">
       <c r="A52" s="59" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="C52" s="47"/>
       <c r="E52" s="14"/>
     </row>
     <row r="53" spans="1:5 1025:1025">
       <c r="A53" s="59" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="B53" s="47" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="C53" s="45"/>
       <c r="E53" s="14"/>
@@ -10714,7 +10711,7 @@
         <v>1174</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="C54" s="47"/>
       <c r="E54" s="50"/>
@@ -10724,7 +10721,7 @@
         <v>1175</v>
       </c>
       <c r="B55" s="47" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="C55" s="47"/>
       <c r="E55" s="50"/>
@@ -10734,7 +10731,7 @@
         <v>1176</v>
       </c>
       <c r="B56" s="47" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="C56" s="47"/>
       <c r="E56" s="50"/>
@@ -10744,7 +10741,7 @@
         <v>1171</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="C57" s="47"/>
       <c r="E57" s="50"/>
@@ -10754,7 +10751,7 @@
         <v>1172</v>
       </c>
       <c r="B58" s="47" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="C58"/>
       <c r="E58" s="50"/>
@@ -10764,7 +10761,7 @@
         <v>1173</v>
       </c>
       <c r="B59" s="47" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="C59"/>
     </row>
@@ -10773,7 +10770,7 @@
         <v>1177</v>
       </c>
       <c r="B60" s="47" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="61" spans="1:5 1025:1025" ht="25.5">
@@ -10781,31 +10778,31 @@
         <v>1178</v>
       </c>
       <c r="B61" s="47" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="63" spans="1:5 1025:1025">
       <c r="A63" s="53" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="B63" s="41" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="64" spans="1:5 1025:1025" ht="25.5">
       <c r="A64" s="54" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="65" spans="1:2 1025:1025">
       <c r="A65" s="8" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="66" spans="1:2 1025:1025" ht="51">
@@ -10818,50 +10815,50 @@
     </row>
     <row r="67" spans="1:2 1025:1025" ht="25.5">
       <c r="A67" s="54" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B67" s="62" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="68" spans="1:2 1025:1025" ht="38.25">
       <c r="A68" s="54" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="B68" s="62" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="69" spans="1:2 1025:1025">
       <c r="A69" s="72" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="B69" s="73" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="70" spans="1:2 1025:1025">
       <c r="A70" s="54" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="71" spans="1:2 1025:1025">
       <c r="A71" s="54" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="B71" s="47" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="72" spans="1:2 1025:1025">
       <c r="A72" s="54" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="B72" s="47" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="73" spans="1:2 1025:1025">
@@ -10869,7 +10866,7 @@
         <v>1189</v>
       </c>
       <c r="B73" s="62" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="74" spans="1:2 1025:1025">
@@ -10877,7 +10874,7 @@
         <v>1193</v>
       </c>
       <c r="B74" s="62" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="75" spans="1:2 1025:1025">
@@ -10885,56 +10882,56 @@
         <v>1195</v>
       </c>
       <c r="B75" s="47" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="76" spans="1:2 1025:1025">
       <c r="A76" s="59" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B76" s="47" t="s">
         <v>1196</v>
-      </c>
-      <c r="B76" s="47" t="s">
-        <v>1197</v>
       </c>
     </row>
     <row r="77" spans="1:2 1025:1025">
       <c r="A77" s="59" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>1198</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>1199</v>
       </c>
     </row>
     <row r="78" spans="1:2 1025:1025">
       <c r="A78" s="61" t="s">
-        <v>1260</v>
+        <v>1554</v>
       </c>
       <c r="B78" s="62" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="79" spans="1:2 1025:1025" ht="25.5">
       <c r="A79" s="86" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="B79" s="90" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="AMK79"/>
     </row>
     <row r="80" spans="1:2 1025:1025" ht="25.5">
       <c r="A80" s="61" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="B80" s="62" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="81" spans="1:2 1025:1025">
       <c r="A81" s="58" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="B81" s="47" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="82" spans="1:2 1025:1025">
@@ -10942,32 +10939,32 @@
         <v>1179</v>
       </c>
       <c r="B82" s="47" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="83" spans="1:2 1025:1025" ht="25.5">
       <c r="A83" s="86" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="B83" s="91" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="AMK83"/>
     </row>
     <row r="84" spans="1:2 1025:1025">
       <c r="A84" s="59" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="B84" s="47" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="85" spans="1:2 1025:1025">
       <c r="A85" s="59" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="B85" s="47" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="86" spans="1:2 1025:1025">
@@ -11018,25 +11015,25 @@
   <sheetData>
     <row r="1" spans="1:26" s="14" customFormat="1" ht="51">
       <c r="A1" s="34" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B1" s="35" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="34" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D1" s="34" t="s">
         <v>1222</v>
       </c>
-      <c r="D1" s="34" t="s">
-        <v>1223</v>
-      </c>
       <c r="E1" s="34" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F1" s="34" t="s">
         <v>1238</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="G1" s="34" t="s">
         <v>1239</v>
-      </c>
-      <c r="G1" s="34" t="s">
-        <v>1240</v>
       </c>
       <c r="H1" s="40" t="s">
         <v>1189</v>
@@ -11048,28 +11045,28 @@
         <v>1195</v>
       </c>
       <c r="K1" s="40" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="L1" s="38" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="M1" s="40" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="N1" s="87" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="O1" s="89" t="s">
         <v>1179</v>
       </c>
       <c r="P1" s="87" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="Q1" s="39" t="s">
+        <v>1224</v>
+      </c>
+      <c r="R1" s="39" t="s">
         <v>1225</v>
-      </c>
-      <c r="R1" s="39" t="s">
-        <v>1226</v>
       </c>
       <c r="S1" s="39" t="s">
         <v>1174</v>
@@ -11197,31 +11194,31 @@
   <sheetData>
     <row r="1" spans="1:23" s="14" customFormat="1" ht="76.5">
       <c r="A1" s="33" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="C1" s="24" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="33" t="s">
+        <v>1242</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>1317</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>1318</v>
+      </c>
+      <c r="G1" s="33" t="s">
         <v>1243</v>
       </c>
-      <c r="E1" s="33" t="s">
-        <v>1319</v>
-      </c>
-      <c r="F1" s="33" t="s">
-        <v>1320</v>
-      </c>
-      <c r="G1" s="33" t="s">
+      <c r="H1" s="33" t="s">
         <v>1244</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="I1" s="33" t="s">
         <v>1245</v>
-      </c>
-      <c r="I1" s="33" t="s">
-        <v>1246</v>
       </c>
       <c r="J1" s="38" t="s">
         <v>1189</v>
@@ -11233,34 +11230,34 @@
         <v>1195</v>
       </c>
       <c r="M1" s="69" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="N1" s="69" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="O1" s="70" t="s">
-        <v>1260</v>
+        <v>1554</v>
       </c>
       <c r="P1" s="38" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="Q1" s="70" t="s">
+        <v>1261</v>
+      </c>
+      <c r="R1" s="87" t="s">
         <v>1263</v>
-      </c>
-      <c r="R1" s="87" t="s">
-        <v>1265</v>
       </c>
       <c r="S1" s="69" t="s">
         <v>1179</v>
       </c>
       <c r="T1" s="69" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="U1" s="69" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="V1" s="69" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="W1" s="36"/>
     </row>
@@ -11300,22 +11297,22 @@
   <sheetData>
     <row r="1" spans="1:25" ht="76.5">
       <c r="A1" s="33" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="33" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>1317</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>1318</v>
+      </c>
+      <c r="F1" s="33" t="s">
         <v>1243</v>
-      </c>
-      <c r="D1" s="33" t="s">
-        <v>1319</v>
-      </c>
-      <c r="E1" s="33" t="s">
-        <v>1320</v>
-      </c>
-      <c r="F1" s="33" t="s">
-        <v>1244</v>
       </c>
       <c r="G1" s="38" t="s">
         <v>1189</v>
@@ -11327,34 +11324,34 @@
         <v>1195</v>
       </c>
       <c r="J1" s="69" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="K1" s="69" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="L1" s="70" t="s">
-        <v>1260</v>
+        <v>1554</v>
       </c>
       <c r="M1" s="38" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="N1" s="70" t="s">
+        <v>1261</v>
+      </c>
+      <c r="O1" s="87" t="s">
         <v>1263</v>
-      </c>
-      <c r="O1" s="87" t="s">
-        <v>1265</v>
       </c>
       <c r="P1" s="69" t="s">
         <v>1179</v>
       </c>
       <c r="Q1" s="69" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="R1" s="69" t="s">
+        <v>1270</v>
+      </c>
+      <c r="S1" s="69" t="s">
         <v>1272</v>
-      </c>
-      <c r="S1" s="69" t="s">
-        <v>1274</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -11425,31 +11422,31 @@
   <sheetData>
     <row r="1" spans="1:26" ht="76.5">
       <c r="A1" s="33" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="C1" s="24" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="33" t="s">
+        <v>1242</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>1317</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>1318</v>
+      </c>
+      <c r="G1" s="33" t="s">
         <v>1243</v>
       </c>
-      <c r="E1" s="33" t="s">
-        <v>1319</v>
-      </c>
-      <c r="F1" s="33" t="s">
-        <v>1320</v>
-      </c>
-      <c r="G1" s="33" t="s">
+      <c r="H1" s="33" t="s">
         <v>1244</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="I1" s="38" t="s">
         <v>1245</v>
-      </c>
-      <c r="I1" s="38" t="s">
-        <v>1246</v>
       </c>
       <c r="J1" s="38" t="s">
         <v>1189</v>
@@ -11461,34 +11458,34 @@
         <v>1195</v>
       </c>
       <c r="M1" s="69" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="N1" s="69" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="O1" s="70" t="s">
-        <v>1260</v>
+        <v>1554</v>
       </c>
       <c r="P1" s="38" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="Q1" s="70" t="s">
+        <v>1261</v>
+      </c>
+      <c r="R1" s="87" t="s">
         <v>1263</v>
-      </c>
-      <c r="R1" s="87" t="s">
-        <v>1265</v>
       </c>
       <c r="S1" s="69" t="s">
         <v>1179</v>
       </c>
       <c r="T1" s="69" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="U1" s="69" t="s">
+        <v>1270</v>
+      </c>
+      <c r="V1" s="69" t="s">
         <v>1272</v>
-      </c>
-      <c r="V1" s="69" t="s">
-        <v>1274</v>
       </c>
     </row>
     <row r="2" spans="1:26">
@@ -11558,31 +11555,31 @@
   <sheetData>
     <row r="1" spans="1:22" s="14" customFormat="1" ht="76.5">
       <c r="A1" s="33" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="C1" s="24" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="33" t="s">
+        <v>1242</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>1317</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>1318</v>
+      </c>
+      <c r="G1" s="33" t="s">
         <v>1243</v>
       </c>
-      <c r="E1" s="33" t="s">
-        <v>1319</v>
-      </c>
-      <c r="F1" s="33" t="s">
-        <v>1320</v>
-      </c>
-      <c r="G1" s="33" t="s">
+      <c r="H1" s="33" t="s">
         <v>1244</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="I1" s="38" t="s">
         <v>1245</v>
-      </c>
-      <c r="I1" s="38" t="s">
-        <v>1246</v>
       </c>
       <c r="J1" s="38" t="s">
         <v>1189</v>
@@ -11594,34 +11591,34 @@
         <v>1195</v>
       </c>
       <c r="M1" s="69" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="N1" s="69" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="O1" s="70" t="s">
-        <v>1260</v>
+        <v>1554</v>
       </c>
       <c r="P1" s="38" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="Q1" s="70" t="s">
+        <v>1261</v>
+      </c>
+      <c r="R1" s="87" t="s">
         <v>1263</v>
-      </c>
-      <c r="R1" s="87" t="s">
-        <v>1265</v>
       </c>
       <c r="S1" s="69" t="s">
         <v>1179</v>
       </c>
       <c r="T1" s="69" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="U1" s="69" t="s">
+        <v>1270</v>
+      </c>
+      <c r="V1" s="69" t="s">
         <v>1272</v>
-      </c>
-      <c r="V1" s="69" t="s">
-        <v>1274</v>
       </c>
     </row>
     <row r="2" spans="1:22">
@@ -11662,189 +11659,189 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="126" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B1" s="126" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C1" s="126" t="s">
         <v>1393</v>
       </c>
-      <c r="B1" s="126" t="s">
+      <c r="D1" s="127" t="s">
         <v>1394</v>
-      </c>
-      <c r="C1" s="126" t="s">
-        <v>1395</v>
-      </c>
-      <c r="D1" s="127" t="s">
-        <v>1396</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="123" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="B2" s="124"/>
       <c r="C2" s="124" t="s">
         <v>63</v>
       </c>
       <c r="D2" s="125" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="E2" s="82"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="109" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="B3" s="110"/>
       <c r="C3" s="110" t="s">
         <v>240</v>
       </c>
       <c r="D3" s="111" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="109" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="B4" s="110"/>
       <c r="C4" s="110" t="s">
         <v>241</v>
       </c>
       <c r="D4" s="111" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="E4" s="83"/>
       <c r="F4" s="84"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="109" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="B5" s="110"/>
       <c r="C5" s="110" t="s">
         <v>242</v>
       </c>
       <c r="D5" s="111" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="E5" s="83"/>
       <c r="F5" s="84"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="109" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="B6" s="110"/>
       <c r="C6" s="110" t="s">
         <v>242</v>
       </c>
       <c r="D6" s="111" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="109" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="B7" s="110"/>
       <c r="C7" s="110" t="s">
         <v>242</v>
       </c>
       <c r="D7" s="111" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="109" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="B8" s="110"/>
       <c r="C8" s="110" t="s">
         <v>242</v>
       </c>
       <c r="D8" s="111" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="109" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="B9" s="110"/>
       <c r="C9" s="110" t="s">
         <v>242</v>
       </c>
       <c r="D9" s="111" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="109" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="B10" s="110"/>
       <c r="C10" s="110" t="s">
         <v>243</v>
       </c>
       <c r="D10" s="111" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="109" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="B11" s="110"/>
       <c r="C11" s="110" t="s">
         <v>244</v>
       </c>
       <c r="D11" s="111" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="109" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="B12" s="110"/>
       <c r="C12" s="110" t="s">
         <v>244</v>
       </c>
       <c r="D12" s="111" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="109" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="B13" s="110"/>
       <c r="C13" s="110" t="s">
         <v>244</v>
       </c>
       <c r="D13" s="111" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="109" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="B14" s="110"/>
       <c r="C14" s="110" t="s">
         <v>245</v>
       </c>
       <c r="D14" s="111" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="109" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="B15" s="110"/>
       <c r="C15" s="110" t="s">
         <v>245</v>
       </c>
       <c r="D15" s="111" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -11856,55 +11853,55 @@
         <v>245</v>
       </c>
       <c r="D16" s="111" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="112" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="B17" s="113"/>
       <c r="C17" s="113" t="s">
         <v>245</v>
       </c>
       <c r="D17" s="111" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="109" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="B18" s="110"/>
       <c r="C18" s="110" t="s">
         <v>245</v>
       </c>
       <c r="D18" s="111" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="109" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="B19" s="110"/>
       <c r="C19" s="110" t="s">
         <v>245</v>
       </c>
       <c r="D19" s="111" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="109" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="B20" s="110"/>
       <c r="C20" s="110" t="s">
         <v>245</v>
       </c>
       <c r="D20" s="111" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -11916,31 +11913,31 @@
         <v>245</v>
       </c>
       <c r="D21" s="111" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="109" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="B22" s="110"/>
       <c r="C22" s="110" t="s">
         <v>245</v>
       </c>
       <c r="D22" s="111" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="109" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="B23" s="110"/>
       <c r="C23" s="110" t="s">
         <v>245</v>
       </c>
       <c r="D23" s="111" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -11952,129 +11949,129 @@
         <v>249</v>
       </c>
       <c r="D24" s="111" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="109" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="B25" s="110" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="C25" s="110" t="s">
         <v>249</v>
       </c>
       <c r="D25" s="111" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="109" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="B26" s="110"/>
       <c r="C26" s="110" t="s">
         <v>249</v>
       </c>
       <c r="D26" s="111" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="109" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="B27" s="110"/>
       <c r="C27" s="110" t="s">
         <v>250</v>
       </c>
       <c r="D27" s="111" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="109" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="B28" s="110"/>
       <c r="C28" s="110" t="s">
         <v>251</v>
       </c>
       <c r="D28" s="111" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="109" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="B29" s="110"/>
       <c r="C29" s="110" t="s">
         <v>251</v>
       </c>
       <c r="D29" s="111" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="109" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="B30" s="110"/>
       <c r="C30" s="110" t="s">
         <v>251</v>
       </c>
       <c r="D30" s="111" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="109" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="B31" s="110"/>
       <c r="C31" s="110" t="s">
         <v>252</v>
       </c>
       <c r="D31" s="111" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="109" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="B32" s="110"/>
       <c r="C32" s="110" t="s">
         <v>253</v>
       </c>
       <c r="D32" s="111" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="109" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="B33" s="110"/>
       <c r="C33" s="110" t="s">
         <v>253</v>
       </c>
       <c r="D33" s="111" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="109" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="B34" s="110"/>
       <c r="C34" s="110" t="s">
         <v>253</v>
       </c>
       <c r="D34" s="111" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -12086,141 +12083,141 @@
         <v>253</v>
       </c>
       <c r="D35" s="111" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="109" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="B36" s="110"/>
       <c r="C36" s="110" t="s">
         <v>253</v>
       </c>
       <c r="D36" s="111" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="109" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="B37" s="110"/>
       <c r="C37" s="110" t="s">
         <v>253</v>
       </c>
       <c r="D37" s="111" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="109" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="B38" s="110"/>
       <c r="C38" s="110" t="s">
         <v>253</v>
       </c>
       <c r="D38" s="111" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="109" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="B39" s="110"/>
       <c r="C39" s="110" t="s">
         <v>253</v>
       </c>
       <c r="D39" s="111" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="109" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="B40" s="110"/>
       <c r="C40" s="110" t="s">
         <v>253</v>
       </c>
       <c r="D40" s="111" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="109" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="B41" s="110" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="C41" s="110" t="s">
         <v>299</v>
       </c>
       <c r="D41" s="111" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="109" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="B42" s="110"/>
       <c r="C42" s="110" t="s">
         <v>253</v>
       </c>
       <c r="D42" s="111" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="109" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="B43" s="110"/>
       <c r="C43" s="110" t="s">
         <v>253</v>
       </c>
       <c r="D43" s="111" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="109" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="B44" s="110"/>
       <c r="C44" s="110" t="s">
         <v>253</v>
       </c>
       <c r="D44" s="111" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="109" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="B45" s="110"/>
       <c r="C45" s="110" t="s">
         <v>253</v>
       </c>
       <c r="D45" s="111" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="109" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="B46" s="110"/>
       <c r="C46" s="110" t="s">
         <v>253</v>
       </c>
       <c r="D46" s="111" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -12232,19 +12229,19 @@
         <v>256</v>
       </c>
       <c r="D47" s="111" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="109" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="B48" s="110"/>
       <c r="C48" s="110" t="s">
         <v>256</v>
       </c>
       <c r="D48" s="111" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -12256,7 +12253,7 @@
         <v>36</v>
       </c>
       <c r="D49" s="111" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -12268,7 +12265,7 @@
         <v>36</v>
       </c>
       <c r="D50" s="111" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -12280,19 +12277,19 @@
         <v>36</v>
       </c>
       <c r="D51" s="111" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="109" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="B52" s="110"/>
       <c r="C52" s="110" t="s">
         <v>36</v>
       </c>
       <c r="D52" s="111" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -12304,7 +12301,7 @@
         <v>36</v>
       </c>
       <c r="D53" s="111" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -12316,19 +12313,19 @@
         <v>36</v>
       </c>
       <c r="D54" s="111" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="109" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="B55" s="110"/>
       <c r="C55" s="110" t="s">
         <v>36</v>
       </c>
       <c r="D55" s="111" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -12340,7 +12337,7 @@
         <v>36</v>
       </c>
       <c r="D56" s="111" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -12352,7 +12349,7 @@
         <v>36</v>
       </c>
       <c r="D57" s="111" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -12364,19 +12361,19 @@
         <v>36</v>
       </c>
       <c r="D58" s="111" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="109" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="B59" s="110"/>
       <c r="C59" s="110" t="s">
         <v>36</v>
       </c>
       <c r="D59" s="111" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -12388,31 +12385,31 @@
         <v>265</v>
       </c>
       <c r="D60" s="111" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="109" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="B61" s="110"/>
       <c r="C61" s="110" t="s">
         <v>265</v>
       </c>
       <c r="D61" s="111" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="109" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="B62" s="110"/>
       <c r="C62" s="110" t="s">
         <v>265</v>
       </c>
       <c r="D62" s="111" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -12424,7 +12421,7 @@
         <v>265</v>
       </c>
       <c r="D63" s="111" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -12436,7 +12433,7 @@
         <v>265</v>
       </c>
       <c r="D64" s="111" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -12448,19 +12445,19 @@
         <v>265</v>
       </c>
       <c r="D65" s="111" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="109" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="B66" s="110"/>
       <c r="C66" s="110" t="s">
         <v>265</v>
       </c>
       <c r="D66" s="111" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -12472,43 +12469,43 @@
         <v>265</v>
       </c>
       <c r="D67" s="111" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="109" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="B68" s="110"/>
       <c r="C68" s="110" t="s">
         <v>265</v>
       </c>
       <c r="D68" s="111" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="109" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="B69" s="110"/>
       <c r="C69" s="110" t="s">
         <v>265</v>
       </c>
       <c r="D69" s="111" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="109" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="B70" s="110"/>
       <c r="C70" s="110" t="s">
         <v>265</v>
       </c>
       <c r="D70" s="111" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -12520,7 +12517,7 @@
         <v>265</v>
       </c>
       <c r="D71" s="111" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -12532,43 +12529,43 @@
         <v>265</v>
       </c>
       <c r="D72" s="111" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="109" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="B73" s="110"/>
       <c r="C73" s="110" t="s">
         <v>265</v>
       </c>
       <c r="D73" s="111" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="109" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="B74" s="110"/>
       <c r="C74" s="110" t="s">
         <v>265</v>
       </c>
       <c r="D74" s="111" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="109" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="B75" s="110"/>
       <c r="C75" s="110" t="s">
         <v>272</v>
       </c>
       <c r="D75" s="111" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -12580,7 +12577,7 @@
         <v>272</v>
       </c>
       <c r="D76" s="111" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -12592,43 +12589,43 @@
         <v>272</v>
       </c>
       <c r="D77" s="111" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="109" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="B78" s="110"/>
       <c r="C78" s="110" t="s">
         <v>272</v>
       </c>
       <c r="D78" s="111" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="109" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="B79" s="110"/>
       <c r="C79" s="110" t="s">
         <v>272</v>
       </c>
       <c r="D79" s="111" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="109" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="B80" s="110"/>
       <c r="C80" s="110" t="s">
         <v>275</v>
       </c>
       <c r="D80" s="111" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -12640,7 +12637,7 @@
         <v>277</v>
       </c>
       <c r="D81" s="111" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -12652,7 +12649,7 @@
         <v>277</v>
       </c>
       <c r="D82" s="111" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -12664,31 +12661,31 @@
         <v>277</v>
       </c>
       <c r="D83" s="111" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="109" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="B84" s="110"/>
       <c r="C84" s="110" t="s">
         <v>277</v>
       </c>
       <c r="D84" s="111" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="109" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="B85" s="110"/>
       <c r="C85" s="110" t="s">
         <v>277</v>
       </c>
       <c r="D85" s="111" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -12700,36 +12697,36 @@
         <v>277</v>
       </c>
       <c r="D86" s="111" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="109" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="B87" s="110"/>
       <c r="C87" s="110" t="s">
         <v>277</v>
       </c>
       <c r="D87" s="111" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="109" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="B88" s="110"/>
       <c r="C88" s="110" t="s">
         <v>281</v>
       </c>
       <c r="D88" s="111" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="109" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="B89" s="110" t="s">
         <v>398</v>
@@ -12738,272 +12735,272 @@
         <v>397</v>
       </c>
       <c r="D89" s="111" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="109" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="B90" s="110"/>
       <c r="C90" s="110" t="s">
         <v>282</v>
       </c>
       <c r="D90" s="111" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="109" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="B91" s="110"/>
       <c r="C91" s="110" t="s">
         <v>282</v>
       </c>
       <c r="D91" s="111" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="109" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="B92" s="110"/>
       <c r="C92" s="110" t="s">
         <v>282</v>
       </c>
       <c r="D92" s="111" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="109" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="B93" s="110"/>
       <c r="C93" s="114" t="s">
         <v>282</v>
       </c>
       <c r="D93" s="111" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="109" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="B94" s="110"/>
       <c r="C94" s="110" t="s">
         <v>282</v>
       </c>
       <c r="D94" s="111" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="109" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="B95" s="110"/>
       <c r="C95" s="110" t="s">
         <v>282</v>
       </c>
       <c r="D95" s="111" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="109" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="B96" s="110"/>
       <c r="C96" s="110" t="s">
         <v>282</v>
       </c>
       <c r="D96" s="111" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="109" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="B97" s="110"/>
       <c r="C97" s="110" t="s">
         <v>282</v>
       </c>
       <c r="D97" s="111" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="109" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="B98" s="110"/>
       <c r="C98" s="110" t="s">
         <v>282</v>
       </c>
       <c r="D98" s="111" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="109" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="B99" s="110"/>
       <c r="C99" s="110" t="s">
         <v>282</v>
       </c>
       <c r="D99" s="111" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="109" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="B100" s="110"/>
       <c r="C100" s="110" t="s">
         <v>282</v>
       </c>
       <c r="D100" s="111" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="109" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="B101" s="110"/>
       <c r="C101" s="110" t="s">
         <v>282</v>
       </c>
       <c r="D101" s="111" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="109" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="B102" s="110"/>
       <c r="C102" s="110" t="s">
         <v>282</v>
       </c>
       <c r="D102" s="111" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="109" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="B103" s="110"/>
       <c r="C103" s="114" t="s">
         <v>282</v>
       </c>
       <c r="D103" s="111" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="115" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="B104" s="116"/>
       <c r="C104" s="116" t="s">
         <v>282</v>
       </c>
       <c r="D104" s="117" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="E104" s="85"/>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="115" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="B105" s="116"/>
       <c r="C105" s="116" t="s">
         <v>282</v>
       </c>
       <c r="D105" s="117" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="115" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="B106" s="116"/>
       <c r="C106" s="116" t="s">
         <v>282</v>
       </c>
       <c r="D106" s="117" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="115" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B107" s="116"/>
       <c r="C107" s="116" t="s">
         <v>282</v>
       </c>
       <c r="D107" s="117" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="115" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="B108" s="116"/>
       <c r="C108" s="116" t="s">
         <v>282</v>
       </c>
       <c r="D108" s="117" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="115" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="B109" s="116"/>
       <c r="C109" s="116" t="s">
         <v>282</v>
       </c>
       <c r="D109" s="117" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="115" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="B110" s="116"/>
       <c r="C110" s="116" t="s">
         <v>282</v>
       </c>
       <c r="D110" s="117" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="115" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="B111" s="116"/>
       <c r="C111" s="116" t="s">
         <v>283</v>
       </c>
       <c r="D111" s="117" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -13015,43 +13012,43 @@
         <v>285</v>
       </c>
       <c r="D112" s="117" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="115" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="B113" s="116"/>
       <c r="C113" s="116" t="s">
         <v>285</v>
       </c>
       <c r="D113" s="117" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="115" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="B114" s="116"/>
       <c r="C114" s="116" t="s">
         <v>286</v>
       </c>
       <c r="D114" s="117" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="115" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="B115" s="116"/>
       <c r="C115" s="116" t="s">
         <v>286</v>
       </c>
       <c r="D115" s="117" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -13063,67 +13060,67 @@
         <v>288</v>
       </c>
       <c r="D116" s="117" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="115" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="B117" s="116"/>
       <c r="C117" s="116" t="s">
         <v>288</v>
       </c>
       <c r="D117" s="117" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="115" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="B118" s="116"/>
       <c r="C118" s="116" t="s">
         <v>289</v>
       </c>
       <c r="D118" s="117" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="115" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="B119" s="116"/>
       <c r="C119" s="116" t="s">
         <v>290</v>
       </c>
       <c r="D119" s="117" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="115" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="B120" s="116"/>
       <c r="C120" s="116" t="s">
         <v>291</v>
       </c>
       <c r="D120" s="117" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="115" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="B121" s="116"/>
       <c r="C121" s="116" t="s">
         <v>292</v>
       </c>
       <c r="D121" s="117" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -13135,7 +13132,7 @@
         <v>294</v>
       </c>
       <c r="D122" s="117" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -13147,19 +13144,19 @@
         <v>296</v>
       </c>
       <c r="D123" s="117" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="115" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="B124" s="116"/>
       <c r="C124" s="116" t="s">
         <v>297</v>
       </c>
       <c r="D124" s="117" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -13171,63 +13168,63 @@
         <v>297</v>
       </c>
       <c r="D125" s="117" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="115" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="B126" s="116"/>
       <c r="C126" s="116" t="s">
         <v>297</v>
       </c>
       <c r="D126" s="117" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="115" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="B127" s="116"/>
       <c r="C127" s="116" t="s">
         <v>299</v>
       </c>
       <c r="D127" s="117" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="115" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="B128" s="116"/>
       <c r="C128" s="116" t="s">
         <v>299</v>
       </c>
       <c r="D128" s="117" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="115" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="B129" s="116"/>
       <c r="C129" s="116" t="s">
         <v>300</v>
       </c>
       <c r="D129" s="117" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="115" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="B130" s="116" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="C130" s="116" t="s">
         <v>301</v>
@@ -13236,14 +13233,14 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="115" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="B131" s="116"/>
       <c r="C131" s="116" t="s">
         <v>301</v>
       </c>
       <c r="D131" s="117" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -13255,15 +13252,15 @@
         <v>301</v>
       </c>
       <c r="D132" s="117" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="115" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="B133" s="116" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="C133" s="116" t="s">
         <v>301</v>
@@ -13272,168 +13269,168 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="118" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="B134" s="119" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="C134" s="119" t="s">
         <v>301</v>
       </c>
       <c r="D134" s="117" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="115" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="B135" s="116"/>
       <c r="C135" s="116" t="s">
         <v>301</v>
       </c>
       <c r="D135" s="117" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="115" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="B136" s="116"/>
       <c r="C136" s="116" t="s">
         <v>301</v>
       </c>
       <c r="D136" s="117" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="115" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="B137" s="116"/>
       <c r="C137" s="116" t="s">
         <v>303</v>
       </c>
       <c r="D137" s="117" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="115" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="B138" s="116"/>
       <c r="C138" s="119" t="s">
         <v>304</v>
       </c>
       <c r="D138" s="117" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="115" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="B139" s="116" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="C139" s="116" t="s">
         <v>305</v>
       </c>
       <c r="D139" s="117" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="115" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="B140" s="116" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="C140" s="116" t="s">
         <v>305</v>
       </c>
       <c r="D140" s="117" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="115" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="B141" s="116" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="C141" s="116" t="s">
         <v>305</v>
       </c>
       <c r="D141" s="117" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="115" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="B142" s="116" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="C142" s="116" t="s">
         <v>305</v>
       </c>
       <c r="D142" s="117" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="115" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="B143" s="116"/>
       <c r="C143" s="116" t="s">
         <v>305</v>
       </c>
       <c r="D143" s="117" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="115" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="B144" s="116"/>
       <c r="C144" s="116" t="s">
         <v>306</v>
       </c>
       <c r="D144" s="117" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="115" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="B145" s="116"/>
       <c r="C145" s="116" t="s">
         <v>307</v>
       </c>
       <c r="D145" s="117" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="120" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="B146" s="121"/>
       <c r="C146" s="121" t="s">
         <v>307</v>
       </c>
       <c r="D146" s="122" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
     </row>
   </sheetData>
@@ -13471,7 +13468,7 @@
         <v>1185</v>
       </c>
       <c r="C1" s="128" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="D1" s="128" t="s">
         <v>1186</v>
@@ -13480,19 +13477,19 @@
         <v>1187</v>
       </c>
       <c r="F1" s="128" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="G1" s="128" t="s">
         <v>1188</v>
       </c>
       <c r="H1" s="128" t="s">
+        <v>1228</v>
+      </c>
+      <c r="I1" s="128" t="s">
         <v>1229</v>
       </c>
-      <c r="I1" s="128" t="s">
+      <c r="J1" s="128" t="s">
         <v>1230</v>
-      </c>
-      <c r="J1" s="128" t="s">
-        <v>1231</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -13504,7 +13501,7 @@
       </c>
       <c r="C2" s="42"/>
       <c r="D2" s="42" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="E2" s="42" t="s">
         <v>31</v>
@@ -13514,7 +13511,7 @@
         <v>1191</v>
       </c>
       <c r="H2" s="42" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="I2" s="42">
         <v>50</v>
@@ -13532,7 +13529,7 @@
       </c>
       <c r="C3" s="42"/>
       <c r="D3" s="42" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="E3" s="42" t="s">
         <v>31</v>
@@ -13542,10 +13539,10 @@
         <v>1194</v>
       </c>
       <c r="H3" s="42" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="I3" s="42" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="J3" s="42">
         <v>3000</v>
@@ -13560,17 +13557,17 @@
       </c>
       <c r="C4" s="42"/>
       <c r="D4" s="42" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="E4" s="42" t="s">
         <v>31</v>
       </c>
       <c r="F4" s="42"/>
       <c r="G4" s="42" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="H4" s="42" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="I4" s="42">
         <v>0</v>
@@ -13584,11 +13581,11 @@
         <v>4</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="C5" s="42"/>
       <c r="D5" s="42" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="E5" s="42" t="s">
         <v>31</v>
@@ -13612,11 +13609,11 @@
         <v>5</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="C6" s="42"/>
       <c r="D6" s="42" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="E6" s="42" t="s">
         <v>31</v>
@@ -13640,25 +13637,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>1260</v>
+        <v>1554</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="E7" s="42" t="s">
         <v>31</v>
       </c>
       <c r="F7" s="42" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="G7" s="42" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="H7" s="42" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="I7" s="42">
         <v>0</v>
@@ -13672,23 +13669,23 @@
         <v>7</v>
       </c>
       <c r="B8" s="42" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D8" s="42" t="s">
         <v>1262</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>1263</v>
-      </c>
-      <c r="D8" s="42" t="s">
-        <v>1264</v>
       </c>
       <c r="E8" s="42" t="s">
         <v>31</v>
       </c>
       <c r="F8" s="42"/>
       <c r="G8" s="42" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="H8" s="42" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="I8" s="42">
         <v>0</v>
@@ -13702,23 +13699,23 @@
         <v>8</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="E9" s="42" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="F9" s="42"/>
       <c r="G9" s="42" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="H9" s="42" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="I9" s="42">
         <v>0</v>
@@ -13736,17 +13733,17 @@
       </c>
       <c r="C10" s="92"/>
       <c r="D10" s="92" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="E10" s="92" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="F10" s="99"/>
       <c r="G10" s="92" t="s">
         <v>32</v>
       </c>
       <c r="H10" s="92" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="I10" s="92">
         <v>0</v>
@@ -13758,30 +13755,30 @@
         <v>10</v>
       </c>
       <c r="B11" s="96" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C11" s="96"/>
       <c r="D11" s="96" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="E11" s="96" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="F11" s="96" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="G11" s="96" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="H11" s="96" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="I11" s="96">
         <v>0</v>
       </c>
       <c r="J11" s="96"/>
       <c r="K11" s="136" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -13789,30 +13786,30 @@
         <v>11</v>
       </c>
       <c r="B12" s="96" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="C12" s="96"/>
       <c r="D12" s="96" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="E12" s="96" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="F12" s="97" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="G12" s="96" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="H12" s="97" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="I12" s="97">
         <v>0</v>
       </c>
       <c r="J12" s="97"/>
       <c r="K12" s="136" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -13824,24 +13821,24 @@
       </c>
       <c r="C13" s="96"/>
       <c r="D13" s="96" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="E13" s="96" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="F13" s="96"/>
       <c r="G13" s="96" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="H13" s="97" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="I13" s="96">
         <v>0</v>
       </c>
       <c r="J13" s="96"/>
       <c r="K13" s="136" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -13849,23 +13846,23 @@
         <v>13</v>
       </c>
       <c r="B14" s="94" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="C14" s="94" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="D14" s="94" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="E14" s="94" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="F14" s="94"/>
       <c r="G14" s="94" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="H14" s="100" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="I14" s="94">
         <v>0</v>
@@ -13879,23 +13876,23 @@
         <v>14</v>
       </c>
       <c r="B15" s="92" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="C15" s="92" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="D15" s="92" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="E15" s="92" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="F15" s="93"/>
       <c r="G15" s="92" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="H15" s="93" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="I15" s="92">
         <v>0</v>
@@ -13913,24 +13910,24 @@
       </c>
       <c r="C16" s="96"/>
       <c r="D16" s="96" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="E16" s="96" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="F16" s="97"/>
       <c r="G16" s="96" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="H16" s="96" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="I16" s="96">
         <v>0</v>
       </c>
       <c r="J16" s="96"/>
       <c r="K16" s="136" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -13942,24 +13939,24 @@
       </c>
       <c r="C17" s="96"/>
       <c r="D17" s="96" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="E17" s="96" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="F17" s="97"/>
       <c r="G17" s="96" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="H17" s="96" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="I17" s="96">
         <v>0</v>
       </c>
       <c r="J17" s="98"/>
       <c r="K17" s="136" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -13971,24 +13968,24 @@
       </c>
       <c r="C18" s="96"/>
       <c r="D18" s="96" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="E18" s="96" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="F18" s="96"/>
       <c r="G18" s="96" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="H18" s="96" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="I18" s="96">
         <v>0</v>
       </c>
       <c r="J18" s="98"/>
       <c r="K18" s="136" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -14000,7 +13997,7 @@
       </c>
       <c r="C19" s="94"/>
       <c r="D19" s="94" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="E19" s="94" t="s">
         <v>31</v>
@@ -14028,7 +14025,7 @@
       </c>
       <c r="C20" s="42"/>
       <c r="D20" s="42" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="E20" s="42" t="s">
         <v>31</v>
@@ -14056,14 +14053,14 @@
       </c>
       <c r="C21" s="42"/>
       <c r="D21" s="42" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="E21" s="42" t="s">
         <v>31</v>
       </c>
       <c r="F21" s="42"/>
       <c r="G21" s="42" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="H21" s="42" t="s">
         <v>1192</v>
@@ -14084,7 +14081,7 @@
       </c>
       <c r="C22" s="42"/>
       <c r="D22" s="42" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="E22" s="42" t="s">
         <v>31</v>
@@ -14112,7 +14109,7 @@
       </c>
       <c r="C23" s="42"/>
       <c r="D23" s="42" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="E23" s="42" t="s">
         <v>31</v>
@@ -14140,14 +14137,14 @@
       </c>
       <c r="C24" s="42"/>
       <c r="D24" s="42" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="E24" s="42" t="s">
         <v>31</v>
       </c>
       <c r="F24" s="42"/>
       <c r="G24" s="42" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="H24" s="42" t="s">
         <v>1192</v>
@@ -14168,14 +14165,14 @@
       </c>
       <c r="C25" s="42"/>
       <c r="D25" s="42" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="E25" s="42" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="F25" s="42"/>
       <c r="G25" s="42" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="H25" s="42" t="s">
         <v>1192</v>
@@ -14196,14 +14193,14 @@
       </c>
       <c r="C26" s="44"/>
       <c r="D26" s="44" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="E26" s="44" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="F26" s="44"/>
       <c r="G26" s="44" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="H26" s="44" t="s">
         <v>1192</v>
@@ -14220,28 +14217,28 @@
         <v>26</v>
       </c>
       <c r="B27" s="101" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="C27" s="101"/>
       <c r="D27" s="101" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="E27" s="101" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="F27" s="101"/>
       <c r="G27" s="101" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="H27" s="101" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="I27" s="101">
         <v>0</v>
       </c>
       <c r="J27" s="101"/>
       <c r="K27" s="136" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -14249,25 +14246,25 @@
         <v>27</v>
       </c>
       <c r="B28" s="106" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="C28" s="106" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="D28" s="106" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="E28" s="106" t="s">
         <v>31</v>
       </c>
       <c r="F28" s="106" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="G28" s="106" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="H28" s="106" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="I28" s="106">
         <v>0</v>
@@ -14281,23 +14278,23 @@
         <v>28</v>
       </c>
       <c r="B29" s="106" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="C29" s="106" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="D29" s="106" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="E29" s="106" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="F29" s="106"/>
       <c r="G29" s="106" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="H29" s="106" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="I29" s="106">
         <v>0</v>
@@ -14341,7 +14338,7 @@
         <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -14389,7 +14386,7 @@
         <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -14397,7 +14394,7 @@
         <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -14413,7 +14410,7 @@
         <v>53</v>
       </c>
       <c r="B11" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -14421,7 +14418,7 @@
         <v>54</v>
       </c>
       <c r="B12" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -14429,23 +14426,23 @@
         <v>456</v>
       </c>
       <c r="B13" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B14" t="s">
         <v>1209</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1210</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="B15" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -14453,15 +14450,15 @@
         <v>595</v>
       </c>
       <c r="B16" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B17" t="s">
         <v>1213</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1214</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -14469,23 +14466,23 @@
         <v>431</v>
       </c>
       <c r="B18" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B19" t="s">
         <v>1216</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1217</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B20" t="s">
         <v>1218</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1219</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -14493,31 +14490,31 @@
         <v>1191</v>
       </c>
       <c r="B21" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B22" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="36" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="B23" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -14525,15 +14522,15 @@
         <v>1194</v>
       </c>
       <c r="B25" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="B26" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
     </row>
   </sheetData>
@@ -25503,7 +25500,7 @@
         <v>59</v>
       </c>
       <c r="C2" s="132" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="63.75" customHeight="1">
@@ -25511,10 +25508,10 @@
         <v>409</v>
       </c>
       <c r="B3" s="130" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="C3" s="130" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="45">
@@ -25525,35 +25522,35 @@
         <v>60</v>
       </c>
       <c r="C4" s="130" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="45">
       <c r="A5" s="131" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B5" s="131" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C5" s="131" t="s">
         <v>1542</v>
       </c>
-      <c r="B5" s="131" t="s">
-        <v>1543</v>
-      </c>
-      <c r="C5" s="131" t="s">
-        <v>1544</v>
-      </c>
       <c r="D5" s="133" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30">
       <c r="A6" s="131" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B6" s="131" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C6" s="131" t="s">
         <v>1545</v>
       </c>
-      <c r="B6" s="131" t="s">
-        <v>1546</v>
-      </c>
-      <c r="C6" s="131" t="s">
-        <v>1547</v>
-      </c>
       <c r="D6" s="133" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -25561,13 +25558,13 @@
         <v>63</v>
       </c>
       <c r="B7" s="131" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="C7" s="131" t="s">
+        <v>1547</v>
+      </c>
+      <c r="D7" s="133" t="s">
         <v>1549</v>
-      </c>
-      <c r="D7" s="133" t="s">
-        <v>1551</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30">
@@ -25575,13 +25572,13 @@
         <v>436</v>
       </c>
       <c r="B8" s="134" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="C8" s="134" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="D8" s="135" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -25592,7 +25589,7 @@
         <v>62</v>
       </c>
       <c r="C9" s="132" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
     </row>
   </sheetData>
@@ -25668,7 +25665,7 @@
         <v>73</v>
       </c>
       <c r="C6" s="105" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="D6" s="74"/>
     </row>
@@ -26293,7 +26290,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="75" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="B1" s="76" t="s">
         <v>74</v>
@@ -26323,13 +26320,13 @@
         <v>82</v>
       </c>
       <c r="K1" s="76" t="s">
+        <v>1335</v>
+      </c>
+      <c r="L1" s="76" t="s">
+        <v>1336</v>
+      </c>
+      <c r="M1" s="76" t="s">
         <v>1337</v>
-      </c>
-      <c r="L1" s="76" t="s">
-        <v>1338</v>
-      </c>
-      <c r="M1" s="76" t="s">
-        <v>1339</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -26355,10 +26352,10 @@
         <v>411</v>
       </c>
       <c r="H2" s="75" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="I2" s="75" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="J2" s="78" t="s">
         <v>180</v>
@@ -26387,10 +26384,10 @@
         <v>224</v>
       </c>
       <c r="G3" s="75" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="H3" s="75" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="I3" s="75" t="s">
         <v>225</v>
@@ -26428,10 +26425,10 @@
         <v>411</v>
       </c>
       <c r="H4" s="75" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="I4" s="75" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="J4" s="78" t="s">
         <v>172</v>
@@ -26469,10 +26466,10 @@
         <v>411</v>
       </c>
       <c r="H5" s="75" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="I5" s="75" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="J5" s="78" t="s">
         <v>179</v>
@@ -26510,10 +26507,10 @@
         <v>411</v>
       </c>
       <c r="H6" s="75" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="I6" s="75" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="J6" s="78" t="s">
         <v>163</v>
@@ -26545,10 +26542,10 @@
         <v>411</v>
       </c>
       <c r="H7" s="75" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="I7" s="75" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="J7" s="78" t="s">
         <v>162</v>
@@ -26583,10 +26580,10 @@
         <v>411</v>
       </c>
       <c r="H8" s="75" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="I8" s="75" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="J8" s="78" t="s">
         <v>174</v>
@@ -26621,10 +26618,10 @@
         <v>411</v>
       </c>
       <c r="H9" s="75" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="I9" s="75" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="J9" s="78" t="s">
         <v>175</v>
@@ -26656,10 +26653,10 @@
         <v>411</v>
       </c>
       <c r="H10" s="75" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="I10" s="75" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="J10" s="78" t="s">
         <v>164</v>
@@ -26688,10 +26685,10 @@
         <v>224</v>
       </c>
       <c r="G11" s="75" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="H11" s="75" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="I11" s="75" t="s">
         <v>225</v>
@@ -26726,10 +26723,10 @@
         <v>411</v>
       </c>
       <c r="H12" s="75" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="I12" s="75" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="J12" s="78" t="s">
         <v>181</v>
@@ -26758,13 +26755,13 @@
         <v>85</v>
       </c>
       <c r="G13" s="75" t="s">
+        <v>1347</v>
+      </c>
+      <c r="H13" s="75" t="s">
+        <v>1348</v>
+      </c>
+      <c r="I13" s="75" t="s">
         <v>1349</v>
-      </c>
-      <c r="H13" s="75" t="s">
-        <v>1350</v>
-      </c>
-      <c r="I13" s="75" t="s">
-        <v>1351</v>
       </c>
       <c r="J13" s="78" t="s">
         <v>186</v>
@@ -26796,10 +26793,10 @@
         <v>411</v>
       </c>
       <c r="H14" s="75" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="I14" s="75" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="J14" s="78" t="s">
         <v>171</v>
@@ -26831,10 +26828,10 @@
         <v>411</v>
       </c>
       <c r="H15" s="75" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="I15" s="75" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="J15" s="78" t="s">
         <v>165</v>
@@ -26866,10 +26863,10 @@
         <v>451</v>
       </c>
       <c r="H16" s="75" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="I16" s="75" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="J16" s="78" t="s">
         <v>129</v>
@@ -26901,10 +26898,10 @@
         <v>411</v>
       </c>
       <c r="H17" s="75" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="I17" s="75" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="J17" s="78" t="s">
         <v>166</v>
@@ -26933,13 +26930,13 @@
         <v>85</v>
       </c>
       <c r="G18" s="75" t="s">
+        <v>1347</v>
+      </c>
+      <c r="H18" s="75" t="s">
+        <v>1348</v>
+      </c>
+      <c r="I18" s="75" t="s">
         <v>1349</v>
-      </c>
-      <c r="H18" s="75" t="s">
-        <v>1350</v>
-      </c>
-      <c r="I18" s="75" t="s">
-        <v>1351</v>
       </c>
       <c r="J18" s="78" t="s">
         <v>184</v>
@@ -26968,13 +26965,13 @@
         <v>215</v>
       </c>
       <c r="G19" s="75" t="s">
+        <v>1353</v>
+      </c>
+      <c r="H19" s="75" t="s">
+        <v>1354</v>
+      </c>
+      <c r="I19" s="75" t="s">
         <v>1355</v>
-      </c>
-      <c r="H19" s="75" t="s">
-        <v>1356</v>
-      </c>
-      <c r="I19" s="75" t="s">
-        <v>1357</v>
       </c>
       <c r="J19" s="78" t="s">
         <v>222</v>
@@ -27006,10 +27003,10 @@
         <v>411</v>
       </c>
       <c r="H20" s="75" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="I20" s="75" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="J20" s="78" t="s">
         <v>182</v>
@@ -27038,10 +27035,10 @@
         <v>85</v>
       </c>
       <c r="G21" s="75" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="H21" s="75" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="I21" s="75" t="s">
         <v>212</v>
@@ -27073,13 +27070,13 @@
         <v>224</v>
       </c>
       <c r="G22" s="75" t="s">
+        <v>1357</v>
+      </c>
+      <c r="H22" s="75" t="s">
+        <v>1358</v>
+      </c>
+      <c r="I22" s="75" t="s">
         <v>1359</v>
-      </c>
-      <c r="H22" s="75" t="s">
-        <v>1360</v>
-      </c>
-      <c r="I22" s="75" t="s">
-        <v>1361</v>
       </c>
       <c r="J22" s="78" t="s">
         <v>229</v>
@@ -27108,13 +27105,13 @@
         <v>224</v>
       </c>
       <c r="G23" s="75" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="H23" s="75" t="s">
+        <v>1358</v>
+      </c>
+      <c r="I23" s="75" t="s">
         <v>1360</v>
-      </c>
-      <c r="I23" s="75" t="s">
-        <v>1362</v>
       </c>
       <c r="J23" s="78" t="s">
         <v>235</v>
@@ -27146,10 +27143,10 @@
         <v>411</v>
       </c>
       <c r="H24" s="75" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="I24" s="75" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="J24" s="78" t="s">
         <v>176</v>
@@ -27181,10 +27178,10 @@
         <v>411</v>
       </c>
       <c r="H25" s="75" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="I25" s="75" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="J25" s="78" t="s">
         <v>177</v>
@@ -27216,10 +27213,10 @@
         <v>411</v>
       </c>
       <c r="H26" s="75" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="I26" s="75" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="J26" s="78" t="s">
         <v>178</v>
@@ -27248,13 +27245,13 @@
         <v>85</v>
       </c>
       <c r="G27" s="75" t="s">
+        <v>1347</v>
+      </c>
+      <c r="H27" s="75" t="s">
+        <v>1348</v>
+      </c>
+      <c r="I27" s="75" t="s">
         <v>1349</v>
-      </c>
-      <c r="H27" s="75" t="s">
-        <v>1350</v>
-      </c>
-      <c r="I27" s="75" t="s">
-        <v>1351</v>
       </c>
       <c r="J27" s="78" t="s">
         <v>183</v>
@@ -27283,13 +27280,13 @@
         <v>85</v>
       </c>
       <c r="G28" s="75" t="s">
+        <v>1347</v>
+      </c>
+      <c r="H28" s="75" t="s">
+        <v>1348</v>
+      </c>
+      <c r="I28" s="75" t="s">
         <v>1349</v>
-      </c>
-      <c r="H28" s="75" t="s">
-        <v>1350</v>
-      </c>
-      <c r="I28" s="75" t="s">
-        <v>1351</v>
       </c>
       <c r="J28" s="78" t="s">
         <v>185</v>
@@ -27318,13 +27315,13 @@
         <v>215</v>
       </c>
       <c r="G29" s="75" t="s">
+        <v>1362</v>
+      </c>
+      <c r="H29" s="75" t="s">
+        <v>1363</v>
+      </c>
+      <c r="I29" s="75" t="s">
         <v>1364</v>
-      </c>
-      <c r="H29" s="75" t="s">
-        <v>1365</v>
-      </c>
-      <c r="I29" s="75" t="s">
-        <v>1366</v>
       </c>
       <c r="J29" s="78" t="s">
         <v>214</v>
@@ -27353,13 +27350,13 @@
         <v>85</v>
       </c>
       <c r="G30" s="75" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="H30" s="75" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="I30" s="75" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="J30" s="78" t="s">
         <v>190</v>
@@ -27388,13 +27385,13 @@
         <v>85</v>
       </c>
       <c r="G31" s="75" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="H31" s="75" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="I31" s="75" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="J31" s="78" t="s">
         <v>193</v>
@@ -27426,10 +27423,10 @@
         <v>451</v>
       </c>
       <c r="H32" s="75" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="I32" s="75" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="J32" s="78" t="s">
         <v>126</v>
@@ -27461,10 +27458,10 @@
         <v>451</v>
       </c>
       <c r="H33" s="75" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="I33" s="75" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="J33" s="78" t="s">
         <v>161</v>
@@ -27493,13 +27490,13 @@
         <v>224</v>
       </c>
       <c r="G34" s="75" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="H34" s="75" t="s">
+        <v>1358</v>
+      </c>
+      <c r="I34" s="75" t="s">
         <v>1360</v>
-      </c>
-      <c r="I34" s="75" t="s">
-        <v>1362</v>
       </c>
       <c r="J34" s="78" t="s">
         <v>236</v>
@@ -27528,13 +27525,13 @@
         <v>224</v>
       </c>
       <c r="G35" s="75" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="H35" s="75" t="s">
+        <v>1358</v>
+      </c>
+      <c r="I35" s="75" t="s">
         <v>1360</v>
-      </c>
-      <c r="I35" s="75" t="s">
-        <v>1362</v>
       </c>
       <c r="J35" s="78" t="s">
         <v>232</v>
@@ -27563,13 +27560,13 @@
         <v>224</v>
       </c>
       <c r="G36" s="75" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="H36" s="75" t="s">
+        <v>1358</v>
+      </c>
+      <c r="I36" s="75" t="s">
         <v>1360</v>
-      </c>
-      <c r="I36" s="75" t="s">
-        <v>1362</v>
       </c>
       <c r="J36" s="78" t="s">
         <v>231</v>
@@ -27598,13 +27595,13 @@
         <v>85</v>
       </c>
       <c r="G37" s="75" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="H37" s="75" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="I37" s="75" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="J37" s="78" t="s">
         <v>187</v>
@@ -27633,13 +27630,13 @@
         <v>215</v>
       </c>
       <c r="G38" s="75" t="s">
+        <v>1362</v>
+      </c>
+      <c r="H38" s="75" t="s">
+        <v>1363</v>
+      </c>
+      <c r="I38" s="75" t="s">
         <v>1364</v>
-      </c>
-      <c r="H38" s="75" t="s">
-        <v>1365</v>
-      </c>
-      <c r="I38" s="75" t="s">
-        <v>1366</v>
       </c>
       <c r="J38" s="78" t="s">
         <v>216</v>
@@ -27668,13 +27665,13 @@
         <v>224</v>
       </c>
       <c r="G39" s="75" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="H39" s="75" t="s">
+        <v>1358</v>
+      </c>
+      <c r="I39" s="75" t="s">
         <v>1360</v>
-      </c>
-      <c r="I39" s="75" t="s">
-        <v>1362</v>
       </c>
       <c r="J39" s="78" t="s">
         <v>233</v>
@@ -27703,13 +27700,13 @@
         <v>85</v>
       </c>
       <c r="G40" s="75" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="H40" s="75" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="I40" s="75" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="J40" s="78" t="s">
         <v>188</v>
@@ -27738,13 +27735,13 @@
         <v>224</v>
       </c>
       <c r="G41" s="75" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="H41" s="75" t="s">
+        <v>1358</v>
+      </c>
+      <c r="I41" s="75" t="s">
         <v>1360</v>
-      </c>
-      <c r="I41" s="75" t="s">
-        <v>1362</v>
       </c>
       <c r="J41" s="78" t="s">
         <v>234</v>
@@ -27773,13 +27770,13 @@
         <v>224</v>
       </c>
       <c r="G42" s="75" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="H42" s="75" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="I42" s="75" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="J42" s="78" t="s">
         <v>239</v>
@@ -27808,13 +27805,13 @@
         <v>215</v>
       </c>
       <c r="G43" s="75" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="H43" s="75" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="I43" s="75" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="J43" s="78" t="s">
         <v>220</v>
@@ -27843,13 +27840,13 @@
         <v>85</v>
       </c>
       <c r="G44" s="75" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="H44" s="75" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="I44" s="75" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="J44" s="78" t="s">
         <v>189</v>
@@ -27878,13 +27875,13 @@
         <v>224</v>
       </c>
       <c r="G45" s="75" t="s">
+        <v>1357</v>
+      </c>
+      <c r="H45" s="75" t="s">
+        <v>1358</v>
+      </c>
+      <c r="I45" s="75" t="s">
         <v>1359</v>
-      </c>
-      <c r="H45" s="75" t="s">
-        <v>1360</v>
-      </c>
-      <c r="I45" s="75" t="s">
-        <v>1361</v>
       </c>
       <c r="J45" s="78" t="s">
         <v>228</v>
@@ -27916,10 +27913,10 @@
         <v>411</v>
       </c>
       <c r="H46" s="75" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="I46" s="75" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="J46" s="78" t="s">
         <v>170</v>
@@ -27948,13 +27945,13 @@
         <v>85</v>
       </c>
       <c r="G47" s="75" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="H47" s="75" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="I47" s="75" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="J47" s="78" t="s">
         <v>191</v>
@@ -27986,10 +27983,10 @@
         <v>411</v>
       </c>
       <c r="H48" s="75" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="I48" s="75" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="J48" s="78" t="s">
         <v>173</v>
@@ -28021,10 +28018,10 @@
         <v>451</v>
       </c>
       <c r="H49" s="75" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="I49" s="75" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="J49" s="78" t="s">
         <v>144</v>
@@ -28053,13 +28050,13 @@
         <v>224</v>
       </c>
       <c r="G50" s="75" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="H50" s="75" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="I50" s="75" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="J50" s="78" t="s">
         <v>238</v>
@@ -28088,13 +28085,13 @@
         <v>224</v>
       </c>
       <c r="G51" s="75" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="H51" s="75" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="I51" s="75" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="J51" s="78" t="s">
         <v>237</v>
@@ -28123,13 +28120,13 @@
         <v>215</v>
       </c>
       <c r="G52" s="75" t="s">
+        <v>1353</v>
+      </c>
+      <c r="H52" s="75" t="s">
+        <v>1354</v>
+      </c>
+      <c r="I52" s="75" t="s">
         <v>1355</v>
-      </c>
-      <c r="H52" s="75" t="s">
-        <v>1356</v>
-      </c>
-      <c r="I52" s="75" t="s">
-        <v>1357</v>
       </c>
       <c r="J52" s="78" t="s">
         <v>221</v>
@@ -28161,10 +28158,10 @@
         <v>411</v>
       </c>
       <c r="H53" s="75" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="I53" s="75" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="J53" s="78" t="s">
         <v>167</v>
@@ -28193,13 +28190,13 @@
         <v>224</v>
       </c>
       <c r="G54" s="75" t="s">
+        <v>1357</v>
+      </c>
+      <c r="H54" s="75" t="s">
+        <v>1358</v>
+      </c>
+      <c r="I54" s="75" t="s">
         <v>1359</v>
-      </c>
-      <c r="H54" s="75" t="s">
-        <v>1360</v>
-      </c>
-      <c r="I54" s="75" t="s">
-        <v>1361</v>
       </c>
       <c r="J54" s="78" t="s">
         <v>227</v>
@@ -28228,13 +28225,13 @@
         <v>85</v>
       </c>
       <c r="G55" s="75" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="H55" s="75" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="I55" s="75" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="J55" s="78" t="s">
         <v>196</v>
@@ -28266,10 +28263,10 @@
         <v>411</v>
       </c>
       <c r="H56" s="75" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="I56" s="75" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="J56" s="78" t="s">
         <v>168</v>
@@ -28298,10 +28295,10 @@
         <v>85</v>
       </c>
       <c r="G57" s="75" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="H57" s="75" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="I57" s="75" t="s">
         <v>203</v>
@@ -28336,10 +28333,10 @@
         <v>411</v>
       </c>
       <c r="H58" s="75" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="I58" s="75" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="J58" s="78" t="s">
         <v>169</v>
@@ -28368,10 +28365,10 @@
         <v>85</v>
       </c>
       <c r="G59" s="75" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="H59" s="75" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="I59" s="75" t="s">
         <v>203</v>
@@ -28406,10 +28403,10 @@
         <v>451</v>
       </c>
       <c r="H60" s="75" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="I60" s="75" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="J60" s="78" t="s">
         <v>95</v>
@@ -28441,10 +28438,10 @@
         <v>451</v>
       </c>
       <c r="H61" s="75" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="I61" s="75" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="J61" s="78" t="s">
         <v>97</v>
@@ -28476,10 +28473,10 @@
         <v>451</v>
       </c>
       <c r="H62" s="75" t="s">
+        <v>1373</v>
+      </c>
+      <c r="I62" s="75" t="s">
         <v>1375</v>
-      </c>
-      <c r="I62" s="75" t="s">
-        <v>1377</v>
       </c>
       <c r="J62" s="78" t="s">
         <v>99</v>
@@ -28511,10 +28508,10 @@
         <v>451</v>
       </c>
       <c r="H63" s="75" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="I63" s="75" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="J63" s="78" t="s">
         <v>98</v>
@@ -28546,10 +28543,10 @@
         <v>451</v>
       </c>
       <c r="H64" s="75" t="s">
+        <v>1373</v>
+      </c>
+      <c r="I64" s="75" t="s">
         <v>1375</v>
-      </c>
-      <c r="I64" s="75" t="s">
-        <v>1377</v>
       </c>
       <c r="J64" s="78" t="s">
         <v>100</v>
@@ -28578,13 +28575,13 @@
         <v>224</v>
       </c>
       <c r="G65" s="75" t="s">
+        <v>1357</v>
+      </c>
+      <c r="H65" s="75" t="s">
+        <v>1358</v>
+      </c>
+      <c r="I65" s="75" t="s">
         <v>1359</v>
-      </c>
-      <c r="H65" s="75" t="s">
-        <v>1360</v>
-      </c>
-      <c r="I65" s="75" t="s">
-        <v>1361</v>
       </c>
       <c r="J65" s="78" t="s">
         <v>230</v>
@@ -28613,13 +28610,13 @@
         <v>85</v>
       </c>
       <c r="G66" s="75" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="H66" s="75" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="I66" s="75" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="J66" s="78" t="s">
         <v>192</v>
@@ -28648,13 +28645,13 @@
         <v>215</v>
       </c>
       <c r="G67" s="75" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="H67" s="75" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="I67" s="75" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="J67" s="78" t="s">
         <v>218</v>
@@ -28683,13 +28680,13 @@
         <v>215</v>
       </c>
       <c r="G68" s="75" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="H68" s="75" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="I68" s="75" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="J68" s="78" t="s">
         <v>217</v>
@@ -28718,13 +28715,13 @@
         <v>215</v>
       </c>
       <c r="G69" s="75" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="H69" s="75" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="I69" s="75" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="J69" s="78" t="s">
         <v>219</v>
@@ -28753,13 +28750,13 @@
         <v>85</v>
       </c>
       <c r="G70" s="75" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="H70" s="75" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="I70" s="75" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="J70" s="78" t="s">
         <v>200</v>
@@ -28791,10 +28788,10 @@
         <v>451</v>
       </c>
       <c r="H71" s="75" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="I71" s="75" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="J71" s="78" t="s">
         <v>104</v>
@@ -28826,10 +28823,10 @@
         <v>451</v>
       </c>
       <c r="H72" s="75" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="I72" s="75" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="J72" s="78" t="s">
         <v>106</v>
@@ -28858,13 +28855,13 @@
         <v>85</v>
       </c>
       <c r="G73" s="75" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="H73" s="75" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="I73" s="75" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="J73" s="78" t="s">
         <v>194</v>
@@ -28893,13 +28890,13 @@
         <v>85</v>
       </c>
       <c r="G74" s="75" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="H74" s="75" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="I74" s="75" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="J74" s="78" t="s">
         <v>197</v>
@@ -28928,13 +28925,13 @@
         <v>85</v>
       </c>
       <c r="G75" s="75" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="H75" s="75" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="I75" s="75" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="J75" s="78" t="s">
         <v>198</v>
@@ -28963,13 +28960,13 @@
         <v>85</v>
       </c>
       <c r="G76" s="75" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="H76" s="75" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="I76" s="75" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="J76" s="78" t="s">
         <v>201</v>
@@ -28998,13 +28995,13 @@
         <v>85</v>
       </c>
       <c r="G77" s="75" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="H77" s="75" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="I77" s="75" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="J77" s="78" t="s">
         <v>199</v>
@@ -29036,10 +29033,10 @@
         <v>451</v>
       </c>
       <c r="H78" s="75" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="I78" s="75" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="J78" s="78" t="s">
         <v>156</v>
@@ -29071,10 +29068,10 @@
         <v>451</v>
       </c>
       <c r="H79" s="75" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="I79" s="75" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="J79" s="78" t="s">
         <v>127</v>
@@ -29103,10 +29100,10 @@
         <v>85</v>
       </c>
       <c r="G80" s="75" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="H80" s="75" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="I80" s="75" t="s">
         <v>209</v>
@@ -29141,10 +29138,10 @@
         <v>451</v>
       </c>
       <c r="H81" s="75" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="I81" s="75" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="J81" s="78" t="s">
         <v>160</v>
@@ -29176,10 +29173,10 @@
         <v>451</v>
       </c>
       <c r="H82" s="75" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="I82" s="75" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="J82" s="78" t="s">
         <v>157</v>
@@ -29211,10 +29208,10 @@
         <v>451</v>
       </c>
       <c r="H83" s="75" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="I83" s="75" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="J83" s="78" t="s">
         <v>159</v>
@@ -29243,13 +29240,13 @@
         <v>85</v>
       </c>
       <c r="G84" s="75" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="H84" s="75" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="I84" s="75" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="J84" s="78" t="s">
         <v>195</v>
@@ -29281,10 +29278,10 @@
         <v>451</v>
       </c>
       <c r="H85" s="75" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="I85" s="75" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="J85" s="78" t="s">
         <v>153</v>
@@ -29316,10 +29313,10 @@
         <v>451</v>
       </c>
       <c r="H86" s="75" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="I86" s="75" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="J86" s="78" t="s">
         <v>152</v>
@@ -29351,10 +29348,10 @@
         <v>451</v>
       </c>
       <c r="H87" s="75" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="I87" s="75" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="J87" s="78" t="s">
         <v>150</v>
@@ -29386,10 +29383,10 @@
         <v>451</v>
       </c>
       <c r="H88" s="75" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="I88" s="75" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="J88" s="78" t="s">
         <v>151</v>
@@ -29421,10 +29418,10 @@
         <v>451</v>
       </c>
       <c r="H89" s="75" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="I89" s="75" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="J89" s="78" t="s">
         <v>130</v>
@@ -29456,10 +29453,10 @@
         <v>451</v>
       </c>
       <c r="H90" s="75" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="I90" s="75" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="J90" s="78" t="s">
         <v>154</v>
@@ -29491,10 +29488,10 @@
         <v>451</v>
       </c>
       <c r="H91" s="75" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="I91" s="75" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="J91" s="78" t="s">
         <v>140</v>
@@ -29526,10 +29523,10 @@
         <v>451</v>
       </c>
       <c r="H92" s="75" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="I92" s="75" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="J92" s="78" t="s">
         <v>147</v>
@@ -29561,10 +29558,10 @@
         <v>451</v>
       </c>
       <c r="H93" s="75" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="I93" s="75" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="J93" s="78" t="s">
         <v>137</v>
@@ -29596,10 +29593,10 @@
         <v>451</v>
       </c>
       <c r="H94" s="75" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="I94" s="75" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="J94" s="78" t="s">
         <v>136</v>
@@ -29631,10 +29628,10 @@
         <v>451</v>
       </c>
       <c r="H95" s="75" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="I95" s="75" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="J95" s="78" t="s">
         <v>139</v>
@@ -29666,10 +29663,10 @@
         <v>451</v>
       </c>
       <c r="H96" s="75" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="I96" s="75" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="J96" s="78" t="s">
         <v>142</v>
@@ -29701,10 +29698,10 @@
         <v>451</v>
       </c>
       <c r="H97" s="75" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="I97" s="75" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="J97" s="78" t="s">
         <v>128</v>
@@ -29736,10 +29733,10 @@
         <v>451</v>
       </c>
       <c r="H98" s="75" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="I98" s="75" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="J98" s="78" t="s">
         <v>141</v>
@@ -29771,10 +29768,10 @@
         <v>451</v>
       </c>
       <c r="H99" s="75" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="I99" s="75" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="J99" s="78" t="s">
         <v>132</v>
@@ -29806,10 +29803,10 @@
         <v>451</v>
       </c>
       <c r="H100" s="75" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="I100" s="75" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="J100" s="78" t="s">
         <v>133</v>
@@ -29841,10 +29838,10 @@
         <v>451</v>
       </c>
       <c r="H101" s="75" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="I101" s="75" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="J101" s="78" t="s">
         <v>134</v>
@@ -29876,10 +29873,10 @@
         <v>451</v>
       </c>
       <c r="H102" s="75" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="I102" s="75" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="J102" s="78" t="s">
         <v>124</v>
@@ -29911,10 +29908,10 @@
         <v>451</v>
       </c>
       <c r="H103" s="75" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="I103" s="75" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="J103" s="78" t="s">
         <v>131</v>
@@ -29946,10 +29943,10 @@
         <v>451</v>
       </c>
       <c r="H104" s="75" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="I104" s="75" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="J104" s="78" t="s">
         <v>149</v>
@@ -29981,10 +29978,10 @@
         <v>451</v>
       </c>
       <c r="H105" s="75" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="I105" s="75" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="J105" s="78" t="s">
         <v>148</v>
@@ -30016,10 +30013,10 @@
         <v>451</v>
       </c>
       <c r="H106" s="75" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="I106" s="75" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="J106" s="78" t="s">
         <v>143</v>
@@ -30051,10 +30048,10 @@
         <v>451</v>
       </c>
       <c r="H107" s="75" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="I107" s="75" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="J107" s="78" t="s">
         <v>146</v>
@@ -30086,10 +30083,10 @@
         <v>451</v>
       </c>
       <c r="H108" s="75" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="I108" s="75" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="J108" s="78" t="s">
         <v>158</v>
@@ -30121,10 +30118,10 @@
         <v>451</v>
       </c>
       <c r="H109" s="75" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="I109" s="75" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="J109" s="78" t="s">
         <v>145</v>
@@ -30156,10 +30153,10 @@
         <v>451</v>
       </c>
       <c r="H110" s="75" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="I110" s="75" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="J110" s="78" t="s">
         <v>138</v>
@@ -30191,10 +30188,10 @@
         <v>451</v>
       </c>
       <c r="H111" s="75" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="I111" s="75" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="J111" s="78" t="s">
         <v>125</v>
@@ -30226,10 +30223,10 @@
         <v>451</v>
       </c>
       <c r="H112" s="75" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="I112" s="75" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="J112" s="78" t="s">
         <v>135</v>
@@ -30261,10 +30258,10 @@
         <v>451</v>
       </c>
       <c r="H113" s="75" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="I113" s="75" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="J113" s="78" t="s">
         <v>105</v>
@@ -30296,10 +30293,10 @@
         <v>451</v>
       </c>
       <c r="H114" s="75" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="I114" s="75" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="J114" s="78" t="s">
         <v>111</v>
@@ -30331,10 +30328,10 @@
         <v>451</v>
       </c>
       <c r="H115" s="75" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="I115" s="75" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="J115" s="78" t="s">
         <v>120</v>
@@ -30366,10 +30363,10 @@
         <v>451</v>
       </c>
       <c r="H116" s="75" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="I116" s="75" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="J116" s="78" t="s">
         <v>121</v>
@@ -30401,10 +30398,10 @@
         <v>451</v>
       </c>
       <c r="H117" s="75" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="I117" s="75" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="J117" s="78" t="s">
         <v>122</v>
@@ -30436,10 +30433,10 @@
         <v>451</v>
       </c>
       <c r="H118" s="75" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="I118" s="75" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="J118" s="78" t="s">
         <v>115</v>
@@ -30471,10 +30468,10 @@
         <v>451</v>
       </c>
       <c r="H119" s="75" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="I119" s="75" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="J119" s="78" t="s">
         <v>102</v>
@@ -30506,10 +30503,10 @@
         <v>451</v>
       </c>
       <c r="H120" s="75" t="s">
+        <v>1373</v>
+      </c>
+      <c r="I120" s="75" t="s">
         <v>1375</v>
-      </c>
-      <c r="I120" s="75" t="s">
-        <v>1377</v>
       </c>
       <c r="J120" s="78" t="s">
         <v>101</v>
@@ -30541,10 +30538,10 @@
         <v>451</v>
       </c>
       <c r="H121" s="75" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="I121" s="75" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="J121" s="78" t="s">
         <v>117</v>
@@ -30576,10 +30573,10 @@
         <v>451</v>
       </c>
       <c r="H122" s="75" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="I122" s="75" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="J122" s="78" t="s">
         <v>119</v>
@@ -30611,10 +30608,10 @@
         <v>451</v>
       </c>
       <c r="H123" s="75" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="I123" s="75" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="J123" s="78" t="s">
         <v>123</v>
@@ -30646,10 +30643,10 @@
         <v>451</v>
       </c>
       <c r="H124" s="75" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="I124" s="75" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="J124" s="78" t="s">
         <v>84</v>
@@ -30681,10 +30678,10 @@
         <v>451</v>
       </c>
       <c r="H125" s="75" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="I125" s="75" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="J125" s="78" t="s">
         <v>88</v>
@@ -30716,10 +30713,10 @@
         <v>451</v>
       </c>
       <c r="H126" s="75" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="I126" s="75" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="J126" s="78" t="s">
         <v>91</v>
@@ -30751,10 +30748,10 @@
         <v>451</v>
       </c>
       <c r="H127" s="75" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="I127" s="75" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="J127" s="78" t="s">
         <v>86</v>
@@ -30786,10 +30783,10 @@
         <v>451</v>
       </c>
       <c r="H128" s="75" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="I128" s="75" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="J128" s="78" t="s">
         <v>94</v>
@@ -30818,10 +30815,10 @@
         <v>85</v>
       </c>
       <c r="G129" s="75" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="H129" s="75" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="I129" s="75" t="s">
         <v>209</v>
@@ -30853,10 +30850,10 @@
         <v>85</v>
       </c>
       <c r="G130" s="75" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="H130" s="75" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="I130" s="75" t="s">
         <v>206</v>
@@ -30891,10 +30888,10 @@
         <v>451</v>
       </c>
       <c r="H131" s="75" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="I131" s="75" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="J131" s="78" t="s">
         <v>112</v>
@@ -30926,10 +30923,10 @@
         <v>451</v>
       </c>
       <c r="H132" s="75" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="I132" s="75" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="J132" s="78" t="s">
         <v>155</v>
@@ -30961,10 +30958,10 @@
         <v>451</v>
       </c>
       <c r="H133" s="75" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="I133" s="75" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="J133" s="78" t="s">
         <v>109</v>
@@ -30996,10 +30993,10 @@
         <v>451</v>
       </c>
       <c r="H134" s="75" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="I134" s="75" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="J134" s="78" t="s">
         <v>116</v>
@@ -31031,10 +31028,10 @@
         <v>451</v>
       </c>
       <c r="H135" s="75" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="I135" s="75" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="J135" s="78" t="s">
         <v>118</v>
@@ -31066,10 +31063,10 @@
         <v>451</v>
       </c>
       <c r="H136" s="75" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="I136" s="75" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="J136" s="78" t="s">
         <v>108</v>
@@ -31101,10 +31098,10 @@
         <v>451</v>
       </c>
       <c r="H137" s="75" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="I137" s="75" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="J137" s="78" t="s">
         <v>103</v>
@@ -31136,10 +31133,10 @@
         <v>451</v>
       </c>
       <c r="H138" s="75" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="I138" s="75" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="J138" s="78" t="s">
         <v>107</v>
@@ -31171,10 +31168,10 @@
         <v>451</v>
       </c>
       <c r="H139" s="75" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="I139" s="75" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="J139" s="78" t="s">
         <v>113</v>
@@ -31206,10 +31203,10 @@
         <v>451</v>
       </c>
       <c r="H140" s="75" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="I140" s="75" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="J140" s="78" t="s">
         <v>114</v>
@@ -31241,10 +31238,10 @@
         <v>451</v>
       </c>
       <c r="H141" s="75" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="I141" s="75" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="J141" s="78" t="s">
         <v>110</v>
@@ -31273,10 +31270,10 @@
         <v>85</v>
       </c>
       <c r="G142" s="75" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="H142" s="75" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="I142" s="75" t="s">
         <v>212</v>
@@ -31308,10 +31305,10 @@
         <v>85</v>
       </c>
       <c r="G143" s="75" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="H143" s="75" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="I143" s="75" t="s">
         <v>206</v>
@@ -31387,10 +31384,10 @@
         <v>406</v>
       </c>
       <c r="I1" s="29" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="J1" s="29" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
@@ -31746,7 +31743,7 @@
         <v>406</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="13.9" customHeight="1">
@@ -31817,10 +31814,10 @@
         <v>406</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="K1" s="71"/>
     </row>
@@ -31888,10 +31885,10 @@
         <v>406</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="42" customHeight="1">
@@ -31933,25 +31930,25 @@
   <sheetData>
     <row r="1" spans="1:27" ht="51">
       <c r="A1" s="33" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="33" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D1" s="33" t="s">
         <v>1222</v>
       </c>
-      <c r="D1" s="33" t="s">
-        <v>1223</v>
-      </c>
       <c r="E1" s="33" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F1" s="33" t="s">
         <v>1238</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="G1" s="33" t="s">
         <v>1239</v>
-      </c>
-      <c r="G1" s="33" t="s">
-        <v>1240</v>
       </c>
       <c r="H1" s="38" t="s">
         <v>1189</v>
@@ -31963,28 +31960,28 @@
         <v>1195</v>
       </c>
       <c r="K1" s="38" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="L1" s="38" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="M1" s="46" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="N1" s="87" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="O1" s="87" t="s">
         <v>1179</v>
       </c>
       <c r="P1" s="87" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="Q1" s="69" t="s">
+        <v>1224</v>
+      </c>
+      <c r="R1" s="69" t="s">
         <v>1225</v>
-      </c>
-      <c r="R1" s="69" t="s">
-        <v>1226</v>
       </c>
       <c r="S1" s="69" t="s">
         <v>1174</v>
@@ -32150,13 +32147,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="33" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C1" s="33" t="s">
         <v>1222</v>
       </c>
-      <c r="C1" s="33" t="s">
-        <v>1223</v>
-      </c>
       <c r="D1" s="33" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="E1" s="38" t="s">
         <v>1189</v>
@@ -32168,28 +32165,28 @@
         <v>1195</v>
       </c>
       <c r="H1" s="88" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="I1" s="88" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="J1" s="46" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="K1" s="87" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="L1" s="89" t="s">
         <v>1179</v>
       </c>
       <c r="M1" s="87" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="N1" s="39" t="s">
+        <v>1224</v>
+      </c>
+      <c r="O1" s="39" t="s">
         <v>1225</v>
-      </c>
-      <c r="O1" s="39" t="s">
-        <v>1226</v>
       </c>
       <c r="P1" s="39" t="s">
         <v>1174</v>
@@ -49835,25 +49832,25 @@
   <sheetData>
     <row r="1" spans="1:26" ht="51">
       <c r="A1" s="33" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="33" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D1" s="33" t="s">
         <v>1222</v>
       </c>
-      <c r="D1" s="33" t="s">
-        <v>1223</v>
-      </c>
       <c r="E1" s="33" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F1" s="33" t="s">
         <v>1238</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="G1" s="33" t="s">
         <v>1239</v>
-      </c>
-      <c r="G1" s="33" t="s">
-        <v>1240</v>
       </c>
       <c r="H1" s="38" t="s">
         <v>1189</v>
@@ -49865,28 +49862,28 @@
         <v>1195</v>
       </c>
       <c r="K1" s="38" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="L1" s="38" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="M1" s="38" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="N1" s="87" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="O1" s="89" t="s">
         <v>1179</v>
       </c>
       <c r="P1" s="87" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="Q1" s="39" t="s">
+        <v>1224</v>
+      </c>
+      <c r="R1" s="39" t="s">
         <v>1225</v>
-      </c>
-      <c r="R1" s="39" t="s">
-        <v>1226</v>
       </c>
       <c r="S1" s="39" t="s">
         <v>1174</v>
@@ -50054,6 +50051,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <TaxCatchAllLabel xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <TaxKeywordTaxHTField xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100ADE5A2812409A74E9D63F27EF88903B8" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7bd325d4d8d3d0cfa3a820f8985111cd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4d5313c0-c1e6-4122-afa9-da1ccdba405d" xmlns:ns3="362c980f-4e38-4cca-bd06-5104ee5993c5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a46f65cc92525120babafc4c69c5d04c" ns2:_="" ns3:_="">
     <xsd:import namespace="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
@@ -50230,18 +50239,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <TaxCatchAllLabel xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <TaxKeywordTaxHTField xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -50252,6 +50249,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{26A31DF9-0697-482A-AA13-03351BA7D829}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="362c980f-4e38-4cca-bd06-5104ee5993c5"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F5E65C0-0531-4AD3-8512-1785183D40D0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -50270,23 +50284,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{26A31DF9-0697-482A-AA13-03351BA7D829}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="362c980f-4e38-4cca-bd06-5104ee5993c5"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50425A79-54B8-4D54-9EAF-8388D1CE4120}">
   <ds:schemaRefs>

--- a/data/datacall_template/00template/Eel_Data_Call_Annex_Time_Series.xlsx
+++ b/data/datacall_template/00template/Eel_Data_Call_Annex_Time_Series.xlsx
@@ -3791,9 +3791,6 @@
     <t>gr_comment</t>
   </si>
   <si>
-    <t>gr_last_update</t>
-  </si>
-  <si>
     <t>gr_dts_datasource</t>
   </si>
   <si>
@@ -3807,9 +3804,6 @@
   </si>
   <si>
     <t>fi_comment</t>
-  </si>
-  <si>
-    <t>fi_last_update</t>
   </si>
   <si>
     <t>fi_dts_datasource</t>
@@ -4930,6 +4924,12 @@
   </si>
   <si>
     <t>is_female(1=female,0=male)</t>
+  </si>
+  <si>
+    <t>gr_lastupdate</t>
+  </si>
+  <si>
+    <t>fi_lastupdate</t>
   </si>
 </sst>
 </file>
@@ -5821,7 +5821,7 @@
         <xdr:cNvPr id="5" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6972,7 +6972,7 @@
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0C00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7079,7 +7079,7 @@
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0D00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7202,7 +7202,7 @@
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0E00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7301,7 +7301,7 @@
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7436,7 +7436,7 @@
         <xdr:cNvPr id="3" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7538,7 +7538,7 @@
         <xdr:cNvPr id="2" name="Image 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7580,7 +7580,7 @@
         <xdr:cNvPr id="2" name="Metin kutusu 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7635,7 +7635,7 @@
         <xdr:cNvPr id="3" name="Metin kutusu 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7690,7 +7690,7 @@
         <xdr:cNvPr id="4" name="Metin kutusu 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7745,7 +7745,7 @@
         <xdr:cNvPr id="5" name="Metin kutusu 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7800,7 +7800,7 @@
         <xdr:cNvPr id="6" name="Metin kutusu 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7855,7 +7855,7 @@
         <xdr:cNvPr id="7" name="Metin kutusu 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7910,7 +7910,7 @@
         <xdr:cNvPr id="8" name="Metin kutusu 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7965,7 +7965,7 @@
         <xdr:cNvPr id="9" name="Metin kutusu 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1200-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8020,7 +8020,7 @@
         <xdr:cNvPr id="10" name="Metin kutusu 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1200-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8075,7 +8075,7 @@
         <xdr:cNvPr id="11" name="Metin kutusu 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1200-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8130,7 +8130,7 @@
         <xdr:cNvPr id="12" name="Metin kutusu 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1200-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8185,7 +8185,7 @@
         <xdr:cNvPr id="13" name="Metin kutusu 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1200-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8240,7 +8240,7 @@
         <xdr:cNvPr id="14" name="Metin kutusu 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1200-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8295,7 +8295,7 @@
         <xdr:cNvPr id="15" name="Metin kutusu 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1200-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8350,7 +8350,7 @@
         <xdr:cNvPr id="16" name="Metin kutusu 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1200-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8405,7 +8405,7 @@
         <xdr:cNvPr id="17" name="Metin kutusu 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1200-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8460,7 +8460,7 @@
         <xdr:cNvPr id="18" name="Metin kutusu 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1200-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8515,7 +8515,7 @@
         <xdr:cNvPr id="19" name="Metin kutusu 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1200-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8575,7 +8575,7 @@
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1A00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1A00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8667,7 +8667,7 @@
         <xdr:cNvPr id="2" name="Image 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1800-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1800-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8714,7 +8714,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1900-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8762,7 +8762,7 @@
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8935,7 +8935,7 @@
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9033,7 +9033,7 @@
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9151,7 +9151,7 @@
         <xdr:cNvPr id="4" name="Image 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9201,7 +9201,7 @@
         <xdr:cNvPr id="5" name="Image 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9256,7 +9256,7 @@
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9422,7 +9422,7 @@
         <xdr:cNvPr id="7" name="Image 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9472,7 +9472,7 @@
         <xdr:cNvPr id="8" name="Image 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9527,7 +9527,7 @@
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9634,7 +9634,7 @@
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9757,7 +9757,7 @@
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9856,7 +9856,7 @@
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0B00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10269,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="108" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="25.5">
@@ -10365,7 +10365,7 @@
         <v>18</v>
       </c>
       <c r="B14" s="62" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="25.5">
@@ -10381,7 +10381,7 @@
         <v>20</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="51">
@@ -10389,7 +10389,7 @@
         <v>21</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="25.5">
@@ -10413,7 +10413,7 @@
         <v>1163</v>
       </c>
       <c r="B20" s="66" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="120" customHeight="1">
@@ -10440,7 +10440,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="41" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -10448,7 +10448,7 @@
         <v>1</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -10464,7 +10464,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -10472,7 +10472,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -10488,23 +10488,23 @@
         <v>406</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="10" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="54" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="B32" s="47" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="33" spans="1:5 1025:1025">
@@ -10513,10 +10513,10 @@
     </row>
     <row r="34" spans="1:5 1025:1025">
       <c r="A34" s="53" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="B34" s="41" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="E34" s="48"/>
     </row>
@@ -10525,7 +10525,7 @@
         <v>1236</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="E35" s="49"/>
     </row>
@@ -10541,10 +10541,10 @@
     </row>
     <row r="37" spans="1:5 1025:1025">
       <c r="A37" s="54" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="B37" s="47" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="C37" s="9"/>
       <c r="E37" s="48"/>
@@ -10554,7 +10554,7 @@
         <v>1221</v>
       </c>
       <c r="B38" s="62" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="E38" s="48"/>
     </row>
@@ -10563,7 +10563,7 @@
         <v>1222</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="C39" s="47"/>
       <c r="E39" s="48"/>
@@ -10573,27 +10573,27 @@
         <v>1237</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="C40" s="47"/>
       <c r="E40" s="48"/>
     </row>
     <row r="41" spans="1:5 1025:1025">
       <c r="A41" s="54" t="s">
-        <v>1238</v>
+        <v>1553</v>
       </c>
       <c r="B41" s="47" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="C41" s="62"/>
       <c r="E41" s="48"/>
     </row>
     <row r="42" spans="1:5 1025:1025">
       <c r="A42" s="54" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B42" s="47" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="C42" s="62"/>
       <c r="E42" s="48"/>
@@ -10603,7 +10603,7 @@
         <v>1189</v>
       </c>
       <c r="B43" s="62" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="C43" s="62"/>
       <c r="E43" s="48"/>
@@ -10613,7 +10613,7 @@
         <v>1193</v>
       </c>
       <c r="B44" s="62" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="C44" s="62"/>
       <c r="E44" s="48"/>
@@ -10623,7 +10623,7 @@
         <v>1195</v>
       </c>
       <c r="B45" s="47" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="C45" s="62"/>
       <c r="E45" s="48"/>
@@ -10633,26 +10633,26 @@
         <v>1226</v>
       </c>
       <c r="B46" s="47" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="C46" s="9"/>
       <c r="E46" s="50"/>
     </row>
     <row r="47" spans="1:5 1025:1025" ht="25.5">
       <c r="A47" s="86" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="B47" s="90" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="AMK47"/>
     </row>
     <row r="48" spans="1:5 1025:1025" ht="19.5" customHeight="1">
       <c r="A48" s="57" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="B48" s="62" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="C48" s="47"/>
       <c r="E48" s="50"/>
@@ -10662,7 +10662,7 @@
         <v>1223</v>
       </c>
       <c r="B49" s="47" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="C49" s="47"/>
       <c r="E49" s="51"/>
@@ -10672,17 +10672,17 @@
         <v>1179</v>
       </c>
       <c r="B50" s="47" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="C50" s="47"/>
       <c r="E50" s="51"/>
     </row>
     <row r="51" spans="1:5 1025:1025" ht="25.5">
       <c r="A51" s="86" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="B51" s="91" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="AMK51"/>
     </row>
@@ -10691,7 +10691,7 @@
         <v>1224</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="C52" s="47"/>
       <c r="E52" s="14"/>
@@ -10701,7 +10701,7 @@
         <v>1225</v>
       </c>
       <c r="B53" s="47" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="C53" s="45"/>
       <c r="E53" s="14"/>
@@ -10711,7 +10711,7 @@
         <v>1174</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="C54" s="47"/>
       <c r="E54" s="50"/>
@@ -10721,7 +10721,7 @@
         <v>1175</v>
       </c>
       <c r="B55" s="47" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="C55" s="47"/>
       <c r="E55" s="50"/>
@@ -10731,7 +10731,7 @@
         <v>1176</v>
       </c>
       <c r="B56" s="47" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="C56" s="47"/>
       <c r="E56" s="50"/>
@@ -10741,7 +10741,7 @@
         <v>1171</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="C57" s="47"/>
       <c r="E57" s="50"/>
@@ -10751,7 +10751,7 @@
         <v>1172</v>
       </c>
       <c r="B58" s="47" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="C58"/>
       <c r="E58" s="50"/>
@@ -10761,7 +10761,7 @@
         <v>1173</v>
       </c>
       <c r="B59" s="47" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="C59"/>
     </row>
@@ -10770,7 +10770,7 @@
         <v>1177</v>
       </c>
       <c r="B60" s="47" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="61" spans="1:5 1025:1025" ht="25.5">
@@ -10778,31 +10778,31 @@
         <v>1178</v>
       </c>
       <c r="B61" s="47" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="63" spans="1:5 1025:1025">
       <c r="A63" s="53" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="B63" s="41" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="64" spans="1:5 1025:1025" ht="25.5">
       <c r="A64" s="54" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="65" spans="1:2 1025:1025">
       <c r="A65" s="8" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="66" spans="1:2 1025:1025" ht="51">
@@ -10815,50 +10815,50 @@
     </row>
     <row r="67" spans="1:2 1025:1025" ht="25.5">
       <c r="A67" s="54" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B67" s="62" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="68" spans="1:2 1025:1025" ht="38.25">
       <c r="A68" s="54" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="B68" s="62" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="69" spans="1:2 1025:1025">
       <c r="A69" s="72" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="B69" s="73" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="70" spans="1:2 1025:1025">
       <c r="A70" s="54" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="71" spans="1:2 1025:1025">
       <c r="A71" s="54" t="s">
-        <v>1244</v>
+        <v>1554</v>
       </c>
       <c r="B71" s="47" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="72" spans="1:2 1025:1025">
       <c r="A72" s="54" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="B72" s="47" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="73" spans="1:2 1025:1025">
@@ -10866,7 +10866,7 @@
         <v>1189</v>
       </c>
       <c r="B73" s="62" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="74" spans="1:2 1025:1025">
@@ -10874,7 +10874,7 @@
         <v>1193</v>
       </c>
       <c r="B74" s="62" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="75" spans="1:2 1025:1025">
@@ -10882,12 +10882,12 @@
         <v>1195</v>
       </c>
       <c r="B75" s="47" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="76" spans="1:2 1025:1025">
       <c r="A76" s="59" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="B76" s="47" t="s">
         <v>1196</v>
@@ -10903,27 +10903,27 @@
     </row>
     <row r="78" spans="1:2 1025:1025">
       <c r="A78" s="61" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="B78" s="62" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="79" spans="1:2 1025:1025" ht="25.5">
       <c r="A79" s="86" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="B79" s="90" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
       <c r="AMK79"/>
     </row>
     <row r="80" spans="1:2 1025:1025" ht="25.5">
       <c r="A80" s="61" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="B80" s="62" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="81" spans="1:2 1025:1025">
@@ -10931,7 +10931,7 @@
         <v>1223</v>
       </c>
       <c r="B81" s="47" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="82" spans="1:2 1025:1025">
@@ -10939,15 +10939,15 @@
         <v>1179</v>
       </c>
       <c r="B82" s="47" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="83" spans="1:2 1025:1025" ht="25.5">
       <c r="A83" s="86" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="B83" s="91" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="AMK83"/>
     </row>
@@ -10956,7 +10956,7 @@
         <v>1224</v>
       </c>
       <c r="B84" s="47" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="85" spans="1:2 1025:1025">
@@ -10964,7 +10964,7 @@
         <v>1225</v>
       </c>
       <c r="B85" s="47" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="86" spans="1:2 1025:1025">
@@ -11030,10 +11030,10 @@
         <v>1237</v>
       </c>
       <c r="F1" s="34" t="s">
+        <v>1553</v>
+      </c>
+      <c r="G1" s="34" t="s">
         <v>1238</v>
-      </c>
-      <c r="G1" s="34" t="s">
-        <v>1239</v>
       </c>
       <c r="H1" s="40" t="s">
         <v>1189</v>
@@ -11048,10 +11048,10 @@
         <v>1226</v>
       </c>
       <c r="L1" s="38" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="M1" s="40" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="N1" s="87" t="s">
         <v>1223</v>
@@ -11060,7 +11060,7 @@
         <v>1179</v>
       </c>
       <c r="P1" s="87" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="Q1" s="39" t="s">
         <v>1224</v>
@@ -11194,31 +11194,31 @@
   <sheetData>
     <row r="1" spans="1:23" s="14" customFormat="1" ht="76.5">
       <c r="A1" s="33" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="C1" s="24" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="33" t="s">
+        <v>1241</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>1315</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>1316</v>
+      </c>
+      <c r="G1" s="33" t="s">
         <v>1242</v>
       </c>
-      <c r="E1" s="33" t="s">
-        <v>1317</v>
-      </c>
-      <c r="F1" s="33" t="s">
-        <v>1318</v>
-      </c>
-      <c r="G1" s="33" t="s">
+      <c r="H1" s="33" t="s">
+        <v>1554</v>
+      </c>
+      <c r="I1" s="33" t="s">
         <v>1243</v>
-      </c>
-      <c r="H1" s="33" t="s">
-        <v>1244</v>
-      </c>
-      <c r="I1" s="33" t="s">
-        <v>1245</v>
       </c>
       <c r="J1" s="38" t="s">
         <v>1189</v>
@@ -11230,34 +11230,34 @@
         <v>1195</v>
       </c>
       <c r="M1" s="69" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="N1" s="69" t="s">
         <v>1197</v>
       </c>
       <c r="O1" s="70" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="P1" s="38" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="Q1" s="70" t="s">
+        <v>1259</v>
+      </c>
+      <c r="R1" s="87" t="s">
         <v>1261</v>
-      </c>
-      <c r="R1" s="87" t="s">
-        <v>1263</v>
       </c>
       <c r="S1" s="69" t="s">
         <v>1179</v>
       </c>
       <c r="T1" s="69" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="U1" s="69" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="V1" s="69" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="W1" s="36"/>
     </row>
@@ -11297,22 +11297,22 @@
   <sheetData>
     <row r="1" spans="1:25" ht="76.5">
       <c r="A1" s="33" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="33" t="s">
+        <v>1241</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>1315</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>1316</v>
+      </c>
+      <c r="F1" s="33" t="s">
         <v>1242</v>
-      </c>
-      <c r="D1" s="33" t="s">
-        <v>1317</v>
-      </c>
-      <c r="E1" s="33" t="s">
-        <v>1318</v>
-      </c>
-      <c r="F1" s="33" t="s">
-        <v>1243</v>
       </c>
       <c r="G1" s="38" t="s">
         <v>1189</v>
@@ -11324,34 +11324,34 @@
         <v>1195</v>
       </c>
       <c r="J1" s="69" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="K1" s="69" t="s">
         <v>1197</v>
       </c>
       <c r="L1" s="70" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="M1" s="38" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="N1" s="70" t="s">
+        <v>1259</v>
+      </c>
+      <c r="O1" s="87" t="s">
         <v>1261</v>
-      </c>
-      <c r="O1" s="87" t="s">
-        <v>1263</v>
       </c>
       <c r="P1" s="69" t="s">
         <v>1179</v>
       </c>
       <c r="Q1" s="69" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="R1" s="69" t="s">
+        <v>1268</v>
+      </c>
+      <c r="S1" s="69" t="s">
         <v>1270</v>
-      </c>
-      <c r="S1" s="69" t="s">
-        <v>1272</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -11422,31 +11422,31 @@
   <sheetData>
     <row r="1" spans="1:26" ht="76.5">
       <c r="A1" s="33" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="C1" s="24" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="33" t="s">
+        <v>1241</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>1315</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>1316</v>
+      </c>
+      <c r="G1" s="33" t="s">
         <v>1242</v>
       </c>
-      <c r="E1" s="33" t="s">
-        <v>1317</v>
-      </c>
-      <c r="F1" s="33" t="s">
-        <v>1318</v>
-      </c>
-      <c r="G1" s="33" t="s">
+      <c r="H1" s="33" t="s">
+        <v>1554</v>
+      </c>
+      <c r="I1" s="38" t="s">
         <v>1243</v>
-      </c>
-      <c r="H1" s="33" t="s">
-        <v>1244</v>
-      </c>
-      <c r="I1" s="38" t="s">
-        <v>1245</v>
       </c>
       <c r="J1" s="38" t="s">
         <v>1189</v>
@@ -11458,34 +11458,34 @@
         <v>1195</v>
       </c>
       <c r="M1" s="69" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="N1" s="69" t="s">
         <v>1197</v>
       </c>
       <c r="O1" s="70" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="P1" s="38" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="Q1" s="70" t="s">
+        <v>1259</v>
+      </c>
+      <c r="R1" s="87" t="s">
         <v>1261</v>
-      </c>
-      <c r="R1" s="87" t="s">
-        <v>1263</v>
       </c>
       <c r="S1" s="69" t="s">
         <v>1179</v>
       </c>
       <c r="T1" s="69" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="U1" s="69" t="s">
+        <v>1268</v>
+      </c>
+      <c r="V1" s="69" t="s">
         <v>1270</v>
-      </c>
-      <c r="V1" s="69" t="s">
-        <v>1272</v>
       </c>
     </row>
     <row r="2" spans="1:26">
@@ -11555,31 +11555,31 @@
   <sheetData>
     <row r="1" spans="1:22" s="14" customFormat="1" ht="76.5">
       <c r="A1" s="33" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="C1" s="24" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="33" t="s">
+        <v>1241</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>1315</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>1316</v>
+      </c>
+      <c r="G1" s="33" t="s">
         <v>1242</v>
       </c>
-      <c r="E1" s="33" t="s">
-        <v>1317</v>
-      </c>
-      <c r="F1" s="33" t="s">
-        <v>1318</v>
-      </c>
-      <c r="G1" s="33" t="s">
+      <c r="H1" s="33" t="s">
+        <v>1554</v>
+      </c>
+      <c r="I1" s="38" t="s">
         <v>1243</v>
-      </c>
-      <c r="H1" s="33" t="s">
-        <v>1244</v>
-      </c>
-      <c r="I1" s="38" t="s">
-        <v>1245</v>
       </c>
       <c r="J1" s="38" t="s">
         <v>1189</v>
@@ -11591,34 +11591,34 @@
         <v>1195</v>
       </c>
       <c r="M1" s="69" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="N1" s="69" t="s">
         <v>1197</v>
       </c>
       <c r="O1" s="70" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="P1" s="38" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="Q1" s="70" t="s">
+        <v>1259</v>
+      </c>
+      <c r="R1" s="87" t="s">
         <v>1261</v>
-      </c>
-      <c r="R1" s="87" t="s">
-        <v>1263</v>
       </c>
       <c r="S1" s="69" t="s">
         <v>1179</v>
       </c>
       <c r="T1" s="69" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="U1" s="69" t="s">
+        <v>1268</v>
+      </c>
+      <c r="V1" s="69" t="s">
         <v>1270</v>
-      </c>
-      <c r="V1" s="69" t="s">
-        <v>1272</v>
       </c>
     </row>
     <row r="2" spans="1:22">
@@ -11659,189 +11659,189 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="126" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B1" s="126" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C1" s="126" t="s">
         <v>1391</v>
       </c>
-      <c r="B1" s="126" t="s">
+      <c r="D1" s="127" t="s">
         <v>1392</v>
-      </c>
-      <c r="C1" s="126" t="s">
-        <v>1393</v>
-      </c>
-      <c r="D1" s="127" t="s">
-        <v>1394</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="123" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="B2" s="124"/>
       <c r="C2" s="124" t="s">
         <v>63</v>
       </c>
       <c r="D2" s="125" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="E2" s="82"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="109" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="B3" s="110"/>
       <c r="C3" s="110" t="s">
         <v>240</v>
       </c>
       <c r="D3" s="111" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="109" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="B4" s="110"/>
       <c r="C4" s="110" t="s">
         <v>241</v>
       </c>
       <c r="D4" s="111" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="E4" s="83"/>
       <c r="F4" s="84"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="109" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="B5" s="110"/>
       <c r="C5" s="110" t="s">
         <v>242</v>
       </c>
       <c r="D5" s="111" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="E5" s="83"/>
       <c r="F5" s="84"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="109" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="B6" s="110"/>
       <c r="C6" s="110" t="s">
         <v>242</v>
       </c>
       <c r="D6" s="111" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="109" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="B7" s="110"/>
       <c r="C7" s="110" t="s">
         <v>242</v>
       </c>
       <c r="D7" s="111" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="109" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="B8" s="110"/>
       <c r="C8" s="110" t="s">
         <v>242</v>
       </c>
       <c r="D8" s="111" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="109" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="B9" s="110"/>
       <c r="C9" s="110" t="s">
         <v>242</v>
       </c>
       <c r="D9" s="111" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="109" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="B10" s="110"/>
       <c r="C10" s="110" t="s">
         <v>243</v>
       </c>
       <c r="D10" s="111" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="109" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="B11" s="110"/>
       <c r="C11" s="110" t="s">
         <v>244</v>
       </c>
       <c r="D11" s="111" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="109" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="B12" s="110"/>
       <c r="C12" s="110" t="s">
         <v>244</v>
       </c>
       <c r="D12" s="111" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="109" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="B13" s="110"/>
       <c r="C13" s="110" t="s">
         <v>244</v>
       </c>
       <c r="D13" s="111" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="109" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="B14" s="110"/>
       <c r="C14" s="110" t="s">
         <v>245</v>
       </c>
       <c r="D14" s="111" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="109" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="B15" s="110"/>
       <c r="C15" s="110" t="s">
         <v>245</v>
       </c>
       <c r="D15" s="111" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -11853,55 +11853,55 @@
         <v>245</v>
       </c>
       <c r="D16" s="111" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="112" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="B17" s="113"/>
       <c r="C17" s="113" t="s">
         <v>245</v>
       </c>
       <c r="D17" s="111" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="109" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="B18" s="110"/>
       <c r="C18" s="110" t="s">
         <v>245</v>
       </c>
       <c r="D18" s="111" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="109" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="B19" s="110"/>
       <c r="C19" s="110" t="s">
         <v>245</v>
       </c>
       <c r="D19" s="111" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="109" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="B20" s="110"/>
       <c r="C20" s="110" t="s">
         <v>245</v>
       </c>
       <c r="D20" s="111" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -11913,31 +11913,31 @@
         <v>245</v>
       </c>
       <c r="D21" s="111" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="109" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="B22" s="110"/>
       <c r="C22" s="110" t="s">
         <v>245</v>
       </c>
       <c r="D22" s="111" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="109" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="B23" s="110"/>
       <c r="C23" s="110" t="s">
         <v>245</v>
       </c>
       <c r="D23" s="111" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -11949,129 +11949,129 @@
         <v>249</v>
       </c>
       <c r="D24" s="111" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="109" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="B25" s="110" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="C25" s="110" t="s">
         <v>249</v>
       </c>
       <c r="D25" s="111" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="109" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="B26" s="110"/>
       <c r="C26" s="110" t="s">
         <v>249</v>
       </c>
       <c r="D26" s="111" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="109" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="B27" s="110"/>
       <c r="C27" s="110" t="s">
         <v>250</v>
       </c>
       <c r="D27" s="111" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="109" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="B28" s="110"/>
       <c r="C28" s="110" t="s">
         <v>251</v>
       </c>
       <c r="D28" s="111" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="109" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="B29" s="110"/>
       <c r="C29" s="110" t="s">
         <v>251</v>
       </c>
       <c r="D29" s="111" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="109" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="B30" s="110"/>
       <c r="C30" s="110" t="s">
         <v>251</v>
       </c>
       <c r="D30" s="111" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="109" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="B31" s="110"/>
       <c r="C31" s="110" t="s">
         <v>252</v>
       </c>
       <c r="D31" s="111" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="109" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="B32" s="110"/>
       <c r="C32" s="110" t="s">
         <v>253</v>
       </c>
       <c r="D32" s="111" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="109" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="B33" s="110"/>
       <c r="C33" s="110" t="s">
         <v>253</v>
       </c>
       <c r="D33" s="111" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="109" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="B34" s="110"/>
       <c r="C34" s="110" t="s">
         <v>253</v>
       </c>
       <c r="D34" s="111" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -12083,141 +12083,141 @@
         <v>253</v>
       </c>
       <c r="D35" s="111" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="109" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="B36" s="110"/>
       <c r="C36" s="110" t="s">
         <v>253</v>
       </c>
       <c r="D36" s="111" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="109" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="B37" s="110"/>
       <c r="C37" s="110" t="s">
         <v>253</v>
       </c>
       <c r="D37" s="111" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="109" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="B38" s="110"/>
       <c r="C38" s="110" t="s">
         <v>253</v>
       </c>
       <c r="D38" s="111" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="109" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="B39" s="110"/>
       <c r="C39" s="110" t="s">
         <v>253</v>
       </c>
       <c r="D39" s="111" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="109" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="B40" s="110"/>
       <c r="C40" s="110" t="s">
         <v>253</v>
       </c>
       <c r="D40" s="111" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="109" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="B41" s="110" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="C41" s="110" t="s">
         <v>299</v>
       </c>
       <c r="D41" s="111" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="109" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="B42" s="110"/>
       <c r="C42" s="110" t="s">
         <v>253</v>
       </c>
       <c r="D42" s="111" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="109" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="B43" s="110"/>
       <c r="C43" s="110" t="s">
         <v>253</v>
       </c>
       <c r="D43" s="111" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="109" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="B44" s="110"/>
       <c r="C44" s="110" t="s">
         <v>253</v>
       </c>
       <c r="D44" s="111" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="109" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="B45" s="110"/>
       <c r="C45" s="110" t="s">
         <v>253</v>
       </c>
       <c r="D45" s="111" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="109" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="B46" s="110"/>
       <c r="C46" s="110" t="s">
         <v>253</v>
       </c>
       <c r="D46" s="111" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -12229,19 +12229,19 @@
         <v>256</v>
       </c>
       <c r="D47" s="111" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="109" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="B48" s="110"/>
       <c r="C48" s="110" t="s">
         <v>256</v>
       </c>
       <c r="D48" s="111" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -12253,7 +12253,7 @@
         <v>36</v>
       </c>
       <c r="D49" s="111" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -12265,7 +12265,7 @@
         <v>36</v>
       </c>
       <c r="D50" s="111" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -12277,19 +12277,19 @@
         <v>36</v>
       </c>
       <c r="D51" s="111" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="109" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="B52" s="110"/>
       <c r="C52" s="110" t="s">
         <v>36</v>
       </c>
       <c r="D52" s="111" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -12301,7 +12301,7 @@
         <v>36</v>
       </c>
       <c r="D53" s="111" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -12313,19 +12313,19 @@
         <v>36</v>
       </c>
       <c r="D54" s="111" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="109" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="B55" s="110"/>
       <c r="C55" s="110" t="s">
         <v>36</v>
       </c>
       <c r="D55" s="111" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -12337,7 +12337,7 @@
         <v>36</v>
       </c>
       <c r="D56" s="111" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -12349,7 +12349,7 @@
         <v>36</v>
       </c>
       <c r="D57" s="111" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -12361,19 +12361,19 @@
         <v>36</v>
       </c>
       <c r="D58" s="111" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="109" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="B59" s="110"/>
       <c r="C59" s="110" t="s">
         <v>36</v>
       </c>
       <c r="D59" s="111" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -12385,31 +12385,31 @@
         <v>265</v>
       </c>
       <c r="D60" s="111" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="109" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="B61" s="110"/>
       <c r="C61" s="110" t="s">
         <v>265</v>
       </c>
       <c r="D61" s="111" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="109" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="B62" s="110"/>
       <c r="C62" s="110" t="s">
         <v>265</v>
       </c>
       <c r="D62" s="111" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -12421,7 +12421,7 @@
         <v>265</v>
       </c>
       <c r="D63" s="111" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -12433,7 +12433,7 @@
         <v>265</v>
       </c>
       <c r="D64" s="111" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -12445,19 +12445,19 @@
         <v>265</v>
       </c>
       <c r="D65" s="111" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="109" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="B66" s="110"/>
       <c r="C66" s="110" t="s">
         <v>265</v>
       </c>
       <c r="D66" s="111" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -12469,43 +12469,43 @@
         <v>265</v>
       </c>
       <c r="D67" s="111" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="109" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="B68" s="110"/>
       <c r="C68" s="110" t="s">
         <v>265</v>
       </c>
       <c r="D68" s="111" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="109" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="B69" s="110"/>
       <c r="C69" s="110" t="s">
         <v>265</v>
       </c>
       <c r="D69" s="111" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="109" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="B70" s="110"/>
       <c r="C70" s="110" t="s">
         <v>265</v>
       </c>
       <c r="D70" s="111" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -12517,7 +12517,7 @@
         <v>265</v>
       </c>
       <c r="D71" s="111" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -12529,43 +12529,43 @@
         <v>265</v>
       </c>
       <c r="D72" s="111" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="109" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="B73" s="110"/>
       <c r="C73" s="110" t="s">
         <v>265</v>
       </c>
       <c r="D73" s="111" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="109" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="B74" s="110"/>
       <c r="C74" s="110" t="s">
         <v>265</v>
       </c>
       <c r="D74" s="111" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="109" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="B75" s="110"/>
       <c r="C75" s="110" t="s">
         <v>272</v>
       </c>
       <c r="D75" s="111" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -12577,7 +12577,7 @@
         <v>272</v>
       </c>
       <c r="D76" s="111" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -12589,43 +12589,43 @@
         <v>272</v>
       </c>
       <c r="D77" s="111" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="109" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="B78" s="110"/>
       <c r="C78" s="110" t="s">
         <v>272</v>
       </c>
       <c r="D78" s="111" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="109" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="B79" s="110"/>
       <c r="C79" s="110" t="s">
         <v>272</v>
       </c>
       <c r="D79" s="111" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="109" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="B80" s="110"/>
       <c r="C80" s="110" t="s">
         <v>275</v>
       </c>
       <c r="D80" s="111" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -12637,7 +12637,7 @@
         <v>277</v>
       </c>
       <c r="D81" s="111" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -12649,7 +12649,7 @@
         <v>277</v>
       </c>
       <c r="D82" s="111" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -12661,31 +12661,31 @@
         <v>277</v>
       </c>
       <c r="D83" s="111" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="109" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="B84" s="110"/>
       <c r="C84" s="110" t="s">
         <v>277</v>
       </c>
       <c r="D84" s="111" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="109" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="B85" s="110"/>
       <c r="C85" s="110" t="s">
         <v>277</v>
       </c>
       <c r="D85" s="111" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -12697,36 +12697,36 @@
         <v>277</v>
       </c>
       <c r="D86" s="111" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="109" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="B87" s="110"/>
       <c r="C87" s="110" t="s">
         <v>277</v>
       </c>
       <c r="D87" s="111" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="109" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="B88" s="110"/>
       <c r="C88" s="110" t="s">
         <v>281</v>
       </c>
       <c r="D88" s="111" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="109" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="B89" s="110" t="s">
         <v>398</v>
@@ -12735,272 +12735,272 @@
         <v>397</v>
       </c>
       <c r="D89" s="111" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="109" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="B90" s="110"/>
       <c r="C90" s="110" t="s">
         <v>282</v>
       </c>
       <c r="D90" s="111" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="109" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="B91" s="110"/>
       <c r="C91" s="110" t="s">
         <v>282</v>
       </c>
       <c r="D91" s="111" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="109" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="B92" s="110"/>
       <c r="C92" s="110" t="s">
         <v>282</v>
       </c>
       <c r="D92" s="111" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="109" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="B93" s="110"/>
       <c r="C93" s="114" t="s">
         <v>282</v>
       </c>
       <c r="D93" s="111" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="109" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="B94" s="110"/>
       <c r="C94" s="110" t="s">
         <v>282</v>
       </c>
       <c r="D94" s="111" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="109" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="B95" s="110"/>
       <c r="C95" s="110" t="s">
         <v>282</v>
       </c>
       <c r="D95" s="111" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="109" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="B96" s="110"/>
       <c r="C96" s="110" t="s">
         <v>282</v>
       </c>
       <c r="D96" s="111" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="109" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="B97" s="110"/>
       <c r="C97" s="110" t="s">
         <v>282</v>
       </c>
       <c r="D97" s="111" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="109" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="B98" s="110"/>
       <c r="C98" s="110" t="s">
         <v>282</v>
       </c>
       <c r="D98" s="111" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="109" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="B99" s="110"/>
       <c r="C99" s="110" t="s">
         <v>282</v>
       </c>
       <c r="D99" s="111" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="109" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="B100" s="110"/>
       <c r="C100" s="110" t="s">
         <v>282</v>
       </c>
       <c r="D100" s="111" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="109" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="B101" s="110"/>
       <c r="C101" s="110" t="s">
         <v>282</v>
       </c>
       <c r="D101" s="111" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="109" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="B102" s="110"/>
       <c r="C102" s="110" t="s">
         <v>282</v>
       </c>
       <c r="D102" s="111" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="109" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="B103" s="110"/>
       <c r="C103" s="114" t="s">
         <v>282</v>
       </c>
       <c r="D103" s="111" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="115" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="B104" s="116"/>
       <c r="C104" s="116" t="s">
         <v>282</v>
       </c>
       <c r="D104" s="117" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="E104" s="85"/>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="115" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="B105" s="116"/>
       <c r="C105" s="116" t="s">
         <v>282</v>
       </c>
       <c r="D105" s="117" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="115" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="B106" s="116"/>
       <c r="C106" s="116" t="s">
         <v>282</v>
       </c>
       <c r="D106" s="117" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="115" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="B107" s="116"/>
       <c r="C107" s="116" t="s">
         <v>282</v>
       </c>
       <c r="D107" s="117" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="115" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="B108" s="116"/>
       <c r="C108" s="116" t="s">
         <v>282</v>
       </c>
       <c r="D108" s="117" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="115" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="B109" s="116"/>
       <c r="C109" s="116" t="s">
         <v>282</v>
       </c>
       <c r="D109" s="117" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="115" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="B110" s="116"/>
       <c r="C110" s="116" t="s">
         <v>282</v>
       </c>
       <c r="D110" s="117" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="115" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="B111" s="116"/>
       <c r="C111" s="116" t="s">
         <v>283</v>
       </c>
       <c r="D111" s="117" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -13012,43 +13012,43 @@
         <v>285</v>
       </c>
       <c r="D112" s="117" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="115" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="B113" s="116"/>
       <c r="C113" s="116" t="s">
         <v>285</v>
       </c>
       <c r="D113" s="117" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="115" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="B114" s="116"/>
       <c r="C114" s="116" t="s">
         <v>286</v>
       </c>
       <c r="D114" s="117" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="115" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="B115" s="116"/>
       <c r="C115" s="116" t="s">
         <v>286</v>
       </c>
       <c r="D115" s="117" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -13060,67 +13060,67 @@
         <v>288</v>
       </c>
       <c r="D116" s="117" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="115" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="B117" s="116"/>
       <c r="C117" s="116" t="s">
         <v>288</v>
       </c>
       <c r="D117" s="117" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="115" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="B118" s="116"/>
       <c r="C118" s="116" t="s">
         <v>289</v>
       </c>
       <c r="D118" s="117" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="115" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="B119" s="116"/>
       <c r="C119" s="116" t="s">
         <v>290</v>
       </c>
       <c r="D119" s="117" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="115" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="B120" s="116"/>
       <c r="C120" s="116" t="s">
         <v>291</v>
       </c>
       <c r="D120" s="117" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="115" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="B121" s="116"/>
       <c r="C121" s="116" t="s">
         <v>292</v>
       </c>
       <c r="D121" s="117" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -13132,7 +13132,7 @@
         <v>294</v>
       </c>
       <c r="D122" s="117" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -13144,19 +13144,19 @@
         <v>296</v>
       </c>
       <c r="D123" s="117" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="115" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="B124" s="116"/>
       <c r="C124" s="116" t="s">
         <v>297</v>
       </c>
       <c r="D124" s="117" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -13168,63 +13168,63 @@
         <v>297</v>
       </c>
       <c r="D125" s="117" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="115" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="B126" s="116"/>
       <c r="C126" s="116" t="s">
         <v>297</v>
       </c>
       <c r="D126" s="117" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="115" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="B127" s="116"/>
       <c r="C127" s="116" t="s">
         <v>299</v>
       </c>
       <c r="D127" s="117" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="115" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="B128" s="116"/>
       <c r="C128" s="116" t="s">
         <v>299</v>
       </c>
       <c r="D128" s="117" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="115" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="B129" s="116"/>
       <c r="C129" s="116" t="s">
         <v>300</v>
       </c>
       <c r="D129" s="117" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="115" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="B130" s="116" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="C130" s="116" t="s">
         <v>301</v>
@@ -13233,14 +13233,14 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="115" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="B131" s="116"/>
       <c r="C131" s="116" t="s">
         <v>301</v>
       </c>
       <c r="D131" s="117" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -13252,15 +13252,15 @@
         <v>301</v>
       </c>
       <c r="D132" s="117" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="115" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="B133" s="116" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="C133" s="116" t="s">
         <v>301</v>
@@ -13269,168 +13269,168 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="118" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="B134" s="119" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="C134" s="119" t="s">
         <v>301</v>
       </c>
       <c r="D134" s="117" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="115" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="B135" s="116"/>
       <c r="C135" s="116" t="s">
         <v>301</v>
       </c>
       <c r="D135" s="117" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="115" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="B136" s="116"/>
       <c r="C136" s="116" t="s">
         <v>301</v>
       </c>
       <c r="D136" s="117" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="115" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="B137" s="116"/>
       <c r="C137" s="116" t="s">
         <v>303</v>
       </c>
       <c r="D137" s="117" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="115" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="B138" s="116"/>
       <c r="C138" s="119" t="s">
         <v>304</v>
       </c>
       <c r="D138" s="117" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="115" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="B139" s="116" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="C139" s="116" t="s">
         <v>305</v>
       </c>
       <c r="D139" s="117" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="115" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="B140" s="116" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="C140" s="116" t="s">
         <v>305</v>
       </c>
       <c r="D140" s="117" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="115" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="B141" s="116" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="C141" s="116" t="s">
         <v>305</v>
       </c>
       <c r="D141" s="117" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="115" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="B142" s="116" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="C142" s="116" t="s">
         <v>305</v>
       </c>
       <c r="D142" s="117" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="115" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="B143" s="116"/>
       <c r="C143" s="116" t="s">
         <v>305</v>
       </c>
       <c r="D143" s="117" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="115" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="B144" s="116"/>
       <c r="C144" s="116" t="s">
         <v>306</v>
       </c>
       <c r="D144" s="117" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="115" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="B145" s="116"/>
       <c r="C145" s="116" t="s">
         <v>307</v>
       </c>
       <c r="D145" s="117" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="120" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="B146" s="121"/>
       <c r="C146" s="121" t="s">
         <v>307</v>
       </c>
       <c r="D146" s="122" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
     </row>
   </sheetData>
@@ -13468,7 +13468,7 @@
         <v>1185</v>
       </c>
       <c r="C1" s="128" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="D1" s="128" t="s">
         <v>1186</v>
@@ -13501,7 +13501,7 @@
       </c>
       <c r="C2" s="42"/>
       <c r="D2" s="42" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="E2" s="42" t="s">
         <v>31</v>
@@ -13529,7 +13529,7 @@
       </c>
       <c r="C3" s="42"/>
       <c r="D3" s="42" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="E3" s="42" t="s">
         <v>31</v>
@@ -13542,7 +13542,7 @@
         <v>1231</v>
       </c>
       <c r="I3" s="42" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="J3" s="42">
         <v>3000</v>
@@ -13557,14 +13557,14 @@
       </c>
       <c r="C4" s="42"/>
       <c r="D4" s="42" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="E4" s="42" t="s">
         <v>31</v>
       </c>
       <c r="F4" s="42"/>
       <c r="G4" s="42" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="H4" s="42" t="s">
         <v>1231</v>
@@ -13581,7 +13581,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="C5" s="42"/>
       <c r="D5" s="42" t="s">
@@ -13640,19 +13640,19 @@
         <v>1226</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="E7" s="42" t="s">
         <v>31</v>
       </c>
       <c r="F7" s="42" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="G7" s="42" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="H7" s="42" t="s">
         <v>1231</v>
@@ -13669,20 +13669,20 @@
         <v>7</v>
       </c>
       <c r="B8" s="42" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D8" s="42" t="s">
         <v>1260</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>1261</v>
-      </c>
-      <c r="D8" s="42" t="s">
-        <v>1262</v>
       </c>
       <c r="E8" s="42" t="s">
         <v>31</v>
       </c>
       <c r="F8" s="42"/>
       <c r="G8" s="42" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="H8" s="42" t="s">
         <v>1231</v>
@@ -13702,17 +13702,17 @@
         <v>1223</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="E9" s="42" t="s">
         <v>1200</v>
       </c>
       <c r="F9" s="42"/>
       <c r="G9" s="42" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="H9" s="42" t="s">
         <v>1231</v>
@@ -13733,7 +13733,7 @@
       </c>
       <c r="C10" s="92"/>
       <c r="D10" s="92" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="E10" s="92" t="s">
         <v>1200</v>
@@ -13755,11 +13755,11 @@
         <v>10</v>
       </c>
       <c r="B11" s="96" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="C11" s="96"/>
       <c r="D11" s="96" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="E11" s="96" t="s">
         <v>1200</v>
@@ -13778,7 +13778,7 @@
       </c>
       <c r="J11" s="96"/>
       <c r="K11" s="136" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -13786,11 +13786,11 @@
         <v>11</v>
       </c>
       <c r="B12" s="96" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="C12" s="96"/>
       <c r="D12" s="96" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="E12" s="96" t="s">
         <v>1200</v>
@@ -13809,7 +13809,7 @@
       </c>
       <c r="J12" s="97"/>
       <c r="K12" s="136" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -13821,14 +13821,14 @@
       </c>
       <c r="C13" s="96"/>
       <c r="D13" s="96" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="E13" s="96" t="s">
         <v>1200</v>
       </c>
       <c r="F13" s="96"/>
       <c r="G13" s="96" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="H13" s="97" t="s">
         <v>1231</v>
@@ -13838,7 +13838,7 @@
       </c>
       <c r="J13" s="96"/>
       <c r="K13" s="136" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -13849,17 +13849,17 @@
         <v>1224</v>
       </c>
       <c r="C14" s="94" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="D14" s="94" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="E14" s="94" t="s">
         <v>1200</v>
       </c>
       <c r="F14" s="94"/>
       <c r="G14" s="94" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="H14" s="100" t="s">
         <v>1231</v>
@@ -13879,17 +13879,17 @@
         <v>1225</v>
       </c>
       <c r="C15" s="92" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="D15" s="92" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="E15" s="92" t="s">
         <v>1200</v>
       </c>
       <c r="F15" s="93"/>
       <c r="G15" s="92" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="H15" s="93" t="s">
         <v>1231</v>
@@ -13910,14 +13910,14 @@
       </c>
       <c r="C16" s="96"/>
       <c r="D16" s="96" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="E16" s="96" t="s">
         <v>1200</v>
       </c>
       <c r="F16" s="97"/>
       <c r="G16" s="96" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="H16" s="96" t="s">
         <v>1231</v>
@@ -13927,7 +13927,7 @@
       </c>
       <c r="J16" s="96"/>
       <c r="K16" s="136" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -13939,14 +13939,14 @@
       </c>
       <c r="C17" s="96"/>
       <c r="D17" s="96" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="E17" s="96" t="s">
         <v>1200</v>
       </c>
       <c r="F17" s="97"/>
       <c r="G17" s="96" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="H17" s="96" t="s">
         <v>1231</v>
@@ -13956,7 +13956,7 @@
       </c>
       <c r="J17" s="98"/>
       <c r="K17" s="136" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -13968,14 +13968,14 @@
       </c>
       <c r="C18" s="96"/>
       <c r="D18" s="96" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="E18" s="96" t="s">
         <v>1200</v>
       </c>
       <c r="F18" s="96"/>
       <c r="G18" s="96" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="H18" s="96" t="s">
         <v>1231</v>
@@ -13985,7 +13985,7 @@
       </c>
       <c r="J18" s="98"/>
       <c r="K18" s="136" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -13997,7 +13997,7 @@
       </c>
       <c r="C19" s="94"/>
       <c r="D19" s="94" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="E19" s="94" t="s">
         <v>31</v>
@@ -14060,7 +14060,7 @@
       </c>
       <c r="F21" s="42"/>
       <c r="G21" s="42" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="H21" s="42" t="s">
         <v>1192</v>
@@ -14144,7 +14144,7 @@
       </c>
       <c r="F24" s="42"/>
       <c r="G24" s="42" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="H24" s="42" t="s">
         <v>1192</v>
@@ -14168,11 +14168,11 @@
         <v>1234</v>
       </c>
       <c r="E25" s="42" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="F25" s="42"/>
       <c r="G25" s="42" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="H25" s="42" t="s">
         <v>1192</v>
@@ -14196,11 +14196,11 @@
         <v>1235</v>
       </c>
       <c r="E26" s="44" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="F26" s="44"/>
       <c r="G26" s="44" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="H26" s="44" t="s">
         <v>1192</v>
@@ -14217,18 +14217,18 @@
         <v>26</v>
       </c>
       <c r="B27" s="101" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="C27" s="101"/>
       <c r="D27" s="101" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="E27" s="101" t="s">
         <v>1200</v>
       </c>
       <c r="F27" s="101"/>
       <c r="G27" s="101" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="H27" s="101" t="s">
         <v>1231</v>
@@ -14238,7 +14238,7 @@
       </c>
       <c r="J27" s="101"/>
       <c r="K27" s="136" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -14246,22 +14246,22 @@
         <v>27</v>
       </c>
       <c r="B28" s="106" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="C28" s="106" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="D28" s="106" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="E28" s="106" t="s">
         <v>31</v>
       </c>
       <c r="F28" s="106" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="G28" s="106" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="H28" s="106" t="s">
         <v>1231</v>
@@ -14278,20 +14278,20 @@
         <v>28</v>
       </c>
       <c r="B29" s="106" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="C29" s="106" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="D29" s="106" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="E29" s="106" t="s">
         <v>1200</v>
       </c>
       <c r="F29" s="106"/>
       <c r="G29" s="106" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="H29" s="106" t="s">
         <v>1231</v>
@@ -14338,7 +14338,7 @@
         <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -14386,7 +14386,7 @@
         <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -14394,7 +14394,7 @@
         <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -14418,7 +14418,7 @@
         <v>54</v>
       </c>
       <c r="B12" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -14442,7 +14442,7 @@
         <v>1210</v>
       </c>
       <c r="B15" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -14490,7 +14490,7 @@
         <v>1191</v>
       </c>
       <c r="B21" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -14503,7 +14503,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="36" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="B23" t="s">
         <v>1220</v>
@@ -14511,10 +14511,10 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -14522,15 +14522,15 @@
         <v>1194</v>
       </c>
       <c r="B25" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="B26" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
     </row>
   </sheetData>
@@ -25500,7 +25500,7 @@
         <v>59</v>
       </c>
       <c r="C2" s="132" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="63.75" customHeight="1">
@@ -25508,10 +25508,10 @@
         <v>409</v>
       </c>
       <c r="B3" s="130" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="C3" s="130" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="45">
@@ -25522,35 +25522,35 @@
         <v>60</v>
       </c>
       <c r="C4" s="130" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="45">
       <c r="A5" s="131" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B5" s="131" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C5" s="131" t="s">
         <v>1540</v>
       </c>
-      <c r="B5" s="131" t="s">
-        <v>1541</v>
-      </c>
-      <c r="C5" s="131" t="s">
-        <v>1542</v>
-      </c>
       <c r="D5" s="133" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30">
       <c r="A6" s="131" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B6" s="131" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C6" s="131" t="s">
         <v>1543</v>
       </c>
-      <c r="B6" s="131" t="s">
-        <v>1544</v>
-      </c>
-      <c r="C6" s="131" t="s">
-        <v>1545</v>
-      </c>
       <c r="D6" s="133" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -25558,13 +25558,13 @@
         <v>63</v>
       </c>
       <c r="B7" s="131" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="C7" s="131" t="s">
+        <v>1545</v>
+      </c>
+      <c r="D7" s="133" t="s">
         <v>1547</v>
-      </c>
-      <c r="D7" s="133" t="s">
-        <v>1549</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30">
@@ -25572,13 +25572,13 @@
         <v>436</v>
       </c>
       <c r="B8" s="134" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="C8" s="134" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="D8" s="135" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -25589,7 +25589,7 @@
         <v>62</v>
       </c>
       <c r="C9" s="132" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
     </row>
   </sheetData>
@@ -25665,7 +25665,7 @@
         <v>73</v>
       </c>
       <c r="C6" s="105" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
       <c r="D6" s="74"/>
     </row>
@@ -26290,7 +26290,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="75" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="B1" s="76" t="s">
         <v>74</v>
@@ -26320,13 +26320,13 @@
         <v>82</v>
       </c>
       <c r="K1" s="76" t="s">
+        <v>1333</v>
+      </c>
+      <c r="L1" s="76" t="s">
+        <v>1334</v>
+      </c>
+      <c r="M1" s="76" t="s">
         <v>1335</v>
-      </c>
-      <c r="L1" s="76" t="s">
-        <v>1336</v>
-      </c>
-      <c r="M1" s="76" t="s">
-        <v>1337</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -26352,10 +26352,10 @@
         <v>411</v>
       </c>
       <c r="H2" s="75" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="I2" s="75" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="J2" s="78" t="s">
         <v>180</v>
@@ -26384,10 +26384,10 @@
         <v>224</v>
       </c>
       <c r="G3" s="75" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="H3" s="75" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="I3" s="75" t="s">
         <v>225</v>
@@ -26425,10 +26425,10 @@
         <v>411</v>
       </c>
       <c r="H4" s="75" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="I4" s="75" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="J4" s="78" t="s">
         <v>172</v>
@@ -26466,10 +26466,10 @@
         <v>411</v>
       </c>
       <c r="H5" s="75" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="I5" s="75" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="J5" s="78" t="s">
         <v>179</v>
@@ -26507,10 +26507,10 @@
         <v>411</v>
       </c>
       <c r="H6" s="75" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="I6" s="75" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="J6" s="78" t="s">
         <v>163</v>
@@ -26542,10 +26542,10 @@
         <v>411</v>
       </c>
       <c r="H7" s="75" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="I7" s="75" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="J7" s="78" t="s">
         <v>162</v>
@@ -26580,10 +26580,10 @@
         <v>411</v>
       </c>
       <c r="H8" s="75" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="I8" s="75" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="J8" s="78" t="s">
         <v>174</v>
@@ -26618,10 +26618,10 @@
         <v>411</v>
       </c>
       <c r="H9" s="75" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="I9" s="75" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="J9" s="78" t="s">
         <v>175</v>
@@ -26653,10 +26653,10 @@
         <v>411</v>
       </c>
       <c r="H10" s="75" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="I10" s="75" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="J10" s="78" t="s">
         <v>164</v>
@@ -26685,10 +26685,10 @@
         <v>224</v>
       </c>
       <c r="G11" s="75" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="H11" s="75" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="I11" s="75" t="s">
         <v>225</v>
@@ -26723,10 +26723,10 @@
         <v>411</v>
       </c>
       <c r="H12" s="75" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="I12" s="75" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="J12" s="78" t="s">
         <v>181</v>
@@ -26755,13 +26755,13 @@
         <v>85</v>
       </c>
       <c r="G13" s="75" t="s">
+        <v>1345</v>
+      </c>
+      <c r="H13" s="75" t="s">
+        <v>1346</v>
+      </c>
+      <c r="I13" s="75" t="s">
         <v>1347</v>
-      </c>
-      <c r="H13" s="75" t="s">
-        <v>1348</v>
-      </c>
-      <c r="I13" s="75" t="s">
-        <v>1349</v>
       </c>
       <c r="J13" s="78" t="s">
         <v>186</v>
@@ -26793,10 +26793,10 @@
         <v>411</v>
       </c>
       <c r="H14" s="75" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="I14" s="75" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="J14" s="78" t="s">
         <v>171</v>
@@ -26828,10 +26828,10 @@
         <v>411</v>
       </c>
       <c r="H15" s="75" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="I15" s="75" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="J15" s="78" t="s">
         <v>165</v>
@@ -26863,10 +26863,10 @@
         <v>451</v>
       </c>
       <c r="H16" s="75" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="I16" s="75" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="J16" s="78" t="s">
         <v>129</v>
@@ -26898,10 +26898,10 @@
         <v>411</v>
       </c>
       <c r="H17" s="75" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="I17" s="75" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="J17" s="78" t="s">
         <v>166</v>
@@ -26930,13 +26930,13 @@
         <v>85</v>
       </c>
       <c r="G18" s="75" t="s">
+        <v>1345</v>
+      </c>
+      <c r="H18" s="75" t="s">
+        <v>1346</v>
+      </c>
+      <c r="I18" s="75" t="s">
         <v>1347</v>
-      </c>
-      <c r="H18" s="75" t="s">
-        <v>1348</v>
-      </c>
-      <c r="I18" s="75" t="s">
-        <v>1349</v>
       </c>
       <c r="J18" s="78" t="s">
         <v>184</v>
@@ -26965,13 +26965,13 @@
         <v>215</v>
       </c>
       <c r="G19" s="75" t="s">
+        <v>1351</v>
+      </c>
+      <c r="H19" s="75" t="s">
+        <v>1352</v>
+      </c>
+      <c r="I19" s="75" t="s">
         <v>1353</v>
-      </c>
-      <c r="H19" s="75" t="s">
-        <v>1354</v>
-      </c>
-      <c r="I19" s="75" t="s">
-        <v>1355</v>
       </c>
       <c r="J19" s="78" t="s">
         <v>222</v>
@@ -27003,10 +27003,10 @@
         <v>411</v>
       </c>
       <c r="H20" s="75" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="I20" s="75" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="J20" s="78" t="s">
         <v>182</v>
@@ -27035,10 +27035,10 @@
         <v>85</v>
       </c>
       <c r="G21" s="75" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="H21" s="75" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="I21" s="75" t="s">
         <v>212</v>
@@ -27070,13 +27070,13 @@
         <v>224</v>
       </c>
       <c r="G22" s="75" t="s">
+        <v>1355</v>
+      </c>
+      <c r="H22" s="75" t="s">
+        <v>1356</v>
+      </c>
+      <c r="I22" s="75" t="s">
         <v>1357</v>
-      </c>
-      <c r="H22" s="75" t="s">
-        <v>1358</v>
-      </c>
-      <c r="I22" s="75" t="s">
-        <v>1359</v>
       </c>
       <c r="J22" s="78" t="s">
         <v>229</v>
@@ -27105,13 +27105,13 @@
         <v>224</v>
       </c>
       <c r="G23" s="75" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="H23" s="75" t="s">
+        <v>1356</v>
+      </c>
+      <c r="I23" s="75" t="s">
         <v>1358</v>
-      </c>
-      <c r="I23" s="75" t="s">
-        <v>1360</v>
       </c>
       <c r="J23" s="78" t="s">
         <v>235</v>
@@ -27143,10 +27143,10 @@
         <v>411</v>
       </c>
       <c r="H24" s="75" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="I24" s="75" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="J24" s="78" t="s">
         <v>176</v>
@@ -27178,10 +27178,10 @@
         <v>411</v>
       </c>
       <c r="H25" s="75" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="I25" s="75" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="J25" s="78" t="s">
         <v>177</v>
@@ -27213,10 +27213,10 @@
         <v>411</v>
       </c>
       <c r="H26" s="75" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="I26" s="75" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="J26" s="78" t="s">
         <v>178</v>
@@ -27245,13 +27245,13 @@
         <v>85</v>
       </c>
       <c r="G27" s="75" t="s">
+        <v>1345</v>
+      </c>
+      <c r="H27" s="75" t="s">
+        <v>1346</v>
+      </c>
+      <c r="I27" s="75" t="s">
         <v>1347</v>
-      </c>
-      <c r="H27" s="75" t="s">
-        <v>1348</v>
-      </c>
-      <c r="I27" s="75" t="s">
-        <v>1349</v>
       </c>
       <c r="J27" s="78" t="s">
         <v>183</v>
@@ -27280,13 +27280,13 @@
         <v>85</v>
       </c>
       <c r="G28" s="75" t="s">
+        <v>1345</v>
+      </c>
+      <c r="H28" s="75" t="s">
+        <v>1346</v>
+      </c>
+      <c r="I28" s="75" t="s">
         <v>1347</v>
-      </c>
-      <c r="H28" s="75" t="s">
-        <v>1348</v>
-      </c>
-      <c r="I28" s="75" t="s">
-        <v>1349</v>
       </c>
       <c r="J28" s="78" t="s">
         <v>185</v>
@@ -27315,13 +27315,13 @@
         <v>215</v>
       </c>
       <c r="G29" s="75" t="s">
+        <v>1360</v>
+      </c>
+      <c r="H29" s="75" t="s">
+        <v>1361</v>
+      </c>
+      <c r="I29" s="75" t="s">
         <v>1362</v>
-      </c>
-      <c r="H29" s="75" t="s">
-        <v>1363</v>
-      </c>
-      <c r="I29" s="75" t="s">
-        <v>1364</v>
       </c>
       <c r="J29" s="78" t="s">
         <v>214</v>
@@ -27350,13 +27350,13 @@
         <v>85</v>
       </c>
       <c r="G30" s="75" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="H30" s="75" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="I30" s="75" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="J30" s="78" t="s">
         <v>190</v>
@@ -27385,13 +27385,13 @@
         <v>85</v>
       </c>
       <c r="G31" s="75" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="H31" s="75" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="I31" s="75" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="J31" s="78" t="s">
         <v>193</v>
@@ -27423,10 +27423,10 @@
         <v>451</v>
       </c>
       <c r="H32" s="75" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="I32" s="75" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="J32" s="78" t="s">
         <v>126</v>
@@ -27458,10 +27458,10 @@
         <v>451</v>
       </c>
       <c r="H33" s="75" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="I33" s="75" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="J33" s="78" t="s">
         <v>161</v>
@@ -27490,13 +27490,13 @@
         <v>224</v>
       </c>
       <c r="G34" s="75" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="H34" s="75" t="s">
+        <v>1356</v>
+      </c>
+      <c r="I34" s="75" t="s">
         <v>1358</v>
-      </c>
-      <c r="I34" s="75" t="s">
-        <v>1360</v>
       </c>
       <c r="J34" s="78" t="s">
         <v>236</v>
@@ -27525,13 +27525,13 @@
         <v>224</v>
       </c>
       <c r="G35" s="75" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="H35" s="75" t="s">
+        <v>1356</v>
+      </c>
+      <c r="I35" s="75" t="s">
         <v>1358</v>
-      </c>
-      <c r="I35" s="75" t="s">
-        <v>1360</v>
       </c>
       <c r="J35" s="78" t="s">
         <v>232</v>
@@ -27560,13 +27560,13 @@
         <v>224</v>
       </c>
       <c r="G36" s="75" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="H36" s="75" t="s">
+        <v>1356</v>
+      </c>
+      <c r="I36" s="75" t="s">
         <v>1358</v>
-      </c>
-      <c r="I36" s="75" t="s">
-        <v>1360</v>
       </c>
       <c r="J36" s="78" t="s">
         <v>231</v>
@@ -27595,13 +27595,13 @@
         <v>85</v>
       </c>
       <c r="G37" s="75" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="H37" s="75" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="I37" s="75" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="J37" s="78" t="s">
         <v>187</v>
@@ -27630,13 +27630,13 @@
         <v>215</v>
       </c>
       <c r="G38" s="75" t="s">
+        <v>1360</v>
+      </c>
+      <c r="H38" s="75" t="s">
+        <v>1361</v>
+      </c>
+      <c r="I38" s="75" t="s">
         <v>1362</v>
-      </c>
-      <c r="H38" s="75" t="s">
-        <v>1363</v>
-      </c>
-      <c r="I38" s="75" t="s">
-        <v>1364</v>
       </c>
       <c r="J38" s="78" t="s">
         <v>216</v>
@@ -27665,13 +27665,13 @@
         <v>224</v>
       </c>
       <c r="G39" s="75" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="H39" s="75" t="s">
+        <v>1356</v>
+      </c>
+      <c r="I39" s="75" t="s">
         <v>1358</v>
-      </c>
-      <c r="I39" s="75" t="s">
-        <v>1360</v>
       </c>
       <c r="J39" s="78" t="s">
         <v>233</v>
@@ -27700,13 +27700,13 @@
         <v>85</v>
       </c>
       <c r="G40" s="75" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="H40" s="75" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="I40" s="75" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="J40" s="78" t="s">
         <v>188</v>
@@ -27735,13 +27735,13 @@
         <v>224</v>
       </c>
       <c r="G41" s="75" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="H41" s="75" t="s">
+        <v>1356</v>
+      </c>
+      <c r="I41" s="75" t="s">
         <v>1358</v>
-      </c>
-      <c r="I41" s="75" t="s">
-        <v>1360</v>
       </c>
       <c r="J41" s="78" t="s">
         <v>234</v>
@@ -27770,13 +27770,13 @@
         <v>224</v>
       </c>
       <c r="G42" s="75" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="H42" s="75" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="I42" s="75" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="J42" s="78" t="s">
         <v>239</v>
@@ -27805,13 +27805,13 @@
         <v>215</v>
       </c>
       <c r="G43" s="75" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="H43" s="75" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="I43" s="75" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="J43" s="78" t="s">
         <v>220</v>
@@ -27840,13 +27840,13 @@
         <v>85</v>
       </c>
       <c r="G44" s="75" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="H44" s="75" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="I44" s="75" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="J44" s="78" t="s">
         <v>189</v>
@@ -27875,13 +27875,13 @@
         <v>224</v>
       </c>
       <c r="G45" s="75" t="s">
+        <v>1355</v>
+      </c>
+      <c r="H45" s="75" t="s">
+        <v>1356</v>
+      </c>
+      <c r="I45" s="75" t="s">
         <v>1357</v>
-      </c>
-      <c r="H45" s="75" t="s">
-        <v>1358</v>
-      </c>
-      <c r="I45" s="75" t="s">
-        <v>1359</v>
       </c>
       <c r="J45" s="78" t="s">
         <v>228</v>
@@ -27913,10 +27913,10 @@
         <v>411</v>
       </c>
       <c r="H46" s="75" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="I46" s="75" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="J46" s="78" t="s">
         <v>170</v>
@@ -27945,13 +27945,13 @@
         <v>85</v>
       </c>
       <c r="G47" s="75" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="H47" s="75" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="I47" s="75" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="J47" s="78" t="s">
         <v>191</v>
@@ -27983,10 +27983,10 @@
         <v>411</v>
       </c>
       <c r="H48" s="75" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="I48" s="75" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="J48" s="78" t="s">
         <v>173</v>
@@ -28018,10 +28018,10 @@
         <v>451</v>
       </c>
       <c r="H49" s="75" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="I49" s="75" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="J49" s="78" t="s">
         <v>144</v>
@@ -28050,13 +28050,13 @@
         <v>224</v>
       </c>
       <c r="G50" s="75" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="H50" s="75" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="I50" s="75" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="J50" s="78" t="s">
         <v>238</v>
@@ -28085,13 +28085,13 @@
         <v>224</v>
       </c>
       <c r="G51" s="75" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="H51" s="75" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="I51" s="75" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="J51" s="78" t="s">
         <v>237</v>
@@ -28120,13 +28120,13 @@
         <v>215</v>
       </c>
       <c r="G52" s="75" t="s">
+        <v>1351</v>
+      </c>
+      <c r="H52" s="75" t="s">
+        <v>1352</v>
+      </c>
+      <c r="I52" s="75" t="s">
         <v>1353</v>
-      </c>
-      <c r="H52" s="75" t="s">
-        <v>1354</v>
-      </c>
-      <c r="I52" s="75" t="s">
-        <v>1355</v>
       </c>
       <c r="J52" s="78" t="s">
         <v>221</v>
@@ -28158,10 +28158,10 @@
         <v>411</v>
       </c>
       <c r="H53" s="75" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="I53" s="75" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="J53" s="78" t="s">
         <v>167</v>
@@ -28190,13 +28190,13 @@
         <v>224</v>
       </c>
       <c r="G54" s="75" t="s">
+        <v>1355</v>
+      </c>
+      <c r="H54" s="75" t="s">
+        <v>1356</v>
+      </c>
+      <c r="I54" s="75" t="s">
         <v>1357</v>
-      </c>
-      <c r="H54" s="75" t="s">
-        <v>1358</v>
-      </c>
-      <c r="I54" s="75" t="s">
-        <v>1359</v>
       </c>
       <c r="J54" s="78" t="s">
         <v>227</v>
@@ -28225,13 +28225,13 @@
         <v>85</v>
       </c>
       <c r="G55" s="75" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="H55" s="75" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="I55" s="75" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="J55" s="78" t="s">
         <v>196</v>
@@ -28263,10 +28263,10 @@
         <v>411</v>
       </c>
       <c r="H56" s="75" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="I56" s="75" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="J56" s="78" t="s">
         <v>168</v>
@@ -28295,10 +28295,10 @@
         <v>85</v>
       </c>
       <c r="G57" s="75" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="H57" s="75" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="I57" s="75" t="s">
         <v>203</v>
@@ -28333,10 +28333,10 @@
         <v>411</v>
       </c>
       <c r="H58" s="75" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="I58" s="75" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="J58" s="78" t="s">
         <v>169</v>
@@ -28365,10 +28365,10 @@
         <v>85</v>
       </c>
       <c r="G59" s="75" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="H59" s="75" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="I59" s="75" t="s">
         <v>203</v>
@@ -28403,10 +28403,10 @@
         <v>451</v>
       </c>
       <c r="H60" s="75" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="I60" s="75" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="J60" s="78" t="s">
         <v>95</v>
@@ -28438,10 +28438,10 @@
         <v>451</v>
       </c>
       <c r="H61" s="75" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="I61" s="75" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="J61" s="78" t="s">
         <v>97</v>
@@ -28473,10 +28473,10 @@
         <v>451</v>
       </c>
       <c r="H62" s="75" t="s">
+        <v>1371</v>
+      </c>
+      <c r="I62" s="75" t="s">
         <v>1373</v>
-      </c>
-      <c r="I62" s="75" t="s">
-        <v>1375</v>
       </c>
       <c r="J62" s="78" t="s">
         <v>99</v>
@@ -28508,10 +28508,10 @@
         <v>451</v>
       </c>
       <c r="H63" s="75" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="I63" s="75" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="J63" s="78" t="s">
         <v>98</v>
@@ -28543,10 +28543,10 @@
         <v>451</v>
       </c>
       <c r="H64" s="75" t="s">
+        <v>1371</v>
+      </c>
+      <c r="I64" s="75" t="s">
         <v>1373</v>
-      </c>
-      <c r="I64" s="75" t="s">
-        <v>1375</v>
       </c>
       <c r="J64" s="78" t="s">
         <v>100</v>
@@ -28575,13 +28575,13 @@
         <v>224</v>
       </c>
       <c r="G65" s="75" t="s">
+        <v>1355</v>
+      </c>
+      <c r="H65" s="75" t="s">
+        <v>1356</v>
+      </c>
+      <c r="I65" s="75" t="s">
         <v>1357</v>
-      </c>
-      <c r="H65" s="75" t="s">
-        <v>1358</v>
-      </c>
-      <c r="I65" s="75" t="s">
-        <v>1359</v>
       </c>
       <c r="J65" s="78" t="s">
         <v>230</v>
@@ -28610,13 +28610,13 @@
         <v>85</v>
       </c>
       <c r="G66" s="75" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="H66" s="75" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="I66" s="75" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="J66" s="78" t="s">
         <v>192</v>
@@ -28645,13 +28645,13 @@
         <v>215</v>
       </c>
       <c r="G67" s="75" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="H67" s="75" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="I67" s="75" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="J67" s="78" t="s">
         <v>218</v>
@@ -28680,13 +28680,13 @@
         <v>215</v>
       </c>
       <c r="G68" s="75" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="H68" s="75" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="I68" s="75" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="J68" s="78" t="s">
         <v>217</v>
@@ -28715,13 +28715,13 @@
         <v>215</v>
       </c>
       <c r="G69" s="75" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="H69" s="75" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="I69" s="75" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="J69" s="78" t="s">
         <v>219</v>
@@ -28750,13 +28750,13 @@
         <v>85</v>
       </c>
       <c r="G70" s="75" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="H70" s="75" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="I70" s="75" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="J70" s="78" t="s">
         <v>200</v>
@@ -28788,10 +28788,10 @@
         <v>451</v>
       </c>
       <c r="H71" s="75" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="I71" s="75" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="J71" s="78" t="s">
         <v>104</v>
@@ -28823,10 +28823,10 @@
         <v>451</v>
       </c>
       <c r="H72" s="75" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="I72" s="75" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="J72" s="78" t="s">
         <v>106</v>
@@ -28855,13 +28855,13 @@
         <v>85</v>
       </c>
       <c r="G73" s="75" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="H73" s="75" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="I73" s="75" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="J73" s="78" t="s">
         <v>194</v>
@@ -28890,13 +28890,13 @@
         <v>85</v>
       </c>
       <c r="G74" s="75" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="H74" s="75" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="I74" s="75" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="J74" s="78" t="s">
         <v>197</v>
@@ -28925,13 +28925,13 @@
         <v>85</v>
       </c>
       <c r="G75" s="75" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="H75" s="75" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="I75" s="75" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="J75" s="78" t="s">
         <v>198</v>
@@ -28960,13 +28960,13 @@
         <v>85</v>
       </c>
       <c r="G76" s="75" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="H76" s="75" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="I76" s="75" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="J76" s="78" t="s">
         <v>201</v>
@@ -28995,13 +28995,13 @@
         <v>85</v>
       </c>
       <c r="G77" s="75" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="H77" s="75" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="I77" s="75" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="J77" s="78" t="s">
         <v>199</v>
@@ -29033,10 +29033,10 @@
         <v>451</v>
       </c>
       <c r="H78" s="75" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="I78" s="75" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="J78" s="78" t="s">
         <v>156</v>
@@ -29068,10 +29068,10 @@
         <v>451</v>
       </c>
       <c r="H79" s="75" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="I79" s="75" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="J79" s="78" t="s">
         <v>127</v>
@@ -29100,10 +29100,10 @@
         <v>85</v>
       </c>
       <c r="G80" s="75" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="H80" s="75" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="I80" s="75" t="s">
         <v>209</v>
@@ -29138,10 +29138,10 @@
         <v>451</v>
       </c>
       <c r="H81" s="75" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="I81" s="75" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="J81" s="78" t="s">
         <v>160</v>
@@ -29173,10 +29173,10 @@
         <v>451</v>
       </c>
       <c r="H82" s="75" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="I82" s="75" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="J82" s="78" t="s">
         <v>157</v>
@@ -29208,10 +29208,10 @@
         <v>451</v>
       </c>
       <c r="H83" s="75" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="I83" s="75" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="J83" s="78" t="s">
         <v>159</v>
@@ -29240,13 +29240,13 @@
         <v>85</v>
       </c>
       <c r="G84" s="75" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="H84" s="75" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="I84" s="75" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="J84" s="78" t="s">
         <v>195</v>
@@ -29278,10 +29278,10 @@
         <v>451</v>
       </c>
       <c r="H85" s="75" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="I85" s="75" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="J85" s="78" t="s">
         <v>153</v>
@@ -29313,10 +29313,10 @@
         <v>451</v>
       </c>
       <c r="H86" s="75" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="I86" s="75" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="J86" s="78" t="s">
         <v>152</v>
@@ -29348,10 +29348,10 @@
         <v>451</v>
       </c>
       <c r="H87" s="75" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="I87" s="75" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="J87" s="78" t="s">
         <v>150</v>
@@ -29383,10 +29383,10 @@
         <v>451</v>
       </c>
       <c r="H88" s="75" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="I88" s="75" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="J88" s="78" t="s">
         <v>151</v>
@@ -29418,10 +29418,10 @@
         <v>451</v>
       </c>
       <c r="H89" s="75" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="I89" s="75" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="J89" s="78" t="s">
         <v>130</v>
@@ -29453,10 +29453,10 @@
         <v>451</v>
       </c>
       <c r="H90" s="75" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="I90" s="75" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="J90" s="78" t="s">
         <v>154</v>
@@ -29488,10 +29488,10 @@
         <v>451</v>
       </c>
       <c r="H91" s="75" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="I91" s="75" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="J91" s="78" t="s">
         <v>140</v>
@@ -29523,10 +29523,10 @@
         <v>451</v>
       </c>
       <c r="H92" s="75" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="I92" s="75" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="J92" s="78" t="s">
         <v>147</v>
@@ -29558,10 +29558,10 @@
         <v>451</v>
       </c>
       <c r="H93" s="75" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="I93" s="75" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="J93" s="78" t="s">
         <v>137</v>
@@ -29593,10 +29593,10 @@
         <v>451</v>
       </c>
       <c r="H94" s="75" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="I94" s="75" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="J94" s="78" t="s">
         <v>136</v>
@@ -29628,10 +29628,10 @@
         <v>451</v>
       </c>
       <c r="H95" s="75" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="I95" s="75" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="J95" s="78" t="s">
         <v>139</v>
@@ -29663,10 +29663,10 @@
         <v>451</v>
       </c>
       <c r="H96" s="75" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="I96" s="75" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="J96" s="78" t="s">
         <v>142</v>
@@ -29698,10 +29698,10 @@
         <v>451</v>
       </c>
       <c r="H97" s="75" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="I97" s="75" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="J97" s="78" t="s">
         <v>128</v>
@@ -29733,10 +29733,10 @@
         <v>451</v>
       </c>
       <c r="H98" s="75" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="I98" s="75" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="J98" s="78" t="s">
         <v>141</v>
@@ -29768,10 +29768,10 @@
         <v>451</v>
       </c>
       <c r="H99" s="75" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="I99" s="75" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="J99" s="78" t="s">
         <v>132</v>
@@ -29803,10 +29803,10 @@
         <v>451</v>
       </c>
       <c r="H100" s="75" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="I100" s="75" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="J100" s="78" t="s">
         <v>133</v>
@@ -29838,10 +29838,10 @@
         <v>451</v>
       </c>
       <c r="H101" s="75" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="I101" s="75" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="J101" s="78" t="s">
         <v>134</v>
@@ -29873,10 +29873,10 @@
         <v>451</v>
       </c>
       <c r="H102" s="75" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="I102" s="75" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="J102" s="78" t="s">
         <v>124</v>
@@ -29908,10 +29908,10 @@
         <v>451</v>
       </c>
       <c r="H103" s="75" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="I103" s="75" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="J103" s="78" t="s">
         <v>131</v>
@@ -29943,10 +29943,10 @@
         <v>451</v>
       </c>
       <c r="H104" s="75" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="I104" s="75" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="J104" s="78" t="s">
         <v>149</v>
@@ -29978,10 +29978,10 @@
         <v>451</v>
       </c>
       <c r="H105" s="75" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="I105" s="75" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="J105" s="78" t="s">
         <v>148</v>
@@ -30013,10 +30013,10 @@
         <v>451</v>
       </c>
       <c r="H106" s="75" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="I106" s="75" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="J106" s="78" t="s">
         <v>143</v>
@@ -30048,10 +30048,10 @@
         <v>451</v>
       </c>
       <c r="H107" s="75" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="I107" s="75" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="J107" s="78" t="s">
         <v>146</v>
@@ -30083,10 +30083,10 @@
         <v>451</v>
       </c>
       <c r="H108" s="75" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="I108" s="75" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="J108" s="78" t="s">
         <v>158</v>
@@ -30118,10 +30118,10 @@
         <v>451</v>
       </c>
       <c r="H109" s="75" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="I109" s="75" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="J109" s="78" t="s">
         <v>145</v>
@@ -30153,10 +30153,10 @@
         <v>451</v>
       </c>
       <c r="H110" s="75" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="I110" s="75" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="J110" s="78" t="s">
         <v>138</v>
@@ -30188,10 +30188,10 @@
         <v>451</v>
       </c>
       <c r="H111" s="75" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="I111" s="75" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="J111" s="78" t="s">
         <v>125</v>
@@ -30223,10 +30223,10 @@
         <v>451</v>
       </c>
       <c r="H112" s="75" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="I112" s="75" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="J112" s="78" t="s">
         <v>135</v>
@@ -30258,10 +30258,10 @@
         <v>451</v>
       </c>
       <c r="H113" s="75" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="I113" s="75" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="J113" s="78" t="s">
         <v>105</v>
@@ -30293,10 +30293,10 @@
         <v>451</v>
       </c>
       <c r="H114" s="75" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="I114" s="75" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="J114" s="78" t="s">
         <v>111</v>
@@ -30328,10 +30328,10 @@
         <v>451</v>
       </c>
       <c r="H115" s="75" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="I115" s="75" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="J115" s="78" t="s">
         <v>120</v>
@@ -30363,10 +30363,10 @@
         <v>451</v>
       </c>
       <c r="H116" s="75" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="I116" s="75" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="J116" s="78" t="s">
         <v>121</v>
@@ -30398,10 +30398,10 @@
         <v>451</v>
       </c>
       <c r="H117" s="75" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="I117" s="75" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="J117" s="78" t="s">
         <v>122</v>
@@ -30433,10 +30433,10 @@
         <v>451</v>
       </c>
       <c r="H118" s="75" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="I118" s="75" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="J118" s="78" t="s">
         <v>115</v>
@@ -30468,10 +30468,10 @@
         <v>451</v>
       </c>
       <c r="H119" s="75" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="I119" s="75" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="J119" s="78" t="s">
         <v>102</v>
@@ -30503,10 +30503,10 @@
         <v>451</v>
       </c>
       <c r="H120" s="75" t="s">
+        <v>1371</v>
+      </c>
+      <c r="I120" s="75" t="s">
         <v>1373</v>
-      </c>
-      <c r="I120" s="75" t="s">
-        <v>1375</v>
       </c>
       <c r="J120" s="78" t="s">
         <v>101</v>
@@ -30538,10 +30538,10 @@
         <v>451</v>
       </c>
       <c r="H121" s="75" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="I121" s="75" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="J121" s="78" t="s">
         <v>117</v>
@@ -30573,10 +30573,10 @@
         <v>451</v>
       </c>
       <c r="H122" s="75" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="I122" s="75" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="J122" s="78" t="s">
         <v>119</v>
@@ -30608,10 +30608,10 @@
         <v>451</v>
       </c>
       <c r="H123" s="75" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="I123" s="75" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="J123" s="78" t="s">
         <v>123</v>
@@ -30643,10 +30643,10 @@
         <v>451</v>
       </c>
       <c r="H124" s="75" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="I124" s="75" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="J124" s="78" t="s">
         <v>84</v>
@@ -30678,10 +30678,10 @@
         <v>451</v>
       </c>
       <c r="H125" s="75" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="I125" s="75" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="J125" s="78" t="s">
         <v>88</v>
@@ -30713,10 +30713,10 @@
         <v>451</v>
       </c>
       <c r="H126" s="75" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="I126" s="75" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="J126" s="78" t="s">
         <v>91</v>
@@ -30748,10 +30748,10 @@
         <v>451</v>
       </c>
       <c r="H127" s="75" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="I127" s="75" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="J127" s="78" t="s">
         <v>86</v>
@@ -30783,10 +30783,10 @@
         <v>451</v>
       </c>
       <c r="H128" s="75" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="I128" s="75" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="J128" s="78" t="s">
         <v>94</v>
@@ -30815,10 +30815,10 @@
         <v>85</v>
       </c>
       <c r="G129" s="75" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="H129" s="75" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="I129" s="75" t="s">
         <v>209</v>
@@ -30850,10 +30850,10 @@
         <v>85</v>
       </c>
       <c r="G130" s="75" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="H130" s="75" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="I130" s="75" t="s">
         <v>206</v>
@@ -30888,10 +30888,10 @@
         <v>451</v>
       </c>
       <c r="H131" s="75" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="I131" s="75" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="J131" s="78" t="s">
         <v>112</v>
@@ -30923,10 +30923,10 @@
         <v>451</v>
       </c>
       <c r="H132" s="75" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="I132" s="75" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="J132" s="78" t="s">
         <v>155</v>
@@ -30958,10 +30958,10 @@
         <v>451</v>
       </c>
       <c r="H133" s="75" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="I133" s="75" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="J133" s="78" t="s">
         <v>109</v>
@@ -30993,10 +30993,10 @@
         <v>451</v>
       </c>
       <c r="H134" s="75" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="I134" s="75" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="J134" s="78" t="s">
         <v>116</v>
@@ -31028,10 +31028,10 @@
         <v>451</v>
       </c>
       <c r="H135" s="75" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="I135" s="75" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="J135" s="78" t="s">
         <v>118</v>
@@ -31063,10 +31063,10 @@
         <v>451</v>
       </c>
       <c r="H136" s="75" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="I136" s="75" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="J136" s="78" t="s">
         <v>108</v>
@@ -31098,10 +31098,10 @@
         <v>451</v>
       </c>
       <c r="H137" s="75" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="I137" s="75" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="J137" s="78" t="s">
         <v>103</v>
@@ -31133,10 +31133,10 @@
         <v>451</v>
       </c>
       <c r="H138" s="75" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="I138" s="75" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="J138" s="78" t="s">
         <v>107</v>
@@ -31168,10 +31168,10 @@
         <v>451</v>
       </c>
       <c r="H139" s="75" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="I139" s="75" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="J139" s="78" t="s">
         <v>113</v>
@@ -31203,10 +31203,10 @@
         <v>451</v>
       </c>
       <c r="H140" s="75" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="I140" s="75" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="J140" s="78" t="s">
         <v>114</v>
@@ -31238,10 +31238,10 @@
         <v>451</v>
       </c>
       <c r="H141" s="75" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="I141" s="75" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="J141" s="78" t="s">
         <v>110</v>
@@ -31270,10 +31270,10 @@
         <v>85</v>
       </c>
       <c r="G142" s="75" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="H142" s="75" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="I142" s="75" t="s">
         <v>212</v>
@@ -31305,10 +31305,10 @@
         <v>85</v>
       </c>
       <c r="G143" s="75" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="H143" s="75" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="I143" s="75" t="s">
         <v>206</v>
@@ -31384,10 +31384,10 @@
         <v>406</v>
       </c>
       <c r="I1" s="29" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="J1" s="29" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
@@ -31743,7 +31743,7 @@
         <v>406</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="13.9" customHeight="1">
@@ -31814,10 +31814,10 @@
         <v>406</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="K1" s="71"/>
     </row>
@@ -31885,10 +31885,10 @@
         <v>406</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="42" customHeight="1">
@@ -31945,10 +31945,10 @@
         <v>1237</v>
       </c>
       <c r="F1" s="33" t="s">
+        <v>1553</v>
+      </c>
+      <c r="G1" s="33" t="s">
         <v>1238</v>
-      </c>
-      <c r="G1" s="33" t="s">
-        <v>1239</v>
       </c>
       <c r="H1" s="38" t="s">
         <v>1189</v>
@@ -31963,10 +31963,10 @@
         <v>1226</v>
       </c>
       <c r="L1" s="38" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="M1" s="46" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="N1" s="87" t="s">
         <v>1223</v>
@@ -31975,7 +31975,7 @@
         <v>1179</v>
       </c>
       <c r="P1" s="87" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="Q1" s="69" t="s">
         <v>1224</v>
@@ -32168,10 +32168,10 @@
         <v>1226</v>
       </c>
       <c r="I1" s="88" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="J1" s="46" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="K1" s="87" t="s">
         <v>1223</v>
@@ -32180,7 +32180,7 @@
         <v>1179</v>
       </c>
       <c r="M1" s="87" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="N1" s="39" t="s">
         <v>1224</v>
@@ -49847,10 +49847,10 @@
         <v>1237</v>
       </c>
       <c r="F1" s="33" t="s">
+        <v>1553</v>
+      </c>
+      <c r="G1" s="33" t="s">
         <v>1238</v>
-      </c>
-      <c r="G1" s="33" t="s">
-        <v>1239</v>
       </c>
       <c r="H1" s="38" t="s">
         <v>1189</v>
@@ -49865,10 +49865,10 @@
         <v>1226</v>
       </c>
       <c r="L1" s="38" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="M1" s="38" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="N1" s="87" t="s">
         <v>1223</v>
@@ -49877,7 +49877,7 @@
         <v>1179</v>
       </c>
       <c r="P1" s="87" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="Q1" s="39" t="s">
         <v>1224</v>
@@ -50051,18 +50051,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <TaxCatchAllLabel xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <TaxKeywordTaxHTField xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100ADE5A2812409A74E9D63F27EF88903B8" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7bd325d4d8d3d0cfa3a820f8985111cd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4d5313c0-c1e6-4122-afa9-da1ccdba405d" xmlns:ns3="362c980f-4e38-4cca-bd06-5104ee5993c5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a46f65cc92525120babafc4c69c5d04c" ns2:_="" ns3:_="">
     <xsd:import namespace="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
@@ -50239,6 +50227,18 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <TaxCatchAllLabel xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <TaxKeywordTaxHTField xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -50249,23 +50249,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{26A31DF9-0697-482A-AA13-03351BA7D829}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="362c980f-4e38-4cca-bd06-5104ee5993c5"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F5E65C0-0531-4AD3-8512-1785183D40D0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -50284,6 +50267,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{26A31DF9-0697-482A-AA13-03351BA7D829}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="362c980f-4e38-4cca-bd06-5104ee5993c5"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50425A79-54B8-4D54-9EAF-8388D1CE4120}">
   <ds:schemaRefs>

--- a/data/datacall_template/00template/Eel_Data_Call_Annex_Time_Series.xlsx
+++ b/data/datacall_template/00template/Eel_Data_Call_Annex_Time_Series.xlsx
@@ -4923,13 +4923,13 @@
     <t>fi_id_cou</t>
   </si>
   <si>
-    <t>is_female(1=female,0=male)</t>
-  </si>
-  <si>
     <t>gr_lastupdate</t>
   </si>
   <si>
     <t>fi_lastupdate</t>
+  </si>
+  <si>
+    <t>is_female_(1=female,0=male)</t>
   </si>
 </sst>
 </file>
@@ -5821,7 +5821,7 @@
         <xdr:cNvPr id="5" name="CustomShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6972,7 +6972,7 @@
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0C00-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7079,7 +7079,7 @@
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0D00-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7202,7 +7202,7 @@
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0E00-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7301,7 +7301,7 @@
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7436,7 +7436,7 @@
         <xdr:cNvPr id="3" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7538,7 +7538,7 @@
         <xdr:cNvPr id="2" name="Image 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7580,7 +7580,7 @@
         <xdr:cNvPr id="2" name="Metin kutusu 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7635,7 +7635,7 @@
         <xdr:cNvPr id="3" name="Metin kutusu 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7690,7 +7690,7 @@
         <xdr:cNvPr id="4" name="Metin kutusu 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1200-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7745,7 +7745,7 @@
         <xdr:cNvPr id="5" name="Metin kutusu 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1200-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7800,7 +7800,7 @@
         <xdr:cNvPr id="6" name="Metin kutusu 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1200-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7855,7 +7855,7 @@
         <xdr:cNvPr id="7" name="Metin kutusu 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1200-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7910,7 +7910,7 @@
         <xdr:cNvPr id="8" name="Metin kutusu 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1200-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7965,7 +7965,7 @@
         <xdr:cNvPr id="9" name="Metin kutusu 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1200-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8020,7 +8020,7 @@
         <xdr:cNvPr id="10" name="Metin kutusu 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1200-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8075,7 +8075,7 @@
         <xdr:cNvPr id="11" name="Metin kutusu 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1200-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8130,7 +8130,7 @@
         <xdr:cNvPr id="12" name="Metin kutusu 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1200-00000C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8185,7 +8185,7 @@
         <xdr:cNvPr id="13" name="Metin kutusu 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1200-00000D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8240,7 +8240,7 @@
         <xdr:cNvPr id="14" name="Metin kutusu 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1200-00000E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8295,7 +8295,7 @@
         <xdr:cNvPr id="15" name="Metin kutusu 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1200-00000F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8350,7 +8350,7 @@
         <xdr:cNvPr id="16" name="Metin kutusu 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1200-000010000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8405,7 +8405,7 @@
         <xdr:cNvPr id="17" name="Metin kutusu 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1200-000011000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8460,7 +8460,7 @@
         <xdr:cNvPr id="18" name="Metin kutusu 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1200-000012000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8515,7 +8515,7 @@
         <xdr:cNvPr id="19" name="Metin kutusu 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1200-000013000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8575,7 +8575,7 @@
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1A00-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1A00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8667,7 +8667,7 @@
         <xdr:cNvPr id="2" name="Image 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1800-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1800-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8714,7 +8714,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1900-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8762,7 +8762,7 @@
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8935,7 +8935,7 @@
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9033,7 +9033,7 @@
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9151,7 +9151,7 @@
         <xdr:cNvPr id="4" name="Image 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9201,7 +9201,7 @@
         <xdr:cNvPr id="5" name="Image 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0600-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9256,7 +9256,7 @@
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9422,7 +9422,7 @@
         <xdr:cNvPr id="7" name="Image 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9472,7 +9472,7 @@
         <xdr:cNvPr id="8" name="Image 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9527,7 +9527,7 @@
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0800-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9634,7 +9634,7 @@
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0900-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9757,7 +9757,7 @@
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0A00-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9856,7 +9856,7 @@
         <xdr:cNvPr id="2" name="ZoneTexte 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0B00-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10580,7 +10580,7 @@
     </row>
     <row r="41" spans="1:5 1025:1025">
       <c r="A41" s="54" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="B41" s="47" t="s">
         <v>1281</v>
@@ -10847,7 +10847,7 @@
     </row>
     <row r="71" spans="1:2 1025:1025">
       <c r="A71" s="54" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="B71" s="47" t="s">
         <v>1281</v>
@@ -10903,7 +10903,7 @@
     </row>
     <row r="78" spans="1:2 1025:1025">
       <c r="A78" s="61" t="s">
-        <v>1552</v>
+        <v>1554</v>
       </c>
       <c r="B78" s="62" t="s">
         <v>1300</v>
@@ -11030,7 +11030,7 @@
         <v>1237</v>
       </c>
       <c r="F1" s="34" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="G1" s="34" t="s">
         <v>1238</v>
@@ -11215,7 +11215,7 @@
         <v>1242</v>
       </c>
       <c r="H1" s="33" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="I1" s="33" t="s">
         <v>1243</v>
@@ -11236,7 +11236,7 @@
         <v>1197</v>
       </c>
       <c r="O1" s="70" t="s">
-        <v>1552</v>
+        <v>1554</v>
       </c>
       <c r="P1" s="38" t="s">
         <v>1520</v>
@@ -11330,7 +11330,7 @@
         <v>1197</v>
       </c>
       <c r="L1" s="70" t="s">
-        <v>1552</v>
+        <v>1554</v>
       </c>
       <c r="M1" s="38" t="s">
         <v>1520</v>
@@ -11443,7 +11443,7 @@
         <v>1242</v>
       </c>
       <c r="H1" s="33" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="I1" s="38" t="s">
         <v>1243</v>
@@ -11464,7 +11464,7 @@
         <v>1197</v>
       </c>
       <c r="O1" s="70" t="s">
-        <v>1552</v>
+        <v>1554</v>
       </c>
       <c r="P1" s="38" t="s">
         <v>1520</v>
@@ -11576,7 +11576,7 @@
         <v>1242</v>
       </c>
       <c r="H1" s="33" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="I1" s="38" t="s">
         <v>1243</v>
@@ -11597,7 +11597,7 @@
         <v>1197</v>
       </c>
       <c r="O1" s="70" t="s">
-        <v>1552</v>
+        <v>1554</v>
       </c>
       <c r="P1" s="38" t="s">
         <v>1520</v>
@@ -13640,7 +13640,7 @@
         <v>1226</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>1552</v>
+        <v>1554</v>
       </c>
       <c r="D7" s="42" t="s">
         <v>1257</v>
@@ -31945,7 +31945,7 @@
         <v>1237</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="G1" s="33" t="s">
         <v>1238</v>
@@ -49847,7 +49847,7 @@
         <v>1237</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="G1" s="33" t="s">
         <v>1238</v>
@@ -50051,6 +50051,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <TaxCatchAllLabel xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <TaxKeywordTaxHTField xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100ADE5A2812409A74E9D63F27EF88903B8" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7bd325d4d8d3d0cfa3a820f8985111cd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4d5313c0-c1e6-4122-afa9-da1ccdba405d" xmlns:ns3="362c980f-4e38-4cca-bd06-5104ee5993c5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a46f65cc92525120babafc4c69c5d04c" ns2:_="" ns3:_="">
     <xsd:import namespace="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
@@ -50227,18 +50239,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <TaxCatchAllLabel xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <TaxKeywordTaxHTField xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -50249,6 +50249,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{26A31DF9-0697-482A-AA13-03351BA7D829}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="362c980f-4e38-4cca-bd06-5104ee5993c5"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F5E65C0-0531-4AD3-8512-1785183D40D0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -50267,23 +50284,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{26A31DF9-0697-482A-AA13-03351BA7D829}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="362c980f-4e38-4cca-bd06-5104ee5993c5"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50425A79-54B8-4D54-9EAF-8388D1CE4120}">
   <ds:schemaRefs>
